--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商店类型" sheetId="26" r:id="rId2"/>
     <sheet name="商店页签" sheetId="27" r:id="rId3"/>
     <sheet name="货架" sheetId="28" r:id="rId4"/>
+    <sheet name="技能商店" sheetId="29" r:id="rId5"/>
+    <sheet name="点金手" sheetId="30" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="244">
   <si>
     <t>sheet名</t>
   </si>
@@ -132,11 +134,693 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型：0-普通商品，1-礼包</t>
+  </si>
+  <si>
+    <t>GoodsType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good.Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good.Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价类型:0-正常单价，1-阶梯价</t>
+  </si>
+  <si>
+    <t>货币类型</t>
+  </si>
+  <si>
+    <t>CoinType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:a&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommend</t>
+  </si>
+  <si>
+    <t>IfOpen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+  </si>
+  <si>
+    <t>荣誉商店</t>
+  </si>
+  <si>
+    <t>收集商店</t>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TagName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型体力药</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时扫荡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件参数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件参数2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>中型体力药</t>
+  </si>
+  <si>
+    <t>封魔匣</t>
+  </si>
+  <si>
+    <t>卷云链</t>
+  </si>
+  <si>
+    <t>杂货商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔骨</t>
+  </si>
+  <si>
+    <t>吸魂石</t>
+  </si>
+  <si>
+    <t>毁灭毒素</t>
+  </si>
+  <si>
+    <t>阿波普之鞘</t>
+  </si>
+  <si>
+    <t>红莲·缇娜碎片</t>
+  </si>
+  <si>
+    <t>黑尔·坎普碎片</t>
+  </si>
+  <si>
+    <t>北落师门碎片</t>
+  </si>
+  <si>
+    <t>关羽碎片</t>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+  </si>
+  <si>
+    <t>项羽碎片</t>
+  </si>
+  <si>
+    <t>君子兰</t>
+  </si>
+  <si>
+    <t>猫眼石</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>菠萝</t>
+  </si>
+  <si>
+    <t>清酒</t>
+  </si>
+  <si>
+    <t>紫罗兰</t>
+  </si>
+  <si>
+    <t>玛瑙</t>
+  </si>
+  <si>
+    <t>翡翠</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>百果酒</t>
+  </si>
+  <si>
+    <t>月季</t>
+  </si>
+  <si>
+    <t>水晶</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>火龙果</t>
+  </si>
+  <si>
+    <t>葡萄酒</t>
+  </si>
+  <si>
+    <t>神器低级材料</t>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+  </si>
+  <si>
+    <t>千年寒铁</t>
+  </si>
+  <si>
+    <t>万年陨铁</t>
+  </si>
+  <si>
+    <t>初级神器1配件1</t>
+  </si>
+  <si>
+    <t>初级神器1配件2</t>
+  </si>
+  <si>
+    <t>初级神器2配件1</t>
+  </si>
+  <si>
+    <t>初级神器2配件2</t>
+  </si>
+  <si>
+    <t>中级神器1配件1</t>
+  </si>
+  <si>
+    <t>中级神器1配件2</t>
+  </si>
+  <si>
+    <t>中级神器1配件3</t>
+  </si>
+  <si>
+    <t>中级神器1配件4</t>
+  </si>
+  <si>
+    <t>中级神器2配件1</t>
+  </si>
+  <si>
+    <t>中级神器2配件2</t>
+  </si>
+  <si>
+    <t>中级神器2配件3</t>
+  </si>
+  <si>
+    <t>中级神器2配件4</t>
+  </si>
+  <si>
+    <t>高级神器1配件1</t>
+  </si>
+  <si>
+    <t>高级神器1配件2</t>
+  </si>
+  <si>
+    <t>高级神器1配件3</t>
+  </si>
+  <si>
+    <t>高级神器1配件4</t>
+  </si>
+  <si>
+    <t>高级神器1配件5</t>
+  </si>
+  <si>
+    <t>高级神器1配件6</t>
+  </si>
+  <si>
+    <t>高级神器2配件1</t>
+  </si>
+  <si>
+    <t>高级神器2配件2</t>
+  </si>
+  <si>
+    <t>高级神器2配件3</t>
+  </si>
+  <si>
+    <t>高级神器2配件4</t>
+  </si>
+  <si>
+    <t>高级神器2配件5</t>
+  </si>
+  <si>
+    <t>高级神器2配件6</t>
+  </si>
+  <si>
+    <t>高级神器3配件1</t>
+  </si>
+  <si>
+    <t>高级神器3配件2</t>
+  </si>
+  <si>
+    <t>高级神器3配件3</t>
+  </si>
+  <si>
+    <t>高级神器3配件4</t>
+  </si>
+  <si>
+    <t>高级神器3配件5</t>
+  </si>
+  <si>
+    <t>高级神器3配件6</t>
+  </si>
+  <si>
+    <t>两仪剑鞘</t>
+  </si>
+  <si>
+    <t>剑结</t>
+  </si>
+  <si>
+    <t>护木</t>
+  </si>
+  <si>
+    <t>爪刃</t>
+  </si>
+  <si>
+    <t>绦带</t>
+  </si>
+  <si>
+    <t>文饰</t>
+  </si>
+  <si>
+    <t>骨圈</t>
+  </si>
+  <si>
+    <t>玉结</t>
+  </si>
+  <si>
+    <t>指虎</t>
+  </si>
+  <si>
+    <t>手镖</t>
+  </si>
+  <si>
+    <t>雷钻</t>
+  </si>
+  <si>
+    <t>臂刃</t>
+  </si>
+  <si>
+    <t>鬼王咒</t>
+  </si>
+  <si>
+    <t>虎獠</t>
+  </si>
+  <si>
+    <t>阎王炮</t>
+  </si>
+  <si>
+    <t>狱火锤</t>
+  </si>
+  <si>
+    <t>龙雀刀鞘</t>
+  </si>
+  <si>
+    <t>雀环</t>
+  </si>
+  <si>
+    <t>龙印</t>
+  </si>
+  <si>
+    <t>上古篆文</t>
+  </si>
+  <si>
+    <t>翼骨</t>
+  </si>
+  <si>
+    <t>冥神刻印</t>
+  </si>
+  <si>
+    <t>灼热磨沙</t>
+  </si>
+  <si>
+    <t>禁纹</t>
+  </si>
+  <si>
+    <t>限次类型:0-不限次，1-终身限次，2-每日限次，3-每周限次，4-每月限次</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20#30#50#50#80#80#100#100#150#150</t>
+  </si>
+  <si>
+    <t>30#30#50#50#80#80#120#120#150#150#200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉点</t>
+  </si>
+  <si>
+    <t>收集币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionParam[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionParam[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>Cost[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店页签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId,HelpCol,TagId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Loc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;</t>
+    <t>ShopId,HelpCol,TagId,HelpCol1,Loc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -144,245 +828,117 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>牧守令</t>
+  </si>
+  <si>
+    <t>点金手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>coins_shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFree</t>
+  </si>
+  <si>
+    <t>Cost[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否免费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商品类型：0-普通商品，1-礼包</t>
-  </si>
-  <si>
-    <t>GoodsType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good.Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good.Val</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SellType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>售价类型:0-正常单价，1-阶梯价</t>
-  </si>
-  <si>
-    <t>货币类型</t>
-  </si>
-  <si>
-    <t>CoinType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:a&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>原价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition.Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition.Param1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition.Param2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活条件ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活条件参数1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活条件参数2</t>
-  </si>
-  <si>
-    <t>Recommend</t>
-  </si>
-  <si>
-    <t>IfOpen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否推荐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-  </si>
-  <si>
-    <t>荣誉商店</t>
-  </si>
-  <si>
-    <t>收集商店</t>
-  </si>
-  <si>
-    <t>技能商店</t>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tags</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TagName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵技能商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人技能商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型体力药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时扫荡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵商店</t>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>coins_shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.lua</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +1140,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -601,11 +1157,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -901,17 +1454,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
@@ -943,44 +1496,118 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -994,11 +1621,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1028,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1053,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="b">
@@ -1065,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="b">
@@ -1077,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="b">
@@ -1089,22 +1714,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1117,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>21</v>
@@ -1158,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1175,7 +1788,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1186,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1201,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1216,90 +1829,105 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1309,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1324,16 +1952,17 @@
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
     <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="14" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="24.125" customWidth="1"/>
     <col min="17" max="17" width="9.625" customWidth="1"/>
     <col min="18" max="18" width="15.125" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="18.25" customWidth="1"/>
+    <col min="19" max="19" width="19.625" customWidth="1"/>
+    <col min="20" max="20" width="19.75" customWidth="1"/>
     <col min="21" max="21" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1351,58 +1980,58 @@
         <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>49</v>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -1419,126 +2048,126 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="T2" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="U2" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="V2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -1546,488 +2175,4640 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3">
-        <v>101</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+        <v>1101</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>150</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3">
-        <v>102</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+        <v>1102</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>200</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3">
-        <v>103</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+        <v>1203</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>150</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>91</v>
+      <c r="F7" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="3">
-        <v>104</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+        <v>1204</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>200</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="U7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2101</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>50</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="U8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2102</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>50</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="U9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2201</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2202</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>200</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2203</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="V12" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2204</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>200</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="V13" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2205</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>200</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2206</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2301</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>100</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="V16" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2302</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2303</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="V18" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2401</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>200</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2402</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2403</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>200</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="V21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3101</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P22" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3102</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P23" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>10</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3103</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>10</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3104</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>10</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3105</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3106</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3107</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>10</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3108</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3109</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>10</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3110</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>10</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3111</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>10</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3112</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3113</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>10</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3114</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3115</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P36" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>10</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4101</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" s="3">
+        <v>100</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>10</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4102</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>400</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4201</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>20</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4202</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P40" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>20</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4203</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>20</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4204</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>20</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4205</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P43" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>40</v>
+      </c>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4206</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P44" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>40</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4207</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P45" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>40</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4208</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>40</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4209</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>40</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4210</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P48" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>40</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4211</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>40</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="3">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4212</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P50" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>40</v>
+      </c>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="3">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4213</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>100</v>
+      </c>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="3">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4214</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="3">
+        <v>4215</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>100</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4216</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="3">
+        <v>17</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="3">
+        <v>4217</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>100</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="3">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4218</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P56" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>100</v>
+      </c>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4219</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4220</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4221</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4222</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="3">
+        <v>23</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4223</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4224</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="3">
+        <v>25</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="3">
+        <v>4225</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P63" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>100</v>
+      </c>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="3">
+        <v>26</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4226</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P64" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>100</v>
+      </c>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="3">
+        <v>27</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4227</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P65" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>100</v>
+      </c>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4228</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="3">
+        <v>29</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="3">
+        <v>4229</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P67" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>100</v>
+      </c>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="3">
+        <v>30</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="3">
+        <v>4230</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P68" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>100</v>
+      </c>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1304001</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1304001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1304002</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1304002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1304003</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1304003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1304004</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1304004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1304005</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1304005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1304006</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1304006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1304007</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1304007</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1304008</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1304008</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1304009</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1304009</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1304010</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1304010</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1304011</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1304012</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1304013</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1304014</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1304014</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1304015</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1304015</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1304016</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1304016</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="3">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="3">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="3">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="3">
+        <v>75</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="3">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="3">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="3">
+        <v>90</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="3">
+        <v>95</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="3">
+        <v>560</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,12 +19,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="304">
   <si>
     <t>sheet名</t>
   </si>
@@ -74,10 +80,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bool:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -134,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -326,10 +324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1小时扫荡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Goods</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -662,9 +656,6 @@
   <si>
     <t>item_id:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20#30#50#50#80#80#100#100#150#150</t>
   </si>
   <si>
     <t>30#30#50#50#80#80#120#120#150#150#200</t>
@@ -762,10 +753,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>技能经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>商店类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -794,26 +781,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId,HelpCol,TagId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId,HelpCol,TagId,HelpCol1,Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -912,52 +879,36 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>页签唯一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店类型</t>
+  </si>
+  <si>
+    <t>商店页签</t>
+  </si>
+  <si>
+    <t>货架</t>
+  </si>
+  <si>
+    <t>shop_goods.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签唯一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店类型</t>
-  </si>
-  <si>
-    <t>商店页签</t>
-  </si>
-  <si>
-    <t>货架</t>
-  </si>
-  <si>
-    <t>shop_goods.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1009,18 +960,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_new.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1034,6 +977,221 @@
   </si>
   <si>
     <t>int:e&lt;|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时扫荡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时扫荡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时扫荡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨碎片</t>
+  </si>
+  <si>
+    <t>天使·缇娜碎片</t>
+  </si>
+  <si>
+    <t>夏侯惇碎片</t>
+  </si>
+  <si>
+    <t>石灵明碎片</t>
+  </si>
+  <si>
+    <t>张郃碎片</t>
+  </si>
+  <si>
+    <t>西方龙碎片</t>
+  </si>
+  <si>
+    <t>李轩辕碎片</t>
+  </si>
+  <si>
+    <t>食火蜥碎片</t>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+  </si>
+  <si>
+    <t>于禁碎片</t>
+  </si>
+  <si>
+    <t>噬日碎片</t>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50#50#80#80#100#100#150#150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#200#200</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitNum</t>
+  </si>
+  <si>
+    <t>初始数量</t>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子页签ID，客户端非要这么做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1249,7 +1407,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,7 +1705,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1589,77 +1747,77 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1669,17 +1827,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1689,17 +1847,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -1709,14 +1867,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1727,17 +1885,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -1747,14 +1905,14 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1765,14 +1923,14 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1783,14 +1941,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1808,103 +1966,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="b">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1917,241 +2098,277 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="3" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2161,240 +2378,249 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="24.125" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
-    <col min="18" max="18" width="15.125" customWidth="1"/>
-    <col min="19" max="19" width="19.625" customWidth="1"/>
-    <col min="20" max="20" width="19.75" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="40.75" customWidth="1"/>
+    <col min="18" max="18" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="15.125" customWidth="1"/>
+    <col min="20" max="20" width="19.625" customWidth="1"/>
+    <col min="21" max="21" width="19.75" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
-        <v>192</v>
-      </c>
       <c r="S2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="T2" t="s">
         <v>189</v>
       </c>
       <c r="U2" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="W2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1101</v>
       </c>
@@ -2402,59 +2628,62 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>74</v>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
         <v>999</v>
       </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P4" s="2">
-        <v>150</v>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="Q4" s="2">
         <v>150</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>150</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1102</v>
       </c>
@@ -2462,183 +2691,192 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
         <v>999</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="2">
-        <v>200</v>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="Q5" s="2">
         <v>200</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>200</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="L6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
         <v>10</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>183</v>
+      <c r="O6" s="2">
+        <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q6" s="2">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="R6" s="2">
         <v>150</v>
       </c>
-      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="L7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
         <v>24</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" s="2">
         <v>200</v>
       </c>
-      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2101</v>
       </c>
@@ -2646,61 +2884,64 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="L8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P8" s="2">
-        <v>50</v>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q8" s="2">
         <v>50</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>50</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2102</v>
       </c>
@@ -2708,61 +2949,64 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>77</v>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="L9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>2</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P9" s="2">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q9" s="2">
         <v>50</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>50</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2201</v>
       </c>
@@ -2770,59 +3014,62 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="L10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>2</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P10" s="2">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q10" s="2">
         <v>200</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>200</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V10" s="2"/>
+      <c r="W10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2202</v>
       </c>
@@ -2830,59 +3077,62 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="L11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P11" s="2">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q11" s="2">
         <v>200</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>200</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V11" s="2"/>
+      <c r="W11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2203</v>
       </c>
@@ -2890,59 +3140,62 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P12" s="2">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q12" s="2">
         <v>200</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>200</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2204</v>
       </c>
@@ -2950,59 +3203,62 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="L13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>2</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P13" s="2">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q13" s="2">
         <v>200</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>200</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2205</v>
       </c>
@@ -3010,59 +3266,62 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="L14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P14" s="2">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q14" s="2">
         <v>200</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>200</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V14" s="2"/>
+      <c r="W14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2206</v>
       </c>
@@ -3070,59 +3329,62 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2">
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
+      <c r="H15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="L15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>2</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P15" s="2">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q15" s="2">
         <v>200</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>200</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V15" s="2"/>
+      <c r="W15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2301</v>
       </c>
@@ -3130,59 +3392,62 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>103</v>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
         <v>3</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>10</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="2">
-        <v>100</v>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q16" s="2">
         <v>100</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>100</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V16" s="2"/>
+      <c r="W16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2302</v>
       </c>
@@ -3190,59 +3455,62 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>104</v>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
         <v>3</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>10</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P17" s="2">
-        <v>100</v>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q17" s="2">
         <v>100</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>100</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2303</v>
       </c>
@@ -3250,59 +3518,62 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
         <v>3</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>10</v>
       </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P18" s="2">
-        <v>100</v>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q18" s="2">
         <v>100</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>100</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V18" s="2"/>
+      <c r="W18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2401</v>
       </c>
@@ -3310,59 +3581,62 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>106</v>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
         <v>3</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>10</v>
       </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" s="2">
-        <v>200</v>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q19" s="2">
         <v>200</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <v>200</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2402</v>
       </c>
@@ -3370,59 +3644,62 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>107</v>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
         <v>3</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>10</v>
       </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="2">
-        <v>200</v>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q20" s="2">
         <v>200</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>200</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2403</v>
       </c>
@@ -3430,59 +3707,62 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
         <v>3</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>10</v>
       </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="P21" s="2">
-        <v>200</v>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q21" s="2">
         <v>200</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2">
+        <v>200</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3101</v>
       </c>
@@ -3490,59 +3770,62 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>109</v>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P22" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q22" s="2">
         <v>10</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>10</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V22" s="2"/>
+      <c r="W22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3102</v>
       </c>
@@ -3550,59 +3833,62 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>110</v>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P23" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q23" s="2">
         <v>10</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2">
+        <v>10</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V23" s="2"/>
+      <c r="W23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3103</v>
       </c>
@@ -3610,59 +3896,62 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P24" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q24" s="2">
         <v>10</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>10</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V24" s="2"/>
+      <c r="W24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3104</v>
       </c>
@@ -3670,59 +3959,62 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P25" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q25" s="2">
         <v>10</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <v>10</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V25" s="2"/>
+      <c r="W25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3105</v>
       </c>
@@ -3730,59 +4022,62 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q26" s="2">
         <v>10</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>10</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V26" s="2"/>
+      <c r="W26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3106</v>
       </c>
@@ -3790,59 +4085,62 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2">
         <v>6</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P27" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q27" s="2">
         <v>10</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <v>10</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V27" s="2"/>
+      <c r="W27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3107</v>
       </c>
@@ -3850,59 +4148,62 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="2">
         <v>7</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>115</v>
+      <c r="F28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P28" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>10</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V28" s="2"/>
+      <c r="W28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3108</v>
       </c>
@@ -3910,59 +4211,62 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2">
         <v>8</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P29" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q29" s="2">
         <v>10</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>10</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>3109</v>
       </c>
@@ -3970,59 +4274,62 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="2">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="2">
         <v>9</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P30" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q30" s="2">
         <v>10</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2">
+        <v>10</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3110</v>
       </c>
@@ -4030,59 +4337,62 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="2">
         <v>10</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P31" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q31" s="2">
         <v>10</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2">
+        <v>10</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V31" s="2"/>
+      <c r="W31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>3111</v>
       </c>
@@ -4090,59 +4400,62 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="2">
         <v>11</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P32" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q32" s="2">
         <v>10</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2">
+        <v>10</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V32" s="2"/>
+      <c r="W32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>3112</v>
       </c>
@@ -4150,59 +4463,62 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="2">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2">
         <v>12</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P33" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q33" s="2">
         <v>10</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="2">
+        <v>10</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V33" s="2"/>
+      <c r="W33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>3113</v>
       </c>
@@ -4210,59 +4526,62 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="2">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="2">
         <v>13</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P34" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q34" s="2">
         <v>10</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="2">
+        <v>10</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V34" s="2"/>
+      <c r="W34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>3114</v>
       </c>
@@ -4270,59 +4589,62 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="2">
         <v>14</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="H35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P35" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q35" s="2">
         <v>10</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="2">
+        <v>10</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V35" s="2"/>
+      <c r="W35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3115</v>
       </c>
@@ -4330,59 +4652,62 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="2">
         <v>15</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P36" s="2">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="Q36" s="2">
         <v>10</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="2">
+        <v>10</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>4101</v>
       </c>
@@ -4390,59 +4715,62 @@
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>124</v>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K37" s="2">
+        <v>121</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="2">
         <v>100</v>
       </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P37" s="2">
-        <v>10</v>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q37" s="2">
         <v>10</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="2">
+        <v>10</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>4102</v>
       </c>
@@ -4450,59 +4778,62 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>125</v>
+      <c r="E38" s="2">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P38" s="2">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q38" s="2">
         <v>400</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="2">
+        <v>400</v>
+      </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V38" s="2"/>
+      <c r="W38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>4201</v>
       </c>
@@ -4510,59 +4841,62 @@
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>128</v>
+      <c r="E39" s="2">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P39" s="2">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q39" s="2">
         <v>20</v>
       </c>
-      <c r="R39" s="2"/>
+      <c r="R39" s="2">
+        <v>20</v>
+      </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V39" s="2"/>
+      <c r="W39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>4202</v>
       </c>
@@ -4570,59 +4904,62 @@
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>129</v>
+      <c r="E40" s="2">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P40" s="2">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2">
+        <v>20</v>
+      </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="V40" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V40" s="2"/>
+      <c r="W40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>4203</v>
       </c>
@@ -4630,59 +4967,62 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" s="2">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="2">
         <v>3</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P41" s="2">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q41" s="2">
         <v>20</v>
       </c>
-      <c r="R41" s="2"/>
+      <c r="R41" s="2">
+        <v>20</v>
+      </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V41" s="2"/>
+      <c r="W41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>4204</v>
       </c>
@@ -4690,59 +5030,62 @@
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" s="2">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P42" s="2">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q42" s="2">
         <v>20</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="R42" s="2">
+        <v>20</v>
+      </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V42" s="2"/>
+      <c r="W42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>4205</v>
       </c>
@@ -4750,59 +5093,62 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="2">
         <v>5</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P43" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q43" s="2">
         <v>40</v>
       </c>
-      <c r="R43" s="2"/>
+      <c r="R43" s="2">
+        <v>40</v>
+      </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V43" s="2"/>
+      <c r="W43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>4206</v>
       </c>
@@ -4810,59 +5156,62 @@
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="2">
         <v>6</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K44" s="2">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P44" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q44" s="2">
         <v>40</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="2">
+        <v>40</v>
+      </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="V44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V44" s="2"/>
+      <c r="W44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>4207</v>
       </c>
@@ -4870,59 +5219,62 @@
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="2">
         <v>7</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P45" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q45" s="2">
         <v>40</v>
       </c>
-      <c r="R45" s="2"/>
+      <c r="R45" s="2">
+        <v>40</v>
+      </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V45" s="2"/>
+      <c r="W45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>4208</v>
       </c>
@@ -4930,59 +5282,62 @@
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E46" s="2">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="2">
         <v>8</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P46" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q46" s="2">
         <v>40</v>
       </c>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2">
+        <v>40</v>
+      </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V46" s="2"/>
+      <c r="W46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>4209</v>
       </c>
@@ -4990,59 +5345,62 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="2">
         <v>9</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>136</v>
+      <c r="F47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="2">
+        <v>9</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P47" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q47" s="2">
         <v>40</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="2">
+        <v>40</v>
+      </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V47" s="2"/>
+      <c r="W47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>4210</v>
       </c>
@@ -5050,59 +5408,62 @@
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="E48" s="2">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="2">
         <v>10</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P48" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q48" s="2">
         <v>40</v>
       </c>
-      <c r="R48" s="2"/>
+      <c r="R48" s="2">
+        <v>40</v>
+      </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="V48" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V48" s="2"/>
+      <c r="W48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>4211</v>
       </c>
@@ -5110,59 +5471,62 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="2">
         <v>11</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P49" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q49" s="2">
         <v>40</v>
       </c>
-      <c r="R49" s="2"/>
+      <c r="R49" s="2">
+        <v>40</v>
+      </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="V49" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V49" s="2"/>
+      <c r="W49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>4212</v>
       </c>
@@ -5170,59 +5534,62 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="E50" s="2">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="2">
         <v>12</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P50" s="2">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q50" s="2">
         <v>40</v>
       </c>
-      <c r="R50" s="2"/>
+      <c r="R50" s="2">
+        <v>40</v>
+      </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="V50" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V50" s="2"/>
+      <c r="W50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>4213</v>
       </c>
@@ -5230,59 +5597,62 @@
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E51" s="2">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="2">
         <v>13</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P51" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q51" s="2">
         <v>100</v>
       </c>
-      <c r="R51" s="2"/>
+      <c r="R51" s="2">
+        <v>100</v>
+      </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-      <c r="V51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V51" s="2"/>
+      <c r="W51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>4214</v>
       </c>
@@ -5290,59 +5660,62 @@
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="2">
         <v>14</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P52" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q52" s="2">
         <v>100</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="2">
+        <v>100</v>
+      </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-      <c r="V52" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V52" s="2"/>
+      <c r="W52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>4215</v>
       </c>
@@ -5350,59 +5723,62 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="2">
         <v>15</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P53" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q53" s="2">
         <v>100</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="R53" s="2">
+        <v>100</v>
+      </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-      <c r="V53" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V53" s="2"/>
+      <c r="W53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>4216</v>
       </c>
@@ -5410,59 +5786,62 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="E54" s="2">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="2">
         <v>16</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P54" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q54" s="2">
         <v>100</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="R54" s="2">
+        <v>100</v>
+      </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
-      <c r="V54" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V54" s="2"/>
+      <c r="W54" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>4217</v>
       </c>
@@ -5470,59 +5849,62 @@
         <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="E55" s="2">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="2">
         <v>17</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P55" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q55" s="2">
         <v>100</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="2">
+        <v>100</v>
+      </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="V55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V55" s="2"/>
+      <c r="W55" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>4218</v>
       </c>
@@ -5530,59 +5912,62 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="E56" s="2">
+        <v>9</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="2">
         <v>18</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P56" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q56" s="2">
         <v>100</v>
       </c>
-      <c r="R56" s="2"/>
+      <c r="R56" s="2">
+        <v>100</v>
+      </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V56" s="2"/>
+      <c r="W56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>4219</v>
       </c>
@@ -5590,59 +5975,62 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="E57" s="2">
+        <v>9</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="2">
         <v>19</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P57" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q57" s="2">
         <v>100</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="R57" s="2">
+        <v>100</v>
+      </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-      <c r="V57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V57" s="2"/>
+      <c r="W57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>4220</v>
       </c>
@@ -5650,59 +6038,62 @@
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="E58" s="2">
+        <v>9</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="2">
         <v>20</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P58" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q58" s="2">
         <v>100</v>
       </c>
-      <c r="R58" s="2"/>
+      <c r="R58" s="2">
+        <v>100</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-      <c r="V58" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V58" s="2"/>
+      <c r="W58" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>4221</v>
       </c>
@@ -5710,59 +6101,62 @@
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="E59" s="2">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="2">
         <v>21</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P59" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q59" s="2">
         <v>100</v>
       </c>
-      <c r="R59" s="2"/>
+      <c r="R59" s="2">
+        <v>100</v>
+      </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-      <c r="V59" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V59" s="2"/>
+      <c r="W59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>4222</v>
       </c>
@@ -5770,59 +6164,62 @@
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="E60" s="2">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="2">
         <v>22</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P60" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q60" s="2">
         <v>100</v>
       </c>
-      <c r="R60" s="2"/>
+      <c r="R60" s="2">
+        <v>100</v>
+      </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
-      <c r="V60" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V60" s="2"/>
+      <c r="W60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>4223</v>
       </c>
@@ -5830,59 +6227,62 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="E61" s="2">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="2">
         <v>23</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P61" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q61" s="2">
         <v>100</v>
       </c>
-      <c r="R61" s="2"/>
+      <c r="R61" s="2">
+        <v>100</v>
+      </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V61" s="2"/>
+      <c r="W61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>4224</v>
       </c>
@@ -5890,59 +6290,62 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="E62" s="2">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="2">
         <v>24</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="H62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K62" s="2">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P62" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q62" s="2">
         <v>100</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="R62" s="2">
+        <v>100</v>
+      </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
-      <c r="V62" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V62" s="2"/>
+      <c r="W62" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>4225</v>
       </c>
@@ -5950,59 +6353,62 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="E63" s="2">
+        <v>9</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="2">
         <v>25</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P63" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q63" s="2">
         <v>100</v>
       </c>
-      <c r="R63" s="2"/>
+      <c r="R63" s="2">
+        <v>100</v>
+      </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-      <c r="V63" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V63" s="2"/>
+      <c r="W63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>4226</v>
       </c>
@@ -6010,59 +6416,62 @@
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="E64" s="2">
+        <v>9</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="2">
         <v>26</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="H64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P64" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q64" s="2">
         <v>100</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="R64" s="2">
+        <v>100</v>
+      </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
-      <c r="V64" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V64" s="2"/>
+      <c r="W64" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>4227</v>
       </c>
@@ -6070,59 +6479,62 @@
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="E65" s="2">
+        <v>9</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="2">
         <v>27</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="H65" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="L65" s="2">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P65" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q65" s="2">
         <v>100</v>
       </c>
-      <c r="R65" s="2"/>
+      <c r="R65" s="2">
+        <v>100</v>
+      </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V65" s="2"/>
+      <c r="W65" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>4228</v>
       </c>
@@ -6130,59 +6542,62 @@
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="E66" s="2">
+        <v>9</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="2">
         <v>28</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="L66" s="2">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P66" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q66" s="2">
         <v>100</v>
       </c>
-      <c r="R66" s="2"/>
+      <c r="R66" s="2">
+        <v>100</v>
+      </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
-      <c r="V66" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V66" s="2"/>
+      <c r="W66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>4229</v>
       </c>
@@ -6190,59 +6605,62 @@
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="2">
+      <c r="E67" s="2">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="2">
         <v>29</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H67" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P67" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q67" s="2">
         <v>100</v>
       </c>
-      <c r="R67" s="2"/>
+      <c r="R67" s="2">
+        <v>100</v>
+      </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
-      <c r="V67" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V67" s="2"/>
+      <c r="W67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>4230</v>
       </c>
@@ -6250,55 +6668,58 @@
         <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="E68" s="2">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" s="2">
         <v>30</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="L68" s="2">
-        <v>0</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P68" s="2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q68" s="2">
         <v>100</v>
       </c>
-      <c r="R68" s="2"/>
+      <c r="R68" s="2">
+        <v>100</v>
+      </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-      <c r="V68" s="2" t="b">
+      <c r="V68" s="2"/>
+      <c r="W68" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6311,284 +6732,409 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="2" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1304001</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>1304001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1304001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1304002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1304002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1304003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1304004</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1304005</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1304006</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1304007</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1304002</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1304002</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1304003</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1304003</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>1304004</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1304004</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1304005</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1304005</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1304006</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1304006</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>1304007</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1304007</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B13" s="2">
         <v>1304008</v>
       </c>
-      <c r="B11" s="2">
-        <v>1304008</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
         <v>1304009</v>
       </c>
-      <c r="B12" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
         <v>1304010</v>
       </c>
-      <c r="B13" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
         <v>1304011</v>
       </c>
-      <c r="B14" s="2">
-        <v>1304011</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
         <v>1304012</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
         <v>1304012</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
         <v>1304013</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
         <v>1304013</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
         <v>1304014</v>
       </c>
-      <c r="B17" s="2">
-        <v>1304014</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
         <v>1304015</v>
       </c>
-      <c r="B18" s="2">
-        <v>1304015</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
         <v>1304016</v>
       </c>
-      <c r="B19" s="2">
-        <v>1304016</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="2">
-        <v>10</v>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6602,7 +7148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6614,62 +7162,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6680,16 +7228,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6698,16 +7246,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6716,16 +7264,16 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F6" s="2">
-        <v>130</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6734,16 +7282,16 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F7" s="2">
-        <v>160</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6752,16 +7300,16 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D8" s="2">
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F8" s="2">
-        <v>190</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6770,16 +7318,16 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F9" s="2">
-        <v>220</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6788,16 +7336,16 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D10" s="2">
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F10" s="2">
-        <v>250</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6806,16 +7354,16 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D11" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F11" s="2">
-        <v>280</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6824,16 +7372,16 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D12" s="2">
         <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2">
-        <v>300</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6842,16 +7390,16 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D13" s="2">
         <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F13" s="2">
-        <v>330</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6860,16 +7408,16 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D14" s="2">
         <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F14" s="2">
-        <v>350</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6878,16 +7426,16 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D15" s="2">
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F15" s="2">
-        <v>380</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6896,16 +7444,16 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D16" s="2">
         <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F16" s="2">
-        <v>400</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6914,16 +7462,16 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D17" s="2">
         <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F17" s="2">
-        <v>430</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6932,16 +7480,16 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2">
         <v>75</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F18" s="2">
-        <v>450</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6950,16 +7498,16 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D19" s="2">
         <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F19" s="2">
-        <v>470</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6968,16 +7516,16 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D20" s="2">
         <v>85</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F20" s="2">
-        <v>490</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6986,16 +7534,16 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D21" s="2">
         <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F21" s="2">
-        <v>510</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7004,16 +7552,16 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D22" s="2">
         <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F22" s="2">
-        <v>540</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7022,16 +7570,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D23" s="2">
         <v>100</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F23" s="2">
-        <v>560</v>
+        <v>8450</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商店类型" sheetId="26" r:id="rId2"/>
     <sheet name="商店页签" sheetId="27" r:id="rId3"/>
-    <sheet name="货架" sheetId="28" r:id="rId4"/>
+    <sheet name="货架" sheetId="31" r:id="rId4"/>
     <sheet name="技能商店" sheetId="29" r:id="rId5"/>
     <sheet name="点金手" sheetId="30" r:id="rId6"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="306">
   <si>
     <t>sheet名</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Good.Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,10 +175,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>限制数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -251,15 +243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>杂货店</t>
-  </si>
-  <si>
-    <t>荣誉商店</t>
-  </si>
-  <si>
-    <t>收集商店</t>
-  </si>
-  <si>
     <t>string:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -292,46 +275,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>收集商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>芦花古楼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>神器商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型体力药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ConditionId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -344,308 +291,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>寄灵人抽卡券</t>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-  </si>
-  <si>
-    <t>中型体力药</t>
-  </si>
-  <si>
-    <t>封魔匣</t>
-  </si>
-  <si>
-    <t>卷云链</t>
-  </si>
-  <si>
-    <t>杂货商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>关羽碎片</t>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+  </si>
+  <si>
+    <t>项羽碎片</t>
+  </si>
+  <si>
+    <t>神器低级材料</t>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+  </si>
+  <si>
+    <t>千年寒铁</t>
+  </si>
+  <si>
+    <t>万年陨铁</t>
   </si>
   <si>
     <t>高级神器1配件5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件6</t>
+  </si>
+  <si>
+    <t>高级神器2配件5</t>
+  </si>
+  <si>
+    <t>高级神器2配件6</t>
+  </si>
+  <si>
+    <t>高级神器3配件5</t>
   </si>
   <si>
     <t>高级神器3配件6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器1配件6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔骨</t>
-  </si>
-  <si>
-    <t>吸魂石</t>
-  </si>
-  <si>
-    <t>毁灭毒素</t>
-  </si>
-  <si>
-    <t>阿波普之鞘</t>
-  </si>
-  <si>
-    <t>红莲·缇娜碎片</t>
-  </si>
-  <si>
-    <t>黑尔·坎普碎片</t>
-  </si>
-  <si>
-    <t>北落师门碎片</t>
-  </si>
-  <si>
-    <t>关羽碎片</t>
-  </si>
-  <si>
-    <t>典韦碎片</t>
-  </si>
-  <si>
-    <t>项羽碎片</t>
-  </si>
-  <si>
-    <t>君子兰</t>
-  </si>
-  <si>
-    <t>猫眼石</t>
-  </si>
-  <si>
-    <t>孔雀石</t>
-  </si>
-  <si>
-    <t>菠萝</t>
-  </si>
-  <si>
-    <t>清酒</t>
-  </si>
-  <si>
-    <t>紫罗兰</t>
-  </si>
-  <si>
-    <t>玛瑙</t>
-  </si>
-  <si>
-    <t>翡翠</t>
-  </si>
-  <si>
-    <t>葡萄</t>
-  </si>
-  <si>
-    <t>百果酒</t>
-  </si>
-  <si>
-    <t>月季</t>
-  </si>
-  <si>
-    <t>水晶</t>
-  </si>
-  <si>
-    <t>红宝石</t>
-  </si>
-  <si>
-    <t>火龙果</t>
-  </si>
-  <si>
-    <t>葡萄酒</t>
-  </si>
-  <si>
-    <t>神器低级材料</t>
-  </si>
-  <si>
-    <t>神器高级材料</t>
-  </si>
-  <si>
-    <t>千年寒铁</t>
-  </si>
-  <si>
-    <t>万年陨铁</t>
-  </si>
-  <si>
-    <t>初级神器1配件1</t>
-  </si>
-  <si>
-    <t>初级神器1配件2</t>
-  </si>
-  <si>
-    <t>初级神器2配件1</t>
-  </si>
-  <si>
-    <t>初级神器2配件2</t>
-  </si>
-  <si>
-    <t>中级神器1配件1</t>
-  </si>
-  <si>
-    <t>中级神器1配件2</t>
-  </si>
-  <si>
-    <t>中级神器1配件3</t>
-  </si>
-  <si>
-    <t>中级神器1配件4</t>
-  </si>
-  <si>
-    <t>中级神器2配件1</t>
-  </si>
-  <si>
-    <t>中级神器2配件2</t>
-  </si>
-  <si>
-    <t>中级神器2配件3</t>
-  </si>
-  <si>
-    <t>中级神器2配件4</t>
-  </si>
-  <si>
-    <t>高级神器1配件1</t>
-  </si>
-  <si>
-    <t>高级神器1配件2</t>
-  </si>
-  <si>
-    <t>高级神器1配件3</t>
-  </si>
-  <si>
-    <t>高级神器1配件4</t>
-  </si>
-  <si>
-    <t>高级神器1配件5</t>
-  </si>
-  <si>
-    <t>高级神器1配件6</t>
-  </si>
-  <si>
-    <t>高级神器2配件1</t>
-  </si>
-  <si>
-    <t>高级神器2配件2</t>
-  </si>
-  <si>
-    <t>高级神器2配件3</t>
-  </si>
-  <si>
-    <t>高级神器2配件4</t>
-  </si>
-  <si>
-    <t>高级神器2配件5</t>
-  </si>
-  <si>
-    <t>高级神器2配件6</t>
-  </si>
-  <si>
-    <t>高级神器3配件1</t>
-  </si>
-  <si>
-    <t>高级神器3配件2</t>
-  </si>
-  <si>
-    <t>高级神器3配件3</t>
-  </si>
-  <si>
-    <t>高级神器3配件4</t>
-  </si>
-  <si>
-    <t>高级神器3配件5</t>
-  </si>
-  <si>
-    <t>高级神器3配件6</t>
-  </si>
-  <si>
-    <t>两仪剑鞘</t>
-  </si>
-  <si>
-    <t>剑结</t>
-  </si>
-  <si>
-    <t>护木</t>
-  </si>
-  <si>
-    <t>爪刃</t>
-  </si>
-  <si>
-    <t>绦带</t>
-  </si>
-  <si>
-    <t>文饰</t>
-  </si>
-  <si>
-    <t>骨圈</t>
-  </si>
-  <si>
-    <t>玉结</t>
-  </si>
-  <si>
-    <t>指虎</t>
-  </si>
-  <si>
-    <t>手镖</t>
-  </si>
-  <si>
-    <t>雷钻</t>
-  </si>
-  <si>
-    <t>臂刃</t>
-  </si>
-  <si>
-    <t>鬼王咒</t>
-  </si>
-  <si>
-    <t>虎獠</t>
-  </si>
-  <si>
-    <t>阎王炮</t>
-  </si>
-  <si>
-    <t>狱火锤</t>
-  </si>
-  <si>
-    <t>龙雀刀鞘</t>
-  </si>
-  <si>
-    <t>雀环</t>
-  </si>
-  <si>
-    <t>龙印</t>
-  </si>
-  <si>
-    <t>上古篆文</t>
-  </si>
-  <si>
-    <t>翼骨</t>
-  </si>
-  <si>
-    <t>冥神刻印</t>
-  </si>
-  <si>
-    <t>灼热磨沙</t>
-  </si>
-  <si>
-    <t>禁纹</t>
   </si>
   <si>
     <t>限次类型:0-不限次，1-终身限次，2-每日限次，3-每周限次，4-每月限次</t>
@@ -658,38 +340,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>30#30#50#50#80#80#120#120#150#150#200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>荣誉点</t>
   </si>
   <si>
-    <t>收集币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -785,9 +439,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>牧守令</t>
-  </si>
-  <si>
     <t>点金手</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -980,218 +631,586 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>唐流雨碎片</t>
+  </si>
+  <si>
+    <t>天使·缇娜碎片</t>
+  </si>
+  <si>
+    <t>夏侯惇碎片</t>
+  </si>
+  <si>
+    <t>石灵明碎片</t>
+  </si>
+  <si>
+    <t>张郃碎片</t>
+  </si>
+  <si>
+    <t>西方龙碎片</t>
+  </si>
+  <si>
+    <t>李轩辕碎片</t>
+  </si>
+  <si>
+    <t>食火蜥碎片</t>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+  </si>
+  <si>
+    <t>于禁碎片</t>
+  </si>
+  <si>
+    <t>噬日碎片</t>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitNum</t>
+  </si>
+  <si>
+    <t>初始数量</t>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速挂机券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>初级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全都卖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌福利</t>
+  </si>
+  <si>
+    <t>卡牌福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2小时扫荡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时扫荡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时扫荡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨碎片</t>
-  </si>
-  <si>
-    <t>天使·缇娜碎片</t>
-  </si>
-  <si>
-    <t>夏侯惇碎片</t>
+  </si>
+  <si>
+    <t>子页签唯一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南御夫碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+  </si>
+  <si>
+    <t>30#30#50#50#80#80#120#120#150#150#200</t>
+  </si>
+  <si>
+    <t>50#50#80#80#100#100#150#150#200#200</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器56宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器宝龛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x]</t>
+  </si>
+  <si>
+    <t>芦花币</t>
+  </si>
+  <si>
+    <t>初级神器1宝箱</t>
+  </si>
+  <si>
+    <t>初级神器2宝箱</t>
+  </si>
+  <si>
+    <t>中级神器1宝箱</t>
+  </si>
+  <si>
+    <t>中级神器2宝箱</t>
+  </si>
+  <si>
+    <t>高级神器1宝箱</t>
+  </si>
+  <si>
+    <t>高级神器2宝箱</t>
+  </si>
+  <si>
+    <t>高级神器3宝箱</t>
+  </si>
+  <si>
+    <t>李轩辕碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>石灵明碎片</t>
-  </si>
-  <si>
-    <t>张郃碎片</t>
-  </si>
-  <si>
-    <t>西方龙碎片</t>
-  </si>
-  <si>
-    <t>李轩辕碎片</t>
-  </si>
-  <si>
-    <t>食火蜥碎片</t>
-  </si>
-  <si>
-    <t>徐晃碎片</t>
-  </si>
-  <si>
-    <t>张飞碎片</t>
-  </si>
-  <si>
-    <t>于禁碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>噬日碎片</t>
-  </si>
-  <si>
-    <t>飞廉碎片</t>
-  </si>
-  <si>
-    <t>高顺碎片</t>
-  </si>
-  <si>
-    <t>烈风螳螂碎片</t>
-  </si>
-  <si>
-    <t>典韦碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50#50#80#80#100#100#150#150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#200#200</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitNum</t>
-  </si>
-  <si>
-    <t>初始数量</t>
-  </si>
-  <si>
-    <t>int:e&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpCol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子页签ID，客户端非要这么做</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+  </si>
+  <si>
+    <t>星辰石</t>
+  </si>
+  <si>
+    <t>月亮石</t>
+  </si>
+  <si>
+    <t>太阳石</t>
+  </si>
+  <si>
+    <t>红莲·缇娜碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪剑宝箱</t>
+  </si>
+  <si>
+    <t>无界之爪宝箱</t>
+  </si>
+  <si>
+    <t>踏雪白狼宝箱</t>
+  </si>
+  <si>
+    <t>大荒紫电宝箱</t>
+  </si>
+  <si>
+    <t>十殿阎罗宝箱</t>
+  </si>
+  <si>
+    <t>大夏龙雀宝箱</t>
+  </si>
+  <si>
+    <t>阿波普之刃宝箱</t>
+  </si>
+  <si>
+    <t>五行宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人符箓</t>
+  </si>
+  <si>
+    <t>守护灵符箓</t>
+  </si>
+  <si>
+    <t>ResBarId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源栏ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1426,7 +1445,18 @@
     <cellStyle name="中文标题" xfId="2"/>
     <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1747,17 +1777,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -1767,17 +1797,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -1787,17 +1817,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1807,17 +1837,17 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1827,17 +1857,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1847,17 +1877,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -1867,14 +1897,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1885,17 +1915,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -1905,14 +1935,14 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1923,10 +1953,10 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -1941,14 +1971,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1966,24 +1996,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A6:E6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -1995,26 +2026,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2029,68 +2060,278 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
+      <c r="C4" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
+      <c r="C5" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>215</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="K44 J41:K42 J43">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -2098,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,15 +2350,15 @@
     <col min="3" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2126,41 +2367,47 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2172,16 +2419,19 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2189,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2198,11 +2448,14 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2210,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -2219,32 +2472,38 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2252,20 +2511,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2273,41 +2535,47 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2315,60 +2583,51 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="H10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2378,28 +2637,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="21.25" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="11.75" customWidth="1"/>
-    <col min="17" max="17" width="40.75" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="20.75" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="44.25" customWidth="1"/>
     <col min="18" max="18" width="9.625" customWidth="1"/>
     <col min="19" max="19" width="15.125" customWidth="1"/>
     <col min="20" max="20" width="19.625" customWidth="1"/>
@@ -2409,73 +2668,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -2483,70 +2742,70 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="U2" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="W2" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2554,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -2563,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -2572,55 +2831,55 @@
         <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1101</v>
       </c>
@@ -2628,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2637,28 +2896,28 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>72</v>
+      <c r="H4" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>81</v>
+      <c r="K4" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2">
         <v>999</v>
@@ -2667,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>150</v>
-      </c>
-      <c r="R4" s="2">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>100</v>
+      </c>
+      <c r="R4" s="3">
+        <v>100</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -2683,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1102</v>
       </c>
@@ -2691,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2700,28 +2959,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>73</v>
+      <c r="H5" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>82</v>
+      <c r="K5" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
         <v>999</v>
@@ -2730,12 +2989,12 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="3">
         <v>200</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>200</v>
       </c>
       <c r="S5" s="2"/>
@@ -2746,39 +3005,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1201</v>
+        <v>1103</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>271</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>271</v>
+      <c r="K6" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -2787,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="N6" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>272</v>
+        <v>81</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="R6" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -2811,39 +3070,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1202</v>
+        <v>1104</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>249</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>249</v>
+      <c r="K7" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -2852,16 +3111,16 @@
         <v>2</v>
       </c>
       <c r="N7" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>182</v>
+        <v>81</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -2869,46 +3128,44 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
+      <c r="V7" s="2"/>
       <c r="W7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>2101</v>
+        <v>1105</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>208</v>
+        <v>239</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -2917,63 +3174,61 @@
         <v>2</v>
       </c>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="R8" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
+      <c r="V8" s="2"/>
       <c r="W8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2102</v>
+        <v>1106</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>83</v>
+      <c r="K9" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -2982,15 +3237,15 @@
         <v>2</v>
       </c>
       <c r="N9" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="3">
         <v>50</v>
       </c>
       <c r="R9" s="2">
@@ -2999,46 +3254,44 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>2201</v>
+        <v>1201</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>141</v>
+      <c r="K10" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3047,19 +3300,19 @@
         <v>2</v>
       </c>
       <c r="N10" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="R10" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -3071,37 +3324,37 @@
     </row>
     <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>84</v>
+        <v>281</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>142</v>
+      <c r="K11" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3110,19 +3363,19 @@
         <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R11" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3134,37 +3387,37 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>2203</v>
+        <v>1203</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3173,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="N12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="R12" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -3197,37 +3450,37 @@
     </row>
     <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2204</v>
+        <v>1204</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3236,19 +3489,19 @@
         <v>2</v>
       </c>
       <c r="N13" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="R13" s="2">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -3260,37 +3513,37 @@
     </row>
     <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>2205</v>
+        <v>1205</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>246</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>153</v>
+      <c r="K14" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3299,19 +3552,19 @@
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="R14" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -3323,37 +3576,37 @@
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>2206</v>
+        <v>1206</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>99</v>
+        <v>294</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>154</v>
+      <c r="K15" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3361,20 +3614,20 @@
       <c r="M15" s="2">
         <v>2</v>
       </c>
-      <c r="N15" s="2">
-        <v>2</v>
+      <c r="N15" s="3">
+        <v>25</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="R15" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -3386,58 +3639,58 @@
     </row>
     <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2301</v>
+        <v>1207</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>3</v>
-      </c>
-      <c r="N16" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R16" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -3449,58 +3702,58 @@
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2302</v>
+        <v>1301</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>101</v>
+      <c r="K17" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>3</v>
-      </c>
-      <c r="N17" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>183</v>
+      <c r="P17" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="Q17" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="R17" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -3512,58 +3765,58 @@
     </row>
     <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>2303</v>
+        <v>1302</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>102</v>
+      <c r="K18" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>3</v>
-      </c>
-      <c r="N18" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>183</v>
+      <c r="P18" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="Q18" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R18" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -3575,58 +3828,58 @@
     </row>
     <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>2401</v>
+        <v>1303</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>103</v>
+      <c r="K19" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>3</v>
-      </c>
-      <c r="N19" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>183</v>
+      <c r="P19" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="Q19" s="2">
-        <v>200</v>
+        <v>1750</v>
       </c>
       <c r="R19" s="2">
-        <v>200</v>
+        <v>1750</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -3638,58 +3891,58 @@
     </row>
     <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>3</v>
-      </c>
-      <c r="N20" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>183</v>
+      <c r="P20" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="Q20" s="2">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="R20" s="2">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -3701,58 +3954,58 @@
     </row>
     <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>2403</v>
+        <v>1305</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>183</v>
+      <c r="P21" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="Q21" s="2">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="R21" s="2">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -3764,58 +4017,58 @@
     </row>
     <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>3101</v>
+        <v>2101</v>
       </c>
       <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>184</v>
+      <c r="P22" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q22" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="R22" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -3827,58 +4080,58 @@
     </row>
     <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>3102</v>
+        <v>2102</v>
       </c>
       <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>184</v>
+      <c r="P23" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q23" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="R23" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -3890,58 +4143,58 @@
     </row>
     <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>3103</v>
+        <v>2103</v>
       </c>
       <c r="B24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>108</v>
+      <c r="H24" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>184</v>
+      <c r="P24" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q24" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R24" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -3953,58 +4206,58 @@
     </row>
     <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>3104</v>
+        <v>2104</v>
       </c>
       <c r="B25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>109</v>
+      <c r="H25" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>184</v>
+      <c r="P25" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q25" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R25" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -4016,58 +4269,58 @@
     </row>
     <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>3105</v>
+        <v>2105</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>110</v>
+      <c r="H26" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>184</v>
+      <c r="P26" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q26" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R26" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -4079,58 +4332,58 @@
     </row>
     <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>3106</v>
+        <v>2106</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>111</v>
+      <c r="H27" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>184</v>
+      <c r="P27" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q27" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="R27" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -4142,58 +4395,58 @@
     </row>
     <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>3107</v>
+        <v>2107</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G28" s="2">
         <v>7</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>112</v>
+      <c r="H28" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>184</v>
+      <c r="P28" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q28" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="R28" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -4205,58 +4458,58 @@
     </row>
     <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>3108</v>
+        <v>2108</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G29" s="2">
         <v>8</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>113</v>
+      <c r="H29" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>113</v>
+      <c r="K29" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>184</v>
+      <c r="P29" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q29" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="R29" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -4268,52 +4521,52 @@
     </row>
     <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>3109</v>
+        <v>2109</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>114</v>
+      <c r="H30" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>184</v>
+      <c r="P30" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q30" s="2">
         <v>10</v>
@@ -4331,58 +4584,58 @@
     </row>
     <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>3110</v>
+        <v>2201</v>
       </c>
       <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
         <v>3</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="2">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O31" s="2">
         <v>0</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>184</v>
+      <c r="P31" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q31" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R31" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -4394,58 +4647,58 @@
     </row>
     <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>3111</v>
+        <v>2202</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G32" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>116</v>
+        <v>266</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>184</v>
+      <c r="P32" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q32" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R32" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -4457,37 +4710,37 @@
     </row>
     <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>3112</v>
+        <v>3101</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G33" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4496,19 +4749,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="Q33" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R33" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -4520,37 +4773,37 @@
     </row>
     <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>3113</v>
+        <v>3102</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G34" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4559,19 +4812,19 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="Q34" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R34" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -4583,37 +4836,37 @@
     </row>
     <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>3114</v>
+        <v>3103</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G35" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -4622,19 +4875,19 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="Q35" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R35" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -4646,37 +4899,37 @@
     </row>
     <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>3115</v>
+        <v>3104</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G36" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -4685,19 +4938,19 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R36" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -4709,58 +4962,58 @@
     </row>
     <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>4101</v>
+        <v>3105</v>
       </c>
       <c r="B37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" s="2">
         <v>100</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>10</v>
-      </c>
-      <c r="R37" s="2">
-        <v>10</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -4772,37 +5025,37 @@
     </row>
     <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>4102</v>
+        <v>3106</v>
       </c>
       <c r="B38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G38" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -4811,19 +5064,19 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="2">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="R38" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -4835,37 +5088,37 @@
     </row>
     <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>4201</v>
+        <v>3107</v>
       </c>
       <c r="B39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -4874,19 +5127,19 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R39" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -4898,52 +5151,52 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>4202</v>
+        <v>3108</v>
       </c>
       <c r="B40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G40" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="L40" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
@@ -4961,37 +5214,37 @@
     </row>
     <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>4203</v>
+        <v>3109</v>
       </c>
       <c r="B41" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" s="2">
         <v>9</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="2">
-        <v>3</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -5000,19 +5253,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="R41" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -5024,58 +5277,58 @@
     </row>
     <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>4204</v>
+        <v>3201</v>
       </c>
       <c r="B42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G42" s="2">
-        <v>4</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>128</v>
+      <c r="K42" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N42" s="3">
+        <v>5</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="R42" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -5087,58 +5340,58 @@
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>4205</v>
+        <v>3202</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2</v>
+      </c>
+      <c r="N43" s="3">
         <v>5</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="O43" s="2">
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q43" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="R43" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -5150,58 +5403,58 @@
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>4206</v>
+        <v>3203</v>
       </c>
       <c r="B44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="E44" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G44" s="2">
-        <v>6</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>130</v>
+      <c r="K44" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N44" s="3">
+        <v>5</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q44" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="R44" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -5213,58 +5466,58 @@
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>4207</v>
+        <v>3204</v>
       </c>
       <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="2">
         <v>4</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>9</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="2">
-        <v>7</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L45" s="2">
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="N45" s="3">
+        <v>5</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="Q45" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="R45" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -5275,1453 +5528,79 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>4208</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>9</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="2">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>40</v>
-      </c>
-      <c r="R46" s="2">
-        <v>40</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>4209</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>9</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="2">
-        <v>9</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>40</v>
-      </c>
-      <c r="R47" s="2">
-        <v>40</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>4210</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="2">
-        <v>10</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>40</v>
-      </c>
-      <c r="R48" s="2">
-        <v>40</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>4211</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="2">
-        <v>11</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>40</v>
-      </c>
-      <c r="R49" s="2">
-        <v>40</v>
-      </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>4212</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="2">
-        <v>12</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>40</v>
-      </c>
-      <c r="R50" s="2">
-        <v>40</v>
-      </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>4213</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="2">
-        <v>13</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L51" s="2">
-        <v>1</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>100</v>
-      </c>
-      <c r="R51" s="2">
-        <v>100</v>
-      </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>4214</v>
-      </c>
-      <c r="B52" s="2">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>9</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="2">
-        <v>14</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L52" s="2">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>100</v>
-      </c>
-      <c r="R52" s="2">
-        <v>100</v>
-      </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>4215</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2">
-        <v>9</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="2">
-        <v>15</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L53" s="2">
-        <v>1</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>100</v>
-      </c>
-      <c r="R53" s="2">
-        <v>100</v>
-      </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>4216</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="2">
-        <v>16</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L54" s="2">
-        <v>1</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>100</v>
-      </c>
-      <c r="R54" s="2">
-        <v>100</v>
-      </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>4217</v>
-      </c>
-      <c r="B55" s="2">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="2">
-        <v>17</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L55" s="2">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>100</v>
-      </c>
-      <c r="R55" s="2">
-        <v>100</v>
-      </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>4218</v>
-      </c>
-      <c r="B56" s="2">
-        <v>4</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
-        <v>9</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="2">
-        <v>18</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L56" s="2">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>100</v>
-      </c>
-      <c r="R56" s="2">
-        <v>100</v>
-      </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>4219</v>
-      </c>
-      <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2">
-        <v>9</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="2">
-        <v>19</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L57" s="2">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>100</v>
-      </c>
-      <c r="R57" s="2">
-        <v>100</v>
-      </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>4220</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2">
-        <v>9</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="2">
-        <v>20</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>100</v>
-      </c>
-      <c r="R58" s="2">
-        <v>100</v>
-      </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>4221</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2">
-        <v>9</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="2">
-        <v>21</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>100</v>
-      </c>
-      <c r="R59" s="2">
-        <v>100</v>
-      </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>4222</v>
-      </c>
-      <c r="B60" s="2">
-        <v>4</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="2">
-        <v>22</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>100</v>
-      </c>
-      <c r="R60" s="2">
-        <v>100</v>
-      </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>4223</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="2">
-        <v>23</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>100</v>
-      </c>
-      <c r="R61" s="2">
-        <v>100</v>
-      </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>4224</v>
-      </c>
-      <c r="B62" s="2">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>9</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="2">
-        <v>24</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>100</v>
-      </c>
-      <c r="R62" s="2">
-        <v>100</v>
-      </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>4225</v>
-      </c>
-      <c r="B63" s="2">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="2">
-        <v>25</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L63" s="2">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>100</v>
-      </c>
-      <c r="R63" s="2">
-        <v>100</v>
-      </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>4226</v>
-      </c>
-      <c r="B64" s="2">
-        <v>4</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2">
-        <v>9</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="2">
-        <v>26</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>100</v>
-      </c>
-      <c r="R64" s="2">
-        <v>100</v>
-      </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>4227</v>
-      </c>
-      <c r="B65" s="2">
-        <v>4</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2">
-        <v>9</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="2">
-        <v>27</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O65" s="2">
-        <v>0</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>100</v>
-      </c>
-      <c r="R65" s="2">
-        <v>100</v>
-      </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>4228</v>
-      </c>
-      <c r="B66" s="2">
-        <v>4</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2">
-        <v>9</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="2">
-        <v>28</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O66" s="2">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>100</v>
-      </c>
-      <c r="R66" s="2">
-        <v>100</v>
-      </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>4229</v>
-      </c>
-      <c r="B67" s="2">
-        <v>4</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="2">
-        <v>29</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>100</v>
-      </c>
-      <c r="R67" s="2">
-        <v>100</v>
-      </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>4230</v>
-      </c>
-      <c r="B68" s="2">
-        <v>4</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2</v>
-      </c>
-      <c r="E68" s="2">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" s="2">
-        <v>30</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>100</v>
-      </c>
-      <c r="R68" s="2">
-        <v>100</v>
-      </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="W48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6748,53 +5627,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6808,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>252</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
@@ -6825,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
@@ -6842,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -6859,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -6876,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
         <v>45</v>
@@ -6893,7 +5772,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2">
         <v>45</v>
@@ -6910,7 +5789,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
@@ -6927,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2">
         <v>45</v>
@@ -6944,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2">
         <v>45</v>
@@ -6961,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
@@ -6978,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>259</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2">
         <v>20</v>
@@ -6995,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2">
         <v>45</v>
@@ -7012,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2">
         <v>45</v>
@@ -7029,7 +5908,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -7046,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2">
         <v>20</v>
@@ -7063,7 +5942,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -7080,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2">
         <v>30</v>
@@ -7097,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2">
         <v>45</v>
@@ -7114,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
@@ -7131,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="E23" s="2">
         <v>30</v>
@@ -7149,7 +6028,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7162,62 +6041,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7228,13 +6107,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
@@ -7246,13 +6125,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
@@ -7264,13 +6143,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2">
         <v>2000</v>
@@ -7282,13 +6161,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2">
         <v>2500</v>
@@ -7300,13 +6179,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2">
         <v>2950</v>
@@ -7318,13 +6197,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2">
         <v>3400</v>
@@ -7336,13 +6215,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2">
         <v>3850</v>
@@ -7354,13 +6233,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2">
         <v>4250</v>
@@ -7372,13 +6251,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2">
         <v>4650</v>
@@ -7390,13 +6269,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2">
         <v>5000</v>
@@ -7408,13 +6287,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2">
         <v>5400</v>
@@ -7426,13 +6305,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2">
         <v>5750</v>
@@ -7444,13 +6323,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2">
         <v>6100</v>
@@ -7462,13 +6341,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2">
         <v>6450</v>
@@ -7480,13 +6359,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2">
         <v>6800</v>
@@ -7498,13 +6377,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2">
         <v>7150</v>
@@ -7516,13 +6395,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F20" s="2">
         <v>7450</v>
@@ -7534,13 +6413,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D21" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2">
         <v>7800</v>
@@ -7552,13 +6431,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D22" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2">
         <v>8100</v>
@@ -7570,13 +6449,13 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2">
         <v>8450</v>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,18 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="324">
   <si>
     <t>sheet名</t>
   </si>
@@ -643,574 +637,632 @@
     <t>石灵明碎片</t>
   </si>
   <si>
-    <t>张郃碎片</t>
-  </si>
-  <si>
     <t>西方龙碎片</t>
   </si>
   <si>
+    <t>食火蜥碎片</t>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+  </si>
+  <si>
+    <t>于禁碎片</t>
+  </si>
+  <si>
+    <t>噬日碎片</t>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitNum</t>
+  </si>
+  <si>
+    <t>初始数量</t>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速挂机券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>初级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全都卖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌福利</t>
+  </si>
+  <si>
+    <t>卡牌福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时扫荡券</t>
+  </si>
+  <si>
+    <t>子页签唯一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南御夫碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+  </si>
+  <si>
+    <t>30#30#50#50#80#80#120#120#150#150#200</t>
+  </si>
+  <si>
+    <t>50#50#80#80#100#100#150#150#200#200</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器56宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器宝龛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x]</t>
+  </si>
+  <si>
+    <t>芦花币</t>
+  </si>
+  <si>
+    <t>初级神器1宝箱</t>
+  </si>
+  <si>
+    <t>初级神器2宝箱</t>
+  </si>
+  <si>
+    <t>中级神器1宝箱</t>
+  </si>
+  <si>
+    <t>中级神器2宝箱</t>
+  </si>
+  <si>
+    <t>高级神器1宝箱</t>
+  </si>
+  <si>
+    <t>高级神器2宝箱</t>
+  </si>
+  <si>
+    <t>高级神器3宝箱</t>
+  </si>
+  <si>
     <t>李轩辕碎片</t>
-  </si>
-  <si>
-    <t>食火蜥碎片</t>
-  </si>
-  <si>
-    <t>徐晃碎片</t>
-  </si>
-  <si>
-    <t>张飞碎片</t>
-  </si>
-  <si>
-    <t>于禁碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>噬日碎片</t>
-  </si>
-  <si>
-    <t>飞廉碎片</t>
-  </si>
-  <si>
-    <t>高顺碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+  </si>
+  <si>
+    <t>星辰石</t>
+  </si>
+  <si>
+    <t>月亮石</t>
+  </si>
+  <si>
+    <t>太阳石</t>
+  </si>
+  <si>
+    <t>红莲·缇娜碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪剑宝箱</t>
+  </si>
+  <si>
+    <t>无界之爪宝箱</t>
+  </si>
+  <si>
+    <t>踏雪白狼宝箱</t>
+  </si>
+  <si>
+    <t>大荒紫电宝箱</t>
+  </si>
+  <si>
+    <t>十殿阎罗宝箱</t>
+  </si>
+  <si>
+    <t>大夏龙雀宝箱</t>
+  </si>
+  <si>
+    <t>阿波普之刃宝箱</t>
+  </si>
+  <si>
+    <t>五行宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人符箓</t>
+  </si>
+  <si>
+    <t>守护灵符箓</t>
+  </si>
+  <si>
+    <t>ResBarId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源栏ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒斩</t>
+  </si>
+  <si>
+    <t>禁断之刃</t>
+  </si>
+  <si>
+    <t>抽刀断水</t>
+  </si>
+  <si>
+    <t>蓄力猛攻</t>
+  </si>
+  <si>
+    <t>狂暴一击</t>
+  </si>
+  <si>
+    <t>殇魂秘术</t>
+  </si>
+  <si>
+    <t>斩灵秘术</t>
+  </si>
+  <si>
+    <t>炼魄秘术</t>
+  </si>
+  <si>
+    <t>回春妙术</t>
+  </si>
+  <si>
+    <t>奇门化伤</t>
+  </si>
+  <si>
+    <t>枕戈坐甲</t>
+  </si>
+  <si>
+    <t>铁胆灵心</t>
+  </si>
+  <si>
+    <t>碎玉</t>
+  </si>
+  <si>
+    <t>焚金</t>
+  </si>
+  <si>
+    <t>封脉</t>
+  </si>
+  <si>
+    <t>千机乱舞</t>
   </si>
   <si>
     <t>烈风螳螂碎片</t>
-  </si>
-  <si>
-    <t>典韦碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitNum</t>
-  </si>
-  <si>
-    <t>初始数量</t>
-  </si>
-  <si>
-    <t>int:e&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速挂机券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚀日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食火蜥</t>
-  </si>
-  <si>
-    <t>初级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全都卖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕仙宫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎巧巧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵石商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货铺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌福利</t>
-  </si>
-  <si>
-    <t>卡牌福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器宝箱</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>高级神器宝箱</t>
-  </si>
-  <si>
-    <t>高级神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时扫荡券</t>
-  </si>
-  <si>
-    <t>子页签唯一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食火蜥碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎巧巧碎片</t>
-  </si>
-  <si>
-    <t>阎巧巧碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南御夫碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级三才宝箱</t>
-  </si>
-  <si>
-    <t>中级三才宝箱</t>
-  </si>
-  <si>
-    <t>高级三才宝箱</t>
-  </si>
-  <si>
-    <t>中级专属强化石</t>
-  </si>
-  <si>
-    <t>高级专属强化石</t>
-  </si>
-  <si>
-    <t>30#30#50#50#80#80#120#120#150#150#200</t>
-  </si>
-  <si>
-    <t>50#50#80#80#100#100#150#150#200#200</t>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晃碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵碎片</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗夏玲碎片</t>
-  </si>
-  <si>
-    <t>战斗夏玲碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒碎片</t>
-  </si>
-  <si>
-    <t>阎风吒碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕仙宫碎片</t>
-  </si>
-  <si>
-    <t>吕仙宫碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器56宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器宝龛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[x]</t>
-  </si>
-  <si>
-    <t>芦花币</t>
-  </si>
-  <si>
-    <t>初级神器1宝箱</t>
-  </si>
-  <si>
-    <t>初级神器2宝箱</t>
-  </si>
-  <si>
-    <t>中级神器1宝箱</t>
-  </si>
-  <si>
-    <t>中级神器2宝箱</t>
-  </si>
-  <si>
-    <t>高级神器1宝箱</t>
-  </si>
-  <si>
-    <t>高级神器2宝箱</t>
-  </si>
-  <si>
-    <t>高级神器3宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李轩辕碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器高级材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>噬日碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级专属强化石</t>
-  </si>
-  <si>
-    <t>星辰石</t>
-  </si>
-  <si>
-    <t>月亮石</t>
-  </si>
-  <si>
-    <t>太阳石</t>
-  </si>
-  <si>
-    <t>红莲·缇娜碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪剑宝箱</t>
-  </si>
-  <si>
-    <t>无界之爪宝箱</t>
-  </si>
-  <si>
-    <t>踏雪白狼宝箱</t>
-  </si>
-  <si>
-    <t>大荒紫电宝箱</t>
-  </si>
-  <si>
-    <t>十殿阎罗宝箱</t>
-  </si>
-  <si>
-    <t>大夏龙雀宝箱</t>
-  </si>
-  <si>
-    <t>阿波普之刃宝箱</t>
-  </si>
-  <si>
-    <t>五行宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五行宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人符箓</t>
-  </si>
-  <si>
-    <t>守护灵符箓</t>
-  </si>
-  <si>
-    <t>ResBarId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源栏ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1784,10 +1836,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -1804,10 +1856,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -1824,10 +1876,10 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1844,10 +1896,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1887,7 +1939,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -2011,10 +2063,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -2028,10 +2080,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2045,7 +2097,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2068,14 +2120,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2086,14 +2138,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2111,152 +2163,152 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s">
         <v>74</v>
@@ -2289,42 +2341,42 @@
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2341,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,10 +2407,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2376,21 +2428,21 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>133</v>
@@ -2407,7 +2459,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2428,7 +2480,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2448,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -2472,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -2496,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -2520,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -2544,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -2568,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -2592,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -2640,7 +2692,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2723,7 @@
         <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2680,13 +2732,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>52</v>
@@ -2742,10 +2794,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2754,10 +2806,10 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -2813,7 +2865,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -2822,7 +2874,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -2887,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2896,22 +2948,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -2950,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2959,22 +3011,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -3013,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3022,22 +3074,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3055,7 +3107,7 @@
         <v>81</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R6" s="2">
         <v>200</v>
@@ -3078,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3087,22 +3139,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -3120,7 +3172,7 @@
         <v>81</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -3141,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3150,22 +3202,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -3183,7 +3235,7 @@
         <v>81</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R8" s="2">
         <v>200</v>
@@ -3204,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3213,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>73</v>
@@ -3228,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3267,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -3276,22 +3328,22 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3330,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -3339,22 +3391,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3393,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -3402,22 +3454,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3456,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -3465,22 +3517,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3519,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -3528,22 +3580,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3582,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3591,22 +3643,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3645,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -3654,22 +3706,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="2">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -3678,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3708,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -3717,22 +3769,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -3741,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="2">
         <v>250</v>
@@ -3771,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3780,22 +3832,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3804,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="2">
         <v>600</v>
@@ -3834,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -3843,22 +3895,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -3867,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="2">
         <v>1750</v>
@@ -3897,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -3906,22 +3958,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -3930,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="2">
         <v>2500</v>
@@ -3960,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -3969,22 +4021,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -3993,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="2">
         <v>5000</v>
@@ -4023,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -4032,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4086,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4095,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -4149,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4158,22 +4210,22 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -4212,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4221,22 +4273,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -4275,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -4284,22 +4336,22 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4338,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -4347,22 +4399,22 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -4401,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -4410,22 +4462,22 @@
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G28" s="2">
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4464,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4473,22 +4525,22 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G29" s="2">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4527,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -4536,22 +4588,22 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4590,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -4599,22 +4651,22 @@
         <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4653,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -4662,22 +4714,22 @@
         <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4716,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4725,22 +4777,22 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4749,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q33" s="2">
         <v>20</v>
@@ -4779,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -4788,22 +4840,22 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4812,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q34" s="2">
         <v>20</v>
@@ -4842,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -4851,22 +4903,22 @@
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -4875,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q35" s="2">
         <v>20</v>
@@ -4905,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -4914,22 +4966,22 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -4938,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="2">
         <v>20</v>
@@ -4968,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -4977,22 +5029,22 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -5001,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="2">
         <v>40</v>
@@ -5031,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -5040,22 +5092,22 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -5064,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="2">
         <v>40</v>
@@ -5094,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5103,22 +5155,22 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G39" s="2">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -5127,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="2">
         <v>40</v>
@@ -5157,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -5166,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G40" s="2">
         <v>8</v>
@@ -5190,13 +5242,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
@@ -5220,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -5229,7 +5281,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G41" s="2">
         <v>9</v>
@@ -5253,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="2">
         <v>400</v>
@@ -5283,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -5292,22 +5344,22 @@
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -5322,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="2">
         <v>350</v>
@@ -5346,7 +5398,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -5355,22 +5407,22 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5385,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="2">
         <v>500</v>
@@ -5409,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5418,22 +5470,22 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -5448,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q44" s="2">
         <v>500</v>
@@ -5472,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -5481,22 +5533,22 @@
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G45" s="2">
         <v>4</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L45" s="2">
         <v>1</v>
@@ -5511,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q45" s="2">
         <v>500</v>
@@ -5611,10 +5663,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5623,9 +5675,11 @@
     <col min="2" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -5633,7 +5687,7 @@
         <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -5642,15 +5696,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
@@ -5659,7 +5713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -5667,7 +5721,7 @@
         <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>97</v>
@@ -5676,15 +5730,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>1304001</v>
+      <c r="B4" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>145</v>
@@ -5693,32 +5747,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>1304001</v>
+      <c r="B5" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>1304002</v>
+      <c r="B6" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>146</v>
@@ -5727,32 +5781,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>1304002</v>
+      <c r="B7" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>1304003</v>
+      <c r="B8" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>67</v>
@@ -5761,15 +5815,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>1304004</v>
+      <c r="B9" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>147</v>
@@ -5778,15 +5832,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>1304005</v>
+      <c r="B10" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>148</v>
@@ -5795,103 +5849,105 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>1304006</v>
+      <c r="B11" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="E11" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>1304007</v>
+      <c r="B12" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>1304008</v>
+      <c r="B13" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>1304009</v>
+      <c r="B14" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>1304010</v>
+      <c r="B15" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>1304011</v>
+      <c r="B16" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="2">
         <v>45</v>
@@ -5901,14 +5957,14 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
-        <v>1304012</v>
+      <c r="B17" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -5918,14 +5974,14 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>1304012</v>
+      <c r="B18" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2">
         <v>20</v>
@@ -5935,14 +5991,14 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>1304013</v>
+      <c r="B19" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -5952,14 +6008,14 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>1304013</v>
+      <c r="B20" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="2">
         <v>30</v>
@@ -5969,11 +6025,11 @@
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>1304014</v>
+      <c r="B21" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>69</v>
@@ -5986,14 +6042,14 @@
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>1304015</v>
+      <c r="B22" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>159</v>
+        <v>322</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
@@ -6003,14 +6059,14 @@
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>1304016</v>
+      <c r="B23" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2">
         <v>30</v>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2691,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5665,8 +5665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="325">
   <si>
     <t>sheet名</t>
   </si>
@@ -1243,26 +1243,32 @@
     <t>枕戈坐甲</t>
   </si>
   <si>
+    <t>碎玉</t>
+  </si>
+  <si>
+    <t>焚金</t>
+  </si>
+  <si>
+    <t>封脉</t>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧守令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>铁胆灵心</t>
-  </si>
-  <si>
-    <t>碎玉</t>
-  </si>
-  <si>
-    <t>焚金</t>
-  </si>
-  <si>
-    <t>封脉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>千机乱舞</t>
-  </si>
-  <si>
-    <t>烈风螳螂碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2691,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3082,8 +3088,8 @@
       <c r="H6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>238</v>
+      <c r="I6" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -5665,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5860,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E11" s="2">
         <v>30</v>
@@ -5894,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
@@ -5957,8 +5963,8 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>317</v>
+      <c r="B17" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -5974,8 +5980,8 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>317</v>
+      <c r="B18" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -5992,7 +5998,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -6009,7 +6015,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -6026,7 +6032,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6043,13 +6049,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
@@ -6059,8 +6065,8 @@
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>321</v>
+      <c r="B23" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3F2C9-417A-46A5-9807-AD007EB3DC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,6 +14,7 @@
     <sheet name="货架" sheetId="31" r:id="rId4"/>
     <sheet name="技能商店" sheetId="29" r:id="rId5"/>
     <sheet name="点金手" sheetId="30" r:id="rId6"/>
+    <sheet name="技能兑换页签" sheetId="33" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="335">
   <si>
     <t>sheet名</t>
   </si>
@@ -628,9 +630,6 @@
     <t>唐流雨碎片</t>
   </si>
   <si>
-    <t>天使·缇娜碎片</t>
-  </si>
-  <si>
     <t>夏侯惇碎片</t>
   </si>
   <si>
@@ -1133,10 +1132,6 @@
     <t>太阳石</t>
   </si>
   <si>
-    <t>红莲·缇娜碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>两仪剑宝箱</t>
   </si>
   <si>
@@ -1269,13 +1264,61 @@
   </si>
   <si>
     <t>千机乱舞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能兑换页签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_exchange_type.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1489,19 +1532,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1789,11 +1832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1842,10 +1885,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -1862,10 +1905,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -1882,10 +1925,10 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1902,10 +1945,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1945,7 +1988,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -2044,6 +2087,24 @@
         <v>1</v>
       </c>
       <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2053,11 +2114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2069,10 +2130,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -2086,10 +2147,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2103,7 +2164,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2126,14 +2187,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2144,14 +2205,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2169,152 +2230,152 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s">
         <v>74</v>
@@ -2347,42 +2408,42 @@
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2396,11 +2457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2413,10 +2474,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2434,21 +2495,21 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
         <v>181</v>
-      </c>
-      <c r="D2" t="s">
-        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>133</v>
@@ -2465,7 +2526,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2486,7 +2547,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2506,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -2530,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -2554,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -2578,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -2602,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -2626,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -2650,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -2694,11 +2755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2729,7 +2790,7 @@
         <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2738,13 +2799,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>52</v>
@@ -2800,10 +2861,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2812,10 +2873,10 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -2871,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -2880,7 +2941,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -2945,31 +3006,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -3008,31 +3069,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -3071,31 +3132,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3113,7 +3174,7 @@
         <v>81</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R6" s="2">
         <v>200</v>
@@ -3136,31 +3197,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -3178,7 +3239,7 @@
         <v>81</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -3199,31 +3260,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -3241,7 +3302,7 @@
         <v>81</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R8" s="2">
         <v>200</v>
@@ -3262,22 +3323,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>73</v>
@@ -3286,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3325,31 +3386,31 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3388,31 +3449,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3451,31 +3512,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3514,31 +3575,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3577,31 +3638,31 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3640,31 +3701,31 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3703,31 +3764,31 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G16" s="2">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -3736,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3766,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -3775,22 +3836,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -3799,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="2">
         <v>250</v>
@@ -3829,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3838,22 +3899,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3862,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="2">
         <v>600</v>
@@ -3892,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -3901,22 +3962,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -3925,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="2">
         <v>1750</v>
@@ -3955,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -3964,22 +4025,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -3988,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="2">
         <v>2500</v>
@@ -4018,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -4027,22 +4088,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -4051,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="2">
         <v>5000</v>
@@ -4081,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -4090,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4144,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4153,22 +4214,22 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>146</v>
+        <v>333</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>146</v>
+      <c r="K23" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -4207,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4216,22 +4277,22 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -4270,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4279,22 +4340,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -4333,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -4342,22 +4403,22 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4396,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -4405,22 +4466,22 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -4459,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -4468,22 +4529,22 @@
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G28" s="2">
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4522,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4531,22 +4592,22 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G29" s="2">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4585,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -4594,22 +4655,22 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4648,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -4657,22 +4718,22 @@
         <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4711,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -4720,22 +4781,22 @@
         <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4774,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4783,22 +4844,22 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4807,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q33" s="2">
         <v>20</v>
@@ -4837,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -4846,22 +4907,22 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4870,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q34" s="2">
         <v>20</v>
@@ -4900,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -4909,22 +4970,22 @@
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -4933,13 +4994,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q35" s="2">
         <v>20</v>
@@ -4963,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -4972,22 +5033,22 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -4996,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q36" s="2">
         <v>20</v>
@@ -5026,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -5035,22 +5096,22 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -5059,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q37" s="2">
         <v>40</v>
@@ -5089,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -5098,22 +5159,22 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -5122,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q38" s="2">
         <v>40</v>
@@ -5152,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5161,22 +5222,22 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="2">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -5185,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q39" s="2">
         <v>40</v>
@@ -5215,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -5224,7 +5285,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G40" s="2">
         <v>8</v>
@@ -5248,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
@@ -5278,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -5287,7 +5348,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G41" s="2">
         <v>9</v>
@@ -5311,13 +5372,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="Q41" s="2">
         <v>400</v>
@@ -5341,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -5350,22 +5411,22 @@
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -5380,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="2">
         <v>350</v>
@@ -5404,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -5413,22 +5474,22 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5443,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q43" s="2">
         <v>500</v>
@@ -5467,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5476,22 +5537,22 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -5506,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q44" s="2">
         <v>500</v>
@@ -5530,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -5539,22 +5600,22 @@
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G45" s="2">
         <v>4</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L45" s="2">
         <v>1</v>
@@ -5569,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="2">
         <v>500</v>
@@ -5668,11 +5729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5693,7 +5754,7 @@
         <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -5707,10 +5768,10 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
@@ -5727,7 +5788,7 @@
         <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>97</v>
@@ -5741,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -5758,13 +5819,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
@@ -5775,13 +5836,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -5792,13 +5853,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -5809,7 +5870,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -5826,13 +5887,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>45</v>
@@ -5843,13 +5904,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
@@ -5860,13 +5921,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E11" s="2">
         <v>30</v>
@@ -5877,13 +5938,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
@@ -5894,13 +5955,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
@@ -5913,13 +5974,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2">
         <v>45</v>
@@ -5930,13 +5991,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2">
         <v>45</v>
@@ -5947,13 +6008,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2">
         <v>45</v>
@@ -5964,13 +6025,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -5981,13 +6042,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2">
         <v>20</v>
@@ -5998,13 +6059,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -6015,13 +6076,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2">
         <v>30</v>
@@ -6032,7 +6093,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6049,13 +6110,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E22" s="2">
         <v>20</v>
@@ -6066,13 +6127,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2">
         <v>30</v>
@@ -6086,7 +6147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6527,4 +6588,113 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638FADF-0561-467F-83E6-E3E268025F96}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3F2C9-417A-46A5-9807-AD007EB3DC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F0142-34AA-4DF6-BC8F-FBFA238110A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="333">
   <si>
     <t>sheet名</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>典韦碎片</t>
-  </si>
-  <si>
-    <t>项羽碎片</t>
   </si>
   <si>
     <t>神器低级材料</t>
@@ -667,113 +664,521 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>塞伯罗斯碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitNum</t>
+  </si>
+  <si>
+    <t>初始数量</t>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速挂机券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>许褚碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>塞伯罗斯碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitNum</t>
-  </si>
-  <si>
-    <t>初始数量</t>
-  </si>
-  <si>
-    <t>int:e&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid,Shop,HelpCol,TagId,ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>初级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全都卖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌福利</t>
+  </si>
+  <si>
+    <t>卡牌福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器宝箱</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+  </si>
+  <si>
+    <t>高级神器宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时扫荡券</t>
+  </si>
+  <si>
+    <t>子页签唯一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南御夫碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+  </si>
+  <si>
+    <t>30#30#50#50#80#80#120#120#150#150#200</t>
+  </si>
+  <si>
+    <t>50#50#80#80#100#100#150#150#200#200</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器56宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器宝龛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x]</t>
+  </si>
+  <si>
+    <t>芦花币</t>
+  </si>
+  <si>
+    <t>初级神器1宝箱</t>
+  </si>
+  <si>
+    <t>初级神器2宝箱</t>
+  </si>
+  <si>
+    <t>中级神器1宝箱</t>
+  </si>
+  <si>
+    <t>中级神器2宝箱</t>
+  </si>
+  <si>
+    <t>高级神器1宝箱</t>
+  </si>
+  <si>
+    <t>高级神器2宝箱</t>
+  </si>
+  <si>
+    <t>高级神器3宝箱</t>
+  </si>
+  <si>
+    <t>李轩辕碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬日碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+  </si>
+  <si>
+    <t>星辰石</t>
+  </si>
+  <si>
+    <t>月亮石</t>
+  </si>
+  <si>
+    <t>太阳石</t>
+  </si>
+  <si>
+    <t>两仪剑宝箱</t>
+  </si>
+  <si>
+    <t>无界之爪宝箱</t>
+  </si>
+  <si>
+    <t>踏雪白狼宝箱</t>
+  </si>
+  <si>
+    <t>大荒紫电宝箱</t>
+  </si>
+  <si>
+    <t>十殿阎罗宝箱</t>
+  </si>
+  <si>
+    <t>大夏龙雀宝箱</t>
+  </si>
+  <si>
+    <t>阿波普之刃宝箱</t>
+  </si>
+  <si>
+    <t>五行宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人符箓</t>
+  </si>
+  <si>
+    <t>守护灵符箓</t>
+  </si>
+  <si>
+    <t>ResBarId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源栏ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -781,492 +1186,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钻石商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>荣誉商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速挂机券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚀日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食火蜥</t>
-  </si>
-  <si>
-    <t>初级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全都卖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕仙宫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎巧巧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵石商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货铺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌福利</t>
-  </si>
-  <si>
-    <t>卡牌福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器宝箱</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>高级神器宝箱</t>
-  </si>
-  <si>
-    <t>高级神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时扫荡券</t>
-  </si>
-  <si>
-    <t>子页签唯一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒斩</t>
+  </si>
+  <si>
+    <t>禁断之刃</t>
+  </si>
+  <si>
+    <t>蓄力猛攻</t>
+  </si>
+  <si>
+    <t>封脉</t>
   </si>
   <si>
     <t>烈风螳螂碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>食火蜥碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎巧巧碎片</t>
-  </si>
-  <si>
-    <t>阎巧巧碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南御夫碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级三才宝箱</t>
-  </si>
-  <si>
-    <t>中级三才宝箱</t>
-  </si>
-  <si>
-    <t>高级三才宝箱</t>
-  </si>
-  <si>
-    <t>中级专属强化石</t>
-  </si>
-  <si>
-    <t>高级专属强化石</t>
-  </si>
-  <si>
-    <t>30#30#50#50#80#80#120#120#150#150#200</t>
-  </si>
-  <si>
-    <t>50#50#80#80#100#100#150#150#200#200</t>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-  </si>
-  <si>
-    <t>许褚碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晃碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵碎片</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗夏玲碎片</t>
-  </si>
-  <si>
-    <t>战斗夏玲碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒碎片</t>
-  </si>
-  <si>
-    <t>阎风吒碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕仙宫碎片</t>
-  </si>
-  <si>
-    <t>吕仙宫碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器56宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器宝龛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[x]</t>
-  </si>
-  <si>
-    <t>芦花币</t>
-  </si>
-  <si>
-    <t>初级神器1宝箱</t>
-  </si>
-  <si>
-    <t>初级神器2宝箱</t>
-  </si>
-  <si>
-    <t>中级神器1宝箱</t>
-  </si>
-  <si>
-    <t>中级神器2宝箱</t>
-  </si>
-  <si>
-    <t>高级神器1宝箱</t>
-  </si>
-  <si>
-    <t>高级神器2宝箱</t>
-  </si>
-  <si>
-    <t>高级神器3宝箱</t>
-  </si>
-  <si>
     <t>李轩辕碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>石灵明碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器高级材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>噬日碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级专属强化石</t>
-  </si>
-  <si>
-    <t>星辰石</t>
-  </si>
-  <si>
-    <t>月亮石</t>
-  </si>
-  <si>
-    <t>太阳石</t>
-  </si>
-  <si>
-    <t>两仪剑宝箱</t>
-  </si>
-  <si>
-    <t>无界之爪宝箱</t>
-  </si>
-  <si>
-    <t>踏雪白狼宝箱</t>
-  </si>
-  <si>
-    <t>大荒紫电宝箱</t>
-  </si>
-  <si>
-    <t>十殿阎罗宝箱</t>
-  </si>
-  <si>
-    <t>大夏龙雀宝箱</t>
-  </si>
-  <si>
-    <t>阿波普之刃宝箱</t>
-  </si>
-  <si>
-    <t>五行宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五行宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人符箓</t>
-  </si>
-  <si>
-    <t>守护灵符箓</t>
-  </si>
-  <si>
-    <t>ResBarId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源栏ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒斩</t>
-  </si>
-  <si>
-    <t>禁断之刃</t>
-  </si>
-  <si>
-    <t>抽刀断水</t>
-  </si>
-  <si>
-    <t>蓄力猛攻</t>
-  </si>
-  <si>
-    <t>狂暴一击</t>
-  </si>
-  <si>
-    <t>殇魂秘术</t>
-  </si>
-  <si>
-    <t>斩灵秘术</t>
-  </si>
-  <si>
-    <t>炼魄秘术</t>
-  </si>
-  <si>
-    <t>回春妙术</t>
-  </si>
-  <si>
-    <t>奇门化伤</t>
-  </si>
-  <si>
-    <t>枕戈坐甲</t>
-  </si>
-  <si>
-    <t>碎玉</t>
-  </si>
-  <si>
-    <t>焚金</t>
-  </si>
-  <si>
-    <t>封脉</t>
-  </si>
-  <si>
-    <t>烈风螳螂碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>牧守令</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>铁胆灵心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>千机乱舞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1313,6 +1268,43 @@
   <si>
     <t>红莲缇娜碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烙印</t>
+  </si>
+  <si>
+    <t>背水一战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+  </si>
+  <si>
+    <t>夺魂</t>
+  </si>
+  <si>
+    <t>黄昏之殇</t>
+  </si>
+  <si>
+    <t>惩戒</t>
+  </si>
+  <si>
+    <t>断罪</t>
+  </si>
+  <si>
+    <t>斩灵</t>
+  </si>
+  <si>
+    <t>炼魄</t>
+  </si>
+  <si>
+    <t>救赎</t>
+  </si>
+  <si>
+    <t>诅咒</t>
+  </si>
+  <si>
+    <t>祝福</t>
   </si>
 </sst>
 </file>
@@ -1878,17 +1870,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -1898,17 +1890,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -1918,17 +1910,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1938,17 +1930,17 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1958,17 +1950,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1978,17 +1970,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -1998,14 +1990,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2016,17 +2008,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -2036,14 +2028,14 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2054,10 +2046,10 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -2072,14 +2064,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2090,10 +2082,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2130,10 +2122,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -2147,10 +2139,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2164,7 +2156,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2187,14 +2179,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2205,14 +2197,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2230,220 +2222,220 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2474,10 +2466,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2486,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>61</v>
@@ -2495,24 +2487,24 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -2521,12 +2513,12 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2538,7 +2530,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
@@ -2547,7 +2539,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2567,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -2591,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -2615,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -2639,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -2663,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -2687,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -2711,7 +2703,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -2758,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -2787,10 +2779,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2799,13 +2791,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>52</v>
@@ -2844,10 +2836,10 @@
         <v>64</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>48</v>
@@ -2861,22 +2853,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -2897,13 +2889,13 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
         <v>43</v>
@@ -2912,19 +2904,19 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
         <v>85</v>
       </c>
-      <c r="T2" t="s">
-        <v>86</v>
-      </c>
       <c r="U2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2932,7 +2924,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -2941,7 +2933,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -2965,7 +2957,7 @@
         <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>37</v>
@@ -3006,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3015,22 +3007,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -3045,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="3">
         <v>100</v>
@@ -3069,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3078,22 +3070,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -3108,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="3">
         <v>200</v>
@@ -3132,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3141,22 +3133,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3171,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R6" s="2">
         <v>200</v>
@@ -3197,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3206,22 +3198,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -3236,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -3260,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3269,22 +3261,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -3299,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R8" s="2">
         <v>200</v>
@@ -3323,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3332,22 +3324,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3362,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="3">
         <v>50</v>
@@ -3386,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -3395,22 +3387,22 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3425,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2">
         <v>50</v>
@@ -3449,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -3458,22 +3450,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3488,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2">
         <v>100</v>
@@ -3512,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -3521,22 +3513,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3551,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2">
         <v>50</v>
@@ -3575,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -3584,22 +3576,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3614,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2">
         <v>35</v>
@@ -3638,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -3647,22 +3639,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3677,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2">
         <v>10</v>
@@ -3701,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3710,22 +3702,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3740,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2">
         <v>10</v>
@@ -3764,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -3773,22 +3765,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G16" s="2">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -3797,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2">
         <v>50</v>
@@ -3827,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -3836,22 +3828,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -3860,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="2">
         <v>250</v>
@@ -3890,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3899,22 +3891,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3923,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="2">
         <v>600</v>
@@ -3953,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -3962,22 +3954,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -3986,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="2">
         <v>1750</v>
@@ -4016,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -4025,22 +4017,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -4049,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="2">
         <v>2500</v>
@@ -4079,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -4088,22 +4080,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -4112,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="2">
         <v>5000</v>
@@ -4142,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -4151,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4181,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="2">
         <v>200</v>
@@ -4205,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4214,22 +4206,22 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -4244,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="2">
         <v>300</v>
@@ -4268,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4277,22 +4269,22 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -4307,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="2">
         <v>50</v>
@@ -4331,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4340,22 +4332,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -4370,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="2">
         <v>50</v>
@@ -4394,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -4403,22 +4395,22 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4433,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="2">
         <v>100</v>
@@ -4457,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -4466,22 +4458,22 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -4496,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="2">
         <v>35</v>
@@ -4520,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -4529,22 +4521,22 @@
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G28" s="2">
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4559,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="2">
         <v>35</v>
@@ -4583,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4592,22 +4584,22 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G29" s="2">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4622,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="2">
         <v>35</v>
@@ -4646,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -4655,22 +4647,22 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4685,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="2">
         <v>10</v>
@@ -4709,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -4718,22 +4710,22 @@
         <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4748,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="2">
         <v>50</v>
@@ -4772,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -4781,22 +4773,22 @@
         <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4811,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="2">
         <v>50</v>
@@ -4835,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4844,22 +4836,22 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4868,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q33" s="2">
         <v>20</v>
@@ -4898,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -4907,22 +4899,22 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4931,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="2">
         <v>20</v>
@@ -4961,7 +4953,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -4970,22 +4962,22 @@
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -4994,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q35" s="2">
         <v>20</v>
@@ -5024,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -5033,22 +5025,22 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -5057,13 +5049,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="2">
         <v>20</v>
@@ -5087,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -5096,22 +5088,22 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -5120,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="2">
         <v>40</v>
@@ -5150,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -5159,22 +5151,22 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -5183,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="2">
         <v>40</v>
@@ -5213,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5222,22 +5214,22 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G39" s="2">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -5246,13 +5238,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q39" s="2">
         <v>40</v>
@@ -5276,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -5285,22 +5277,22 @@
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G40" s="2">
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L40" s="2">
         <v>100</v>
@@ -5309,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
@@ -5339,7 +5331,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -5348,22 +5340,22 @@
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G41" s="2">
         <v>9</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -5372,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="2">
         <v>400</v>
@@ -5402,7 +5394,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -5411,22 +5403,22 @@
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="2">
         <v>350</v>
@@ -5465,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -5474,22 +5466,22 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5504,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="2">
         <v>500</v>
@@ -5528,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5537,22 +5529,22 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -5567,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q44" s="2">
         <v>500</v>
@@ -5591,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -5600,22 +5592,22 @@
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G45" s="2">
         <v>4</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L45" s="2">
         <v>1</v>
@@ -5630,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q45" s="2">
         <v>500</v>
@@ -5730,10 +5722,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5748,53 +5740,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5805,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
@@ -5819,13 +5811,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
@@ -5836,13 +5828,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -5852,14 +5844,14 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>305</v>
+      <c r="B7" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -5870,10 +5862,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>67</v>
@@ -5887,13 +5879,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2">
         <v>45</v>
@@ -5904,13 +5896,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
@@ -5921,13 +5913,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E11" s="2">
         <v>30</v>
@@ -5938,13 +5930,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
@@ -5955,13 +5947,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
@@ -5974,13 +5966,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2">
         <v>45</v>
@@ -5991,13 +5983,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2">
         <v>45</v>
@@ -6008,13 +6000,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2">
         <v>45</v>
@@ -6024,14 +6016,14 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>322</v>
+      <c r="B17" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -6041,14 +6033,14 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>322</v>
+      <c r="B18" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2">
         <v>20</v>
@@ -6059,83 +6051,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="2">
         <v>30</v>
       </c>
     </row>
@@ -6164,62 +6088,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6230,13 +6154,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
@@ -6248,13 +6172,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
@@ -6266,13 +6190,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2">
         <v>2000</v>
@@ -6284,13 +6208,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2">
         <v>2500</v>
@@ -6302,13 +6226,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="2">
         <v>2950</v>
@@ -6320,13 +6244,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="2">
         <v>3400</v>
@@ -6338,13 +6262,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="2">
         <v>3850</v>
@@ -6356,13 +6280,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="2">
         <v>4250</v>
@@ -6374,13 +6298,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="2">
         <v>4650</v>
@@ -6392,13 +6316,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="2">
         <v>5000</v>
@@ -6410,13 +6334,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="2">
         <v>5400</v>
@@ -6428,13 +6352,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="2">
         <v>5750</v>
@@ -6446,13 +6370,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="2">
         <v>6100</v>
@@ -6464,13 +6388,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="2">
         <v>6450</v>
@@ -6482,13 +6406,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="2">
         <v>6800</v>
@@ -6500,13 +6424,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2">
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="2">
         <v>7150</v>
@@ -6518,13 +6442,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2">
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="2">
         <v>7450</v>
@@ -6536,13 +6460,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2">
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="2">
         <v>7800</v>
@@ -6554,13 +6478,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="2">
         <v>8100</v>
@@ -6572,13 +6496,13 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="2">
         <v>8450</v>
@@ -6608,13 +6532,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6628,21 +6552,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6653,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6665,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -6677,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -6689,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D7" s="3"/>
     </row>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F0142-34AA-4DF6-BC8F-FBFA238110A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="334">
   <si>
     <t>sheet名</t>
   </si>
@@ -296,13 +295,7 @@
     <t>神器低级材料</t>
   </si>
   <si>
-    <t>神器高级材料</t>
-  </si>
-  <si>
     <t>千年寒铁</t>
-  </si>
-  <si>
-    <t>万年陨铁</t>
   </si>
   <si>
     <t>高级神器1配件5</t>
@@ -1105,10 +1098,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>神器高级材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>噬日碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1305,12 +1294,27 @@
   </si>
   <si>
     <t>祝福</t>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+  </si>
+  <si>
+    <t>洗练瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1524,19 +1528,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1824,7 +1828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1870,17 +1874,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -1890,17 +1894,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -1910,17 +1914,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1930,17 +1934,17 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1950,17 +1954,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1970,17 +1974,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -1990,14 +1994,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2008,17 +2012,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -2028,14 +2032,14 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2046,10 +2050,10 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -2064,14 +2068,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2082,10 +2086,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2106,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2122,10 +2126,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -2139,10 +2143,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2156,7 +2160,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2179,14 +2183,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2197,14 +2201,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2222,220 +2226,220 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,10 +2470,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2478,7 +2482,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>61</v>
@@ -2487,24 +2491,24 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -2513,12 +2517,12 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2530,7 +2534,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
@@ -2539,7 +2543,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2559,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -2583,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -2607,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -2631,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -2655,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -2679,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -2703,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -2747,11 +2751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2779,10 +2783,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2791,13 +2795,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>52</v>
@@ -2836,10 +2840,10 @@
         <v>64</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>48</v>
@@ -2853,22 +2857,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -2889,13 +2893,13 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
         <v>43</v>
@@ -2904,19 +2908,19 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2924,7 +2928,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -2933,7 +2937,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -2957,7 +2961,7 @@
         <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>37</v>
@@ -2998,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3007,22 +3011,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -3037,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="3">
         <v>100</v>
@@ -3061,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3070,22 +3074,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -3100,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="3">
         <v>200</v>
@@ -3124,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3133,22 +3137,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3163,10 +3167,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R6" s="2">
         <v>200</v>
@@ -3189,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3198,22 +3202,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -3228,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -3252,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3261,22 +3265,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -3291,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R8" s="2">
         <v>200</v>
@@ -3315,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3324,22 +3328,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>72</v>
+        <v>331</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3354,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R9" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -3378,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -3387,22 +3391,22 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3417,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2">
         <v>50</v>
@@ -3441,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -3450,22 +3454,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3480,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2">
         <v>100</v>
@@ -3504,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -3513,22 +3517,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3543,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2">
         <v>50</v>
@@ -3567,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -3576,22 +3580,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3606,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2">
         <v>35</v>
@@ -3630,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -3639,22 +3643,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3669,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2">
         <v>10</v>
@@ -3693,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3702,22 +3706,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3732,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2">
         <v>10</v>
@@ -3756,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -3765,22 +3769,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G16" s="2">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -3789,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2">
         <v>50</v>
@@ -3819,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -3828,22 +3832,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -3852,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="2">
         <v>250</v>
@@ -3882,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3891,22 +3895,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3915,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="2">
         <v>600</v>
@@ -3945,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -3954,22 +3958,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -3978,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="2">
         <v>1750</v>
@@ -4008,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -4017,22 +4021,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -4041,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="2">
         <v>2500</v>
@@ -4071,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -4080,22 +4084,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -4104,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="2">
         <v>5000</v>
@@ -4134,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -4143,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4173,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2">
         <v>200</v>
@@ -4197,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4206,22 +4210,22 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -4236,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2">
         <v>300</v>
@@ -4260,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4269,22 +4273,22 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -4299,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2">
         <v>50</v>
@@ -4323,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4332,22 +4336,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -4362,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2">
         <v>50</v>
@@ -4386,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -4395,22 +4399,22 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4425,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2">
         <v>100</v>
@@ -4449,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -4458,22 +4462,22 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -4488,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2">
         <v>35</v>
@@ -4512,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -4521,22 +4525,22 @@
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G28" s="2">
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4551,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2">
         <v>35</v>
@@ -4575,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4584,22 +4588,22 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G29" s="2">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4614,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2">
         <v>35</v>
@@ -4638,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -4647,22 +4651,22 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4677,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2">
         <v>10</v>
@@ -4701,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -4710,22 +4714,22 @@
         <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4740,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2">
         <v>50</v>
@@ -4764,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -4773,22 +4777,22 @@
         <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4803,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2">
         <v>50</v>
@@ -4827,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4836,22 +4840,22 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4860,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q33" s="2">
         <v>20</v>
@@ -4890,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -4899,22 +4903,22 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4923,19 +4927,19 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R34" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -4953,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -4962,22 +4966,22 @@
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -4986,23 +4990,29 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q35" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R35" s="2">
-        <v>40</v>
-      </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T35" s="2">
+        <v>2</v>
+      </c>
+      <c r="U35" s="2">
+        <v>201</v>
+      </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="b">
         <v>1</v>
@@ -5016,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -5025,22 +5035,22 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -5049,23 +5059,29 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="R36" s="2">
-        <v>40</v>
-      </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T36" s="2">
+        <v>2</v>
+      </c>
+      <c r="U36" s="2">
+        <v>202</v>
+      </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2" t="b">
         <v>1</v>
@@ -5079,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -5088,22 +5104,22 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -5112,23 +5128,29 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R37" s="2">
         <v>100</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="S37" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T37" s="2">
+        <v>2</v>
+      </c>
+      <c r="U37" s="2">
+        <v>301</v>
+      </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2" t="b">
         <v>1</v>
@@ -5142,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -5151,22 +5173,22 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -5175,23 +5197,29 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R38" s="2">
         <v>100</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="S38" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T38" s="2">
+        <v>2</v>
+      </c>
+      <c r="U38" s="2">
+        <v>302</v>
+      </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2" t="b">
         <v>1</v>
@@ -5205,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5214,22 +5242,22 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G39" s="2">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -5238,23 +5266,29 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q39" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R39" s="2">
         <v>100</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="S39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T39" s="2">
+        <v>2</v>
+      </c>
+      <c r="U39" s="2">
+        <v>303</v>
+      </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2" t="b">
         <v>1</v>
@@ -5268,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -5277,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G40" s="2">
         <v>8</v>
@@ -5286,7 +5320,7 @@
         <v>69</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -5301,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
@@ -5325,58 +5359,58 @@
     </row>
     <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>3109</v>
+        <v>3201</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G41" s="2">
-        <v>9</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>70</v>
+      <c r="K41" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>263</v>
+        <v>2</v>
+      </c>
+      <c r="N41" s="3">
+        <v>5</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q41" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="R41" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -5388,13 +5422,13 @@
     </row>
     <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -5403,22 +5437,22 @@
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -5433,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="R42" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -5451,13 +5485,13 @@
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -5466,22 +5500,22 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G43" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5496,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q43" s="2">
         <v>500</v>
@@ -5514,13 +5548,13 @@
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5529,22 +5563,22 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G44" s="2">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>274</v>
+        <v>4</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>274</v>
+      <c r="K44" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -5559,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="2">
         <v>500</v>
@@ -5576,67 +5610,29 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>3204</v>
-      </c>
-      <c r="B45" s="2">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <v>7</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" s="2">
-        <v>4</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>2</v>
-      </c>
-      <c r="N45" s="3">
-        <v>5</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>500</v>
-      </c>
-      <c r="R45" s="2">
-        <v>500</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -5644,7 +5640,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -5688,31 +5684,6 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5721,10 +5692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5740,53 +5711,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5794,13 +5765,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
@@ -5811,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
@@ -5828,13 +5799,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -5845,13 +5816,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -5862,7 +5833,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -5879,13 +5850,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2">
         <v>45</v>
@@ -5896,13 +5867,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
@@ -5913,13 +5884,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E11" s="2">
         <v>30</v>
@@ -5930,13 +5901,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
@@ -5947,13 +5918,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
@@ -5966,13 +5937,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" s="2">
         <v>45</v>
@@ -5983,13 +5954,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2">
         <v>45</v>
@@ -6000,13 +5971,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2">
         <v>45</v>
@@ -6017,13 +5988,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -6034,13 +6005,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2">
         <v>20</v>
@@ -6051,13 +6022,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -6071,7 +6042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6088,62 +6059,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6154,13 +6125,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
@@ -6172,13 +6143,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
@@ -6190,13 +6161,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="2">
         <v>2000</v>
@@ -6208,13 +6179,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="2">
         <v>2500</v>
@@ -6226,13 +6197,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2">
         <v>2950</v>
@@ -6244,13 +6215,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F9" s="2">
         <v>3400</v>
@@ -6262,13 +6233,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F10" s="2">
         <v>3850</v>
@@ -6280,13 +6251,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2">
         <v>4250</v>
@@ -6298,13 +6269,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2">
         <v>4650</v>
@@ -6316,13 +6287,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2">
         <v>5000</v>
@@ -6334,13 +6305,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2">
         <v>5400</v>
@@ -6352,13 +6323,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2">
         <v>5750</v>
@@ -6370,13 +6341,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" s="2">
         <v>6100</v>
@@ -6388,13 +6359,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F17" s="2">
         <v>6450</v>
@@ -6406,13 +6377,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2">
         <v>6800</v>
@@ -6424,13 +6395,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2">
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F19" s="2">
         <v>7150</v>
@@ -6442,13 +6413,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2">
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="2">
         <v>7450</v>
@@ -6460,13 +6431,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2">
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2">
         <v>7800</v>
@@ -6478,13 +6449,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="2">
         <v>8100</v>
@@ -6496,13 +6467,13 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23" s="2">
         <v>8450</v>
@@ -6515,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638FADF-0561-467F-83E6-E3E268025F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6532,13 +6503,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6552,21 +6523,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6577,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6589,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -6601,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -6613,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3"/>
     </row>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="334">
   <si>
     <t>sheet名</t>
   </si>
@@ -1215,22 +1221,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防守</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增幅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1308,6 +1298,34 @@
   </si>
   <si>
     <t>洗练瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00#150#200#300#300</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2086,10 +2104,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2754,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3289,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -3297,11 +3315,11 @@
       <c r="P8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>246</v>
+      <c r="Q8" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="R8" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -3334,16 +3352,16 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -4216,16 +4234,16 @@
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -4594,16 +4612,16 @@
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -5005,7 +5023,7 @@
         <v>50</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T35" s="2">
         <v>2</v>
@@ -5074,7 +5092,7 @@
         <v>70</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T36" s="2">
         <v>2</v>
@@ -5137,13 +5155,13 @@
         <v>262</v>
       </c>
       <c r="Q37" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R37" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T37" s="2">
         <v>2</v>
@@ -5206,13 +5224,13 @@
         <v>262</v>
       </c>
       <c r="Q38" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R38" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T38" s="2">
         <v>2</v>
@@ -5275,13 +5293,13 @@
         <v>262</v>
       </c>
       <c r="Q39" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R39" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T39" s="2">
         <v>2</v>
@@ -5695,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5768,7 +5786,7 @@
         <v>301</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>142</v>
@@ -5785,7 +5803,7 @@
         <v>300</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>155</v>
@@ -5799,13 +5817,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -5816,10 +5834,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>154</v>
@@ -5833,10 +5851,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>67</v>
@@ -5850,10 +5868,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>143</v>
@@ -5870,7 +5888,7 @@
         <v>299</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>144</v>
@@ -5884,10 +5902,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>303</v>
@@ -5901,10 +5919,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>146</v>
@@ -5918,10 +5936,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>304</v>
@@ -5937,10 +5955,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>145</v>
@@ -5954,10 +5972,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>147</v>
@@ -5974,7 +5992,7 @@
         <v>302</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>148</v>
@@ -5988,10 +6006,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>149</v>
@@ -6005,10 +6023,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>150</v>
@@ -6022,10 +6040,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>151</v>
@@ -6487,10 +6505,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6503,7 +6521,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>61</v>
@@ -6523,7 +6541,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6531,7 +6549,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -6548,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6560,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -6572,21 +6590,9 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="333">
   <si>
     <t>sheet名</t>
   </si>
@@ -392,10 +392,6 @@
   </si>
   <si>
     <t>消耗道具数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1849,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1892,17 +1888,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -1912,17 +1908,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -1932,17 +1928,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1952,17 +1948,17 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -1972,17 +1968,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1992,17 +1988,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -2012,14 +2008,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2030,17 +2026,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -2050,11 +2046,11 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>92</v>
@@ -2068,16 +2064,18 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="b">
         <v>1</v>
@@ -2086,14 +2084,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2104,10 +2102,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2144,10 +2142,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -2161,10 +2159,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2178,7 +2176,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2201,14 +2199,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2219,14 +2217,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2244,152 +2242,152 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="10:12" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s">
         <v>71</v>
@@ -2422,42 +2420,42 @@
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2488,10 +2486,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2500,7 +2498,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>61</v>
@@ -2509,24 +2507,24 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
         <v>176</v>
       </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -2535,12 +2533,12 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2552,7 +2550,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
@@ -2561,7 +2559,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2581,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -2605,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -2629,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -2653,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -2677,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -2701,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -2725,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -2772,7 +2770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -2801,10 +2799,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -2813,13 +2811,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>52</v>
@@ -2875,22 +2873,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -2935,7 +2933,7 @@
         <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W2" t="s">
         <v>87</v>
@@ -2946,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -2955,7 +2953,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -3020,31 +3018,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -3083,31 +3081,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -3146,31 +3144,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3188,7 +3186,7 @@
         <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R6" s="2">
         <v>200</v>
@@ -3211,31 +3209,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -3253,7 +3251,7 @@
         <v>78</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -3274,31 +3272,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -3316,7 +3314,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R8" s="2">
         <v>300</v>
@@ -3337,31 +3335,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3400,31 +3398,31 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3463,31 +3461,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3526,31 +3524,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3589,31 +3587,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3652,31 +3650,31 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3715,31 +3713,31 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3778,31 +3776,31 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="G16" s="2">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -3811,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3841,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -3850,22 +3848,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -3874,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="2">
         <v>250</v>
@@ -3904,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3913,22 +3911,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3937,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="2">
         <v>600</v>
@@ -3967,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -3976,22 +3974,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -4000,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="2">
         <v>1750</v>
@@ -4030,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -4039,22 +4037,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -4063,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="2">
         <v>2500</v>
@@ -4093,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -4102,22 +4100,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -4126,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="2">
         <v>5000</v>
@@ -4156,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -4165,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4219,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4228,22 +4226,22 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -4282,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4291,22 +4289,22 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -4345,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4354,22 +4352,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -4408,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -4417,22 +4415,22 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4471,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -4480,22 +4478,22 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -4534,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -4543,22 +4541,22 @@
         <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G28" s="2">
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4597,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4606,22 +4604,22 @@
         <v>4</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="2">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4660,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -4669,22 +4667,22 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="2">
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4723,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -4732,22 +4730,22 @@
         <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4786,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -4795,22 +4793,22 @@
         <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4849,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4858,22 +4856,22 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4882,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q33" s="2">
         <v>20</v>
@@ -4912,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -4921,22 +4919,22 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4945,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q34" s="2">
         <v>30</v>
@@ -4975,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -4984,22 +4982,22 @@
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -5008,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q35" s="2">
         <v>50</v>
@@ -5023,7 +5021,7 @@
         <v>50</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T35" s="2">
         <v>2</v>
@@ -5044,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -5053,22 +5051,22 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -5077,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q36" s="2">
         <v>70</v>
@@ -5092,7 +5090,7 @@
         <v>70</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T36" s="2">
         <v>2</v>
@@ -5113,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -5122,22 +5120,22 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -5146,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q37" s="2">
         <v>150</v>
@@ -5161,7 +5159,7 @@
         <v>150</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T37" s="2">
         <v>2</v>
@@ -5182,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -5191,22 +5189,22 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -5215,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q38" s="2">
         <v>150</v>
@@ -5230,7 +5228,7 @@
         <v>150</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T38" s="2">
         <v>2</v>
@@ -5251,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5260,22 +5258,22 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G39" s="2">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -5284,13 +5282,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q39" s="2">
         <v>150</v>
@@ -5299,7 +5297,7 @@
         <v>150</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T39" s="2">
         <v>2</v>
@@ -5320,7 +5318,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -5329,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G40" s="2">
         <v>8</v>
@@ -5353,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="Q40" s="2">
         <v>20</v>
@@ -5383,7 +5381,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -5392,22 +5390,22 @@
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -5422,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q41" s="2">
         <v>350</v>
@@ -5446,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -5455,22 +5453,22 @@
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -5485,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q42" s="2">
         <v>500</v>
@@ -5509,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -5518,22 +5516,22 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -5548,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="2">
         <v>500</v>
@@ -5572,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5581,22 +5579,22 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G44" s="2">
         <v>4</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -5611,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q44" s="2">
         <v>500</v>
@@ -5711,10 +5709,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5727,15 +5725,15 @@
     <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>88</v>
@@ -5744,15 +5742,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
@@ -5761,7 +5759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -5769,7 +5767,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>94</v>
@@ -5778,26 +5776,26 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>4011</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>4012</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>300</v>
@@ -5806,35 +5804,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4013</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>315</v>
+        <v>4021</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -5843,159 +5841,157 @@
         <v>154</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>4022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>4023</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>4031</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>4032</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>4033</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="E12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>4041</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="E13" s="2">
         <v>30</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>321</v>
+        <v>4042</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>322</v>
+        <v>4043</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>4051</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
         <v>45</v>
@@ -6003,53 +5999,597 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>4052</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>4053</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>4061</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4062</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4063</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4071</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4072</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>4073</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4081</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4082</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4083</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>4091</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>4092</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>4093</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>4102</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4103</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>4111</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4112</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>4113</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>4122</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4123</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>4131</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4132</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>4133</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4141</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4142</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4143</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>4151</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4152</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4153</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>4161</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4162</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4163</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6077,42 +6617,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -6120,19 +6660,19 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -6143,13 +6683,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
@@ -6161,13 +6701,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
@@ -6179,13 +6719,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="2">
         <v>2000</v>
@@ -6197,13 +6737,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="2">
         <v>2500</v>
@@ -6215,13 +6755,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2">
         <v>2950</v>
@@ -6233,13 +6773,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2">
         <v>3400</v>
@@ -6251,13 +6791,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2">
         <v>3850</v>
@@ -6269,13 +6809,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="2">
         <v>4250</v>
@@ -6287,13 +6827,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="2">
         <v>4650</v>
@@ -6305,13 +6845,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="2">
         <v>5000</v>
@@ -6323,13 +6863,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2">
         <v>5400</v>
@@ -6341,13 +6881,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2">
         <v>5750</v>
@@ -6359,13 +6899,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="2">
         <v>6100</v>
@@ -6377,13 +6917,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="2">
         <v>6450</v>
@@ -6395,13 +6935,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="2">
         <v>6800</v>
@@ -6413,13 +6953,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2">
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="2">
         <v>7150</v>
@@ -6431,13 +6971,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2">
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2">
         <v>7450</v>
@@ -6449,13 +6989,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2">
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="2">
         <v>7800</v>
@@ -6467,13 +7007,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="2">
         <v>8100</v>
@@ -6485,13 +7025,13 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="2">
         <v>8450</v>
@@ -6521,13 +7061,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6541,21 +7081,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6566,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6578,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -6590,7 +7130,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="3"/>
     </row>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="321">
   <si>
     <t>sheet名</t>
   </si>
@@ -959,10 +959,6 @@
     <t>高级神器宝箱</t>
   </si>
   <si>
-    <t>高级神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2小时扫荡券</t>
   </si>
   <si>
@@ -1053,41 +1049,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高级神器56宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器宝龛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[x]</t>
   </si>
   <si>
     <t>芦花币</t>
   </si>
   <si>
-    <t>初级神器1宝箱</t>
-  </si>
-  <si>
-    <t>初级神器2宝箱</t>
-  </si>
-  <si>
-    <t>中级神器1宝箱</t>
-  </si>
-  <si>
-    <t>中级神器2宝箱</t>
-  </si>
-  <si>
-    <t>高级神器1宝箱</t>
-  </si>
-  <si>
-    <t>高级神器2宝箱</t>
-  </si>
-  <si>
-    <t>高级神器3宝箱</t>
-  </si>
-  <si>
     <t>李轩辕碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1116,27 +1083,6 @@
     <t>太阳石</t>
   </si>
   <si>
-    <t>两仪剑宝箱</t>
-  </si>
-  <si>
-    <t>无界之爪宝箱</t>
-  </si>
-  <si>
-    <t>踏雪白狼宝箱</t>
-  </si>
-  <si>
-    <t>大荒紫电宝箱</t>
-  </si>
-  <si>
-    <t>十殿阎罗宝箱</t>
-  </si>
-  <si>
-    <t>大夏龙雀宝箱</t>
-  </si>
-  <si>
-    <t>阿波普之刃宝箱</t>
-  </si>
-  <si>
     <t>五行宝箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1280,13 +1226,6 @@
   </si>
   <si>
     <t>祝福</t>
-  </si>
-  <si>
-    <t>神器-大点-id</t>
-  </si>
-  <si>
-    <t>洗练瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>洗练瓶</t>
@@ -1323,6 +1262,30 @@
   <si>
     <t>辅助</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼瓶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器惊喜宝箱</t>
+  </si>
+  <si>
+    <t>神器惊喜宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器惊喜宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级神器宝箱</t>
+  </si>
+  <si>
+    <t>中级神器宝箱</t>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2102,10 +2065,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2199,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
@@ -2217,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
@@ -2473,7 +2436,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2559,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2768,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2873,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
         <v>156</v>
@@ -2953,7 +2916,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -3033,16 +2996,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -3096,16 +3059,16 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -3159,16 +3122,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3186,7 +3149,7 @@
         <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R6" s="2">
         <v>200</v>
@@ -3251,7 +3214,7 @@
         <v>78</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R7" s="2">
         <v>200</v>
@@ -3287,16 +3250,16 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -3314,7 +3277,7 @@
         <v>78</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="R8" s="2">
         <v>300</v>
@@ -3350,16 +3313,16 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3413,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>152</v>
@@ -3476,16 +3439,16 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3539,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>145</v>
@@ -3602,16 +3565,16 @@
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3665,16 +3628,16 @@
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3728,16 +3691,16 @@
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -3791,16 +3754,16 @@
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -3809,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3854,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -3872,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="2">
         <v>250</v>
@@ -3917,16 +3880,16 @@
         <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -3935,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="2">
         <v>600</v>
@@ -3980,16 +3943,16 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -3998,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="2">
         <v>1750</v>
@@ -4043,16 +4006,16 @@
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -4061,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="2">
         <v>2500</v>
@@ -4106,16 +4069,16 @@
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -4124,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q21" s="2">
         <v>5000</v>
@@ -4232,16 +4195,16 @@
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -4295,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>146</v>
@@ -4358,16 +4321,16 @@
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -4421,16 +4384,16 @@
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -4484,16 +4447,16 @@
         <v>6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -4547,16 +4510,16 @@
         <v>7</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -4610,16 +4573,16 @@
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -4673,16 +4636,16 @@
         <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -4736,16 +4699,16 @@
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -4798,17 +4761,17 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>258</v>
+      <c r="H32" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>258</v>
+      <c r="K32" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4862,16 +4825,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -4880,19 +4843,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="2">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="R33" s="2">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -4925,16 +4888,16 @@
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -4943,22 +4906,26 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="2">
+        <v>165</v>
+      </c>
+      <c r="R34" s="2">
+        <v>165</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="T34" s="2">
         <v>30</v>
       </c>
-      <c r="R34" s="2">
-        <v>30</v>
-      </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="b">
@@ -4988,16 +4955,16 @@
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -5006,29 +4973,27 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="R35" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="T35" s="2">
-        <v>2</v>
-      </c>
-      <c r="U35" s="2">
-        <v>201</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="b">
         <v>1</v>
@@ -5036,7 +5001,7 @@
     </row>
     <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -5057,47 +5022,41 @@
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="L36" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="R36" s="2">
-        <v>70</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="T36" s="2">
-        <v>2</v>
-      </c>
-      <c r="U36" s="2">
-        <v>202</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2" t="b">
         <v>1</v>
@@ -5105,7 +5064,7 @@
     </row>
     <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>3105</v>
+        <v>3201</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
@@ -5114,59 +5073,53 @@
         <v>228</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="2">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="R37" s="2">
-        <v>150</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="T37" s="2">
-        <v>2</v>
-      </c>
-      <c r="U37" s="2">
-        <v>301</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2" t="b">
         <v>1</v>
@@ -5174,7 +5127,7 @@
     </row>
     <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>3106</v>
+        <v>3202</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -5183,59 +5136,53 @@
         <v>228</v>
       </c>
       <c r="D38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G38" s="2">
-        <v>6</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>282</v>
+        <v>2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>267</v>
+      <c r="K38" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
       </c>
       <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="N38" s="3">
+        <v>5</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="R38" s="2">
-        <v>150</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="T38" s="2">
-        <v>2</v>
-      </c>
-      <c r="U38" s="2">
-        <v>302</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2" t="b">
         <v>1</v>
@@ -5243,7 +5190,7 @@
     </row>
     <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>3107</v>
+        <v>3203</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
@@ -5252,59 +5199,53 @@
         <v>228</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G39" s="2">
-        <v>7</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>283</v>
+        <v>3</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>268</v>
+      <c r="K39" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="N39" s="3">
+        <v>5</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q39" s="2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="R39" s="2">
-        <v>150</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="T39" s="2">
-        <v>2</v>
-      </c>
-      <c r="U39" s="2">
-        <v>303</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2" t="b">
         <v>1</v>
@@ -5312,7 +5253,7 @@
     </row>
     <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>3108</v>
+        <v>3204</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -5321,49 +5262,49 @@
         <v>228</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G40" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="L40" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="N40" s="3">
+        <v>5</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="R40" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -5374,331 +5315,79 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>3201</v>
-      </c>
-      <c r="B41" s="2">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>2</v>
-      </c>
-      <c r="N41" s="3">
-        <v>5</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>350</v>
-      </c>
-      <c r="R41" s="2">
-        <v>350</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>3202</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>7</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>2</v>
-      </c>
-      <c r="N42" s="3">
-        <v>5</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>500</v>
-      </c>
-      <c r="R42" s="2">
-        <v>500</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>3203</v>
-      </c>
-      <c r="B43" s="2">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>7</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="2">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>2</v>
-      </c>
-      <c r="N43" s="3">
-        <v>5</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>500</v>
-      </c>
-      <c r="R43" s="2">
-        <v>500</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>3204</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>7</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G44" s="2">
-        <v>4</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>2</v>
-      </c>
-      <c r="N44" s="3">
-        <v>5</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>500</v>
-      </c>
-      <c r="R44" s="2">
-        <v>500</v>
-      </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-    </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-    </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="W43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5747,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -5781,7 +5470,7 @@
         <v>4011</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -5798,7 +5487,7 @@
         <v>4012</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -5815,7 +5504,7 @@
         <v>4013</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -5832,7 +5521,7 @@
         <v>4021</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -5849,7 +5538,7 @@
         <v>4022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -5866,7 +5555,7 @@
         <v>4023</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -5883,13 +5572,13 @@
         <v>4031</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
@@ -5900,13 +5589,13 @@
         <v>4032</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2">
         <v>60</v>
@@ -5917,13 +5606,13 @@
         <v>4033</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E12" s="2">
         <v>90</v>
@@ -5934,7 +5623,7 @@
         <v>4041</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -5951,7 +5640,7 @@
         <v>4042</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -5968,7 +5657,7 @@
         <v>4043</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -5985,7 +5674,7 @@
         <v>4051</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -6002,7 +5691,7 @@
         <v>4052</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -6019,7 +5708,7 @@
         <v>4053</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -6036,7 +5725,7 @@
         <v>4061</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -6053,7 +5742,7 @@
         <v>4062</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -6070,7 +5759,7 @@
         <v>4063</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6087,7 +5776,7 @@
         <v>4071</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -6104,7 +5793,7 @@
         <v>4072</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -6121,7 +5810,7 @@
         <v>4073</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -6138,13 +5827,13 @@
         <v>4081</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2">
         <v>30</v>
@@ -6155,13 +5844,13 @@
         <v>4082</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -6172,13 +5861,13 @@
         <v>4083</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E27" s="2">
         <v>90</v>
@@ -6189,7 +5878,7 @@
         <v>4091</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -6206,7 +5895,7 @@
         <v>4092</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -6223,7 +5912,7 @@
         <v>4093</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -6240,13 +5929,13 @@
         <v>4101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
@@ -6257,13 +5946,13 @@
         <v>4102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2">
         <v>60</v>
@@ -6274,13 +5963,13 @@
         <v>4103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E33" s="2">
         <v>90</v>
@@ -6291,7 +5980,7 @@
         <v>4111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -6308,7 +5997,7 @@
         <v>4112</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -6325,7 +6014,7 @@
         <v>4113</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -6342,7 +6031,7 @@
         <v>4121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -6359,7 +6048,7 @@
         <v>4122</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -6376,7 +6065,7 @@
         <v>4123</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -6393,7 +6082,7 @@
         <v>4131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -6410,7 +6099,7 @@
         <v>4132</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -6427,7 +6116,7 @@
         <v>4133</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -6444,7 +6133,7 @@
         <v>4141</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -6461,7 +6150,7 @@
         <v>4142</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -6478,7 +6167,7 @@
         <v>4143</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -6495,7 +6184,7 @@
         <v>4151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -6512,7 +6201,7 @@
         <v>4152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -6529,7 +6218,7 @@
         <v>4153</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -6546,7 +6235,7 @@
         <v>4161</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -6563,7 +6252,7 @@
         <v>4162</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -6580,7 +6269,7 @@
         <v>4163</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -7061,13 +6750,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7081,21 +6770,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7106,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -7118,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -7130,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D6" s="3"/>
     </row>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA8CA7-A612-4B8E-942E-F38419372671}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="346">
   <si>
     <t>sheet名</t>
   </si>
@@ -1287,11 +1282,87 @@
   <si>
     <t>芦花古楼-sum</t>
   </si>
+  <si>
+    <t>插槽17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽18</t>
+  </si>
+  <si>
+    <t>插槽19</t>
+  </si>
+  <si>
+    <t>插槽20</t>
+  </si>
+  <si>
+    <t>插槽21</t>
+  </si>
+  <si>
+    <t>插槽22</t>
+  </si>
+  <si>
+    <t>插槽23</t>
+  </si>
+  <si>
+    <t>插槽24</t>
+  </si>
+  <si>
+    <t>插槽25</t>
+  </si>
+  <si>
+    <t>插槽26</t>
+  </si>
+  <si>
+    <t>插槽27</t>
+  </si>
+  <si>
+    <t>插槽28</t>
+  </si>
+  <si>
+    <t>插槽29</t>
+  </si>
+  <si>
+    <t>插槽30</t>
+  </si>
+  <si>
+    <t>插槽31</t>
+  </si>
+  <si>
+    <t>插槽32</t>
+  </si>
+  <si>
+    <t>插槽33</t>
+  </si>
+  <si>
+    <t>插槽34</t>
+  </si>
+  <si>
+    <t>插槽35</t>
+  </si>
+  <si>
+    <t>插槽36</t>
+  </si>
+  <si>
+    <t>插槽37</t>
+  </si>
+  <si>
+    <t>插槽38</t>
+  </si>
+  <si>
+    <t>插槽39</t>
+  </si>
+  <si>
+    <t>插槽40</t>
+  </si>
+  <si>
+    <t>插槽41</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1505,19 +1576,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1805,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2089,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2432,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,11 +2801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5397,11 +5468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6281,6 +6352,1281 @@
         <v>90</v>
       </c>
     </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>4164</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4165</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>4166</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4167</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>4168</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>4169</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>4170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>4171</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>4172</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>4173</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>4174</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4175</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>4176</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>4177</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>4178</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4179</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>4180</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>4181</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>4182</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>4183</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>4184</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>4185</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>4186</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>4187</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>4188</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>4189</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>4190</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>4191</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>4192</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>4193</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>4194</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>4195</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>4196</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E84" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>4197</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>4198</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>4199</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E87" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>4200</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>4201</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>4202</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>4203</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>4204</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>4205</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>4206</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>4207</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>4208</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>4209</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E97" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>4210</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>4211</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E99" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>4212</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>4213</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>4214</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>4215</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>4216</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>4217</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E105" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>4218</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>4219</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>4220</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>4221</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>4222</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>4223</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E111" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>4224</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>4225</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>4226</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>4227</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>4228</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>4229</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>4230</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E118" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>4231</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>4232</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>4233</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>4234</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E122" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>4235</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>4236</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>4237</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>4238</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="2">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6289,7 +7635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6733,7 +8079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018ADF14-F128-4CDB-B598-7045D860468A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,48 +16,54 @@
     <sheet name="技能兑换页签" sheetId="33" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技能商店!$B$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技能商店!$C$1:$C$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="425">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
@@ -68,118 +73,118 @@
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bool:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HelpCol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TagId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TagIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShopIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>辅助列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>页签ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>页签图标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HelpCol1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品类型：0-普通商品，1-礼包</t>
   </si>
   <si>
     <t>GoodsType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Good.Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Good.Val</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LimitType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LimitNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>限制数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SellType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>售价类型:0-正常单价，1-阶梯价</t>
@@ -189,97 +194,97 @@
   </si>
   <si>
     <t>CoinType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:a&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
   </si>
   <si>
     <t>原价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激活条件ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Recommend</t>
   </si>
   <si>
     <t>IfOpen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否推荐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否开放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tags</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TagName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>页签名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ConditionId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激活条件参数1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>激活条件参数2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关羽碎片</t>
@@ -301,78 +306,78 @@
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>荣誉点</t>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>condition_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ConditionParam[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ConditionParam[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bool:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bool:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cost[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cost[1].Val</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消耗道具ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消耗道具数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店页签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>货架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -388,15 +393,15 @@
       </rPr>
       <t>.txt</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点金手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -412,82 +417,82 @@
       </rPr>
       <t>.txt</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IsFree</t>
   </si>
   <si>
     <t>Cost[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Reward[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Reward[1].Val</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否免费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消耗道具ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消耗道具数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>奖励道具ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>奖励道具数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Uid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>页签唯一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店类型</t>
@@ -500,27 +505,27 @@
   </si>
   <si>
     <t>shop_goods.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Uid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,11 +541,11 @@
       </rPr>
       <t>.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill_exchange.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,35 +561,35 @@
       </rPr>
       <t>.txt</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SkillId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shop_new.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shop.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shop_tag.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>唐流雨碎片</t>
@@ -618,11 +623,11 @@
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>InitNum</t>
@@ -632,151 +637,147 @@
   </si>
   <si>
     <t>int:e&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shop,HelpCol,TagId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Uid,Shop,HelpCol,TagId,ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shop,HelpCol,TagId,HelpCol1,Loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shop,HelpCol,TagId,HelpCol1,Loc,ShopId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钻石商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>荣誉商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>快速挂机券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专属武器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金币商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高级三才宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵石商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杂货铺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专属武器宝箱</t>
@@ -795,7 +796,7 @@
   </si>
   <si>
     <t>子页签唯一ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初级三才宝箱</t>
@@ -810,14 +811,8 @@
     <t>中级专属强化石</t>
   </si>
   <si>
-    <t>30#30#50#50#80#80#120#120#150#150#200</t>
-  </si>
-  <si>
-    <t>50#50#80#80#100#100#150#150#200#200</t>
-  </si>
-  <si>
     <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>许褚碎片</t>
@@ -842,14 +837,14 @@
   </si>
   <si>
     <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>守护灵抽卡券</t>
   </si>
   <si>
     <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人符箓</t>
@@ -859,59 +854,55 @@
   </si>
   <si>
     <t>ResBarId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资源栏ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧守令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能兑换页签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill_exchange_type.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>洗练瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>洗练瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -927,22 +918,22 @@
       </rPr>
       <t>00#150#200#300#300</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>洗炼瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器惊喜宝箱</t>
   </si>
   <si>
     <t>神器惊喜宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器惊喜宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>初级神器宝箱</t>
@@ -966,10 +957,6 @@
     <t>张郃碎片</t>
   </si>
   <si>
-    <t>于禁碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>插槽ID</t>
   </si>
   <si>
@@ -991,315 +978,1134 @@
     <t>插槽22</t>
   </si>
   <si>
+    <t>插槽25</t>
+  </si>
+  <si>
+    <t>插槽26</t>
+  </si>
+  <si>
+    <t>插槽27</t>
+  </si>
+  <si>
+    <t>插槽28</t>
+  </si>
+  <si>
+    <t>插槽29</t>
+  </si>
+  <si>
+    <t>插槽30</t>
+  </si>
+  <si>
+    <t>插槽31</t>
+  </si>
+  <si>
+    <t>插槽32</t>
+  </si>
+  <si>
+    <t>插槽33</t>
+  </si>
+  <si>
+    <t>插槽34</t>
+  </si>
+  <si>
+    <t>插槽35</t>
+  </si>
+  <si>
+    <t>插槽36</t>
+  </si>
+  <si>
+    <t>插槽37</t>
+  </si>
+  <si>
+    <t>插槽38</t>
+  </si>
+  <si>
+    <t>插槽39</t>
+  </si>
+  <si>
+    <t>插槽40</t>
+  </si>
+  <si>
+    <t>插槽41</t>
+  </si>
+  <si>
+    <t>西方龙碎片</t>
+  </si>
+  <si>
+    <t>IfShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包内是否显示0-否1-是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>128#288</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>插槽23</t>
-  </si>
-  <si>
-    <t>插槽25</t>
-  </si>
-  <si>
-    <t>插槽26</t>
-  </si>
-  <si>
-    <t>插槽27</t>
-  </si>
-  <si>
-    <t>插槽28</t>
-  </si>
-  <si>
-    <t>插槽29</t>
-  </si>
-  <si>
-    <t>插槽30</t>
-  </si>
-  <si>
-    <t>插槽31</t>
-  </si>
-  <si>
-    <t>插槽32</t>
-  </si>
-  <si>
-    <t>插槽33</t>
-  </si>
-  <si>
-    <t>插槽34</t>
-  </si>
-  <si>
-    <t>插槽35</t>
-  </si>
-  <si>
-    <t>插槽36</t>
-  </si>
-  <si>
-    <t>插槽37</t>
-  </si>
-  <si>
-    <t>插槽38</t>
-  </si>
-  <si>
-    <t>插槽39</t>
-  </si>
-  <si>
-    <t>插槽40</t>
-  </si>
-  <si>
-    <t>插槽41</t>
-  </si>
-  <si>
-    <t>西方龙碎片</t>
-  </si>
-  <si>
-    <t>IfShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包内是否显示0-否1-是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cstring:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重创</t>
+  </si>
+  <si>
+    <t>断脉</t>
+  </si>
+  <si>
+    <t>釜底抽薪</t>
+  </si>
+  <si>
+    <t>追魂</t>
+  </si>
+  <si>
+    <t>强袭</t>
+  </si>
+  <si>
+    <t>浴血长驱</t>
+  </si>
+  <si>
+    <t>突袭</t>
+  </si>
+  <si>
+    <t>镇邪</t>
+  </si>
+  <si>
+    <t>焦热</t>
+  </si>
+  <si>
+    <t>一闪</t>
+  </si>
+  <si>
+    <t>刃舞</t>
+  </si>
+  <si>
+    <t>石破天惊</t>
+  </si>
+  <si>
+    <t>雷厉风行</t>
+  </si>
+  <si>
+    <t>乾坤浩荡</t>
+  </si>
+  <si>
+    <t>揽月</t>
+  </si>
+  <si>
+    <t>破阵</t>
+  </si>
+  <si>
+    <t>回天舞</t>
+  </si>
+  <si>
+    <t>水淹七军</t>
+  </si>
+  <si>
+    <t>治愈</t>
+  </si>
+  <si>
+    <t>治愈·守护</t>
+  </si>
+  <si>
+    <t>治愈·勇烈</t>
+  </si>
+  <si>
+    <t>治愈·坚毅</t>
+  </si>
+  <si>
+    <t>常青</t>
+  </si>
+  <si>
+    <t>沐光之壁</t>
+  </si>
+  <si>
+    <t>万夫不当</t>
+  </si>
+  <si>
+    <t>TabStr1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TabStr2</t>
+  </si>
+  <si>
+    <t>标签1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石商店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器惊喜宝箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器惊喜宝箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级抽卡卷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日首次半价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级守护灵抽卡券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎护灵符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵初级抽卡券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币商店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>128#288</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重创</t>
-  </si>
-  <si>
-    <t>断脉</t>
-  </si>
-  <si>
-    <t>釜底抽薪</t>
-  </si>
-  <si>
-    <t>追魂</t>
-  </si>
-  <si>
-    <t>强袭</t>
-  </si>
-  <si>
-    <t>浴血长驱</t>
-  </si>
-  <si>
-    <t>突袭</t>
-  </si>
-  <si>
-    <t>镇邪</t>
-  </si>
-  <si>
-    <t>焦热</t>
-  </si>
-  <si>
-    <t>一闪</t>
-  </si>
-  <si>
-    <t>刃舞</t>
-  </si>
-  <si>
-    <t>石破天惊</t>
-  </si>
-  <si>
-    <t>雷厉风行</t>
-  </si>
-  <si>
-    <t>乾坤浩荡</t>
-  </si>
-  <si>
-    <t>揽月</t>
-  </si>
-  <si>
-    <t>破阵</t>
-  </si>
-  <si>
-    <t>回天舞</t>
-  </si>
-  <si>
-    <t>水淹七军</t>
-  </si>
-  <si>
-    <t>治愈</t>
-  </si>
-  <si>
-    <t>治愈·守护</t>
-  </si>
-  <si>
-    <t>治愈·勇烈</t>
-  </si>
-  <si>
-    <t>治愈·坚毅</t>
-  </si>
-  <si>
-    <t>常青</t>
-  </si>
-  <si>
-    <t>沐光之壁</t>
-  </si>
-  <si>
-    <t>万夫不当</t>
-  </si>
-  <si>
-    <t>TabStr1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TabStr2</t>
-  </si>
-  <si>
-    <t>标签1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂货店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵石商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器惊喜宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器惊喜宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级抽卡卷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日首次半价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗炼瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎护灵符</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵初级抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗炼瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽17_1</t>
+  </si>
+  <si>
+    <t>插槽18_1</t>
+  </si>
+  <si>
+    <t>插槽19_1</t>
+  </si>
+  <si>
+    <t>插槽20_1</t>
+  </si>
+  <si>
+    <t>插槽21_1</t>
+  </si>
+  <si>
+    <t>插槽22_1</t>
+  </si>
+  <si>
+    <t>插槽25_1</t>
+  </si>
+  <si>
+    <t>插槽26_1</t>
+  </si>
+  <si>
+    <t>插槽27_1</t>
+  </si>
+  <si>
+    <t>插槽28_1</t>
+  </si>
+  <si>
+    <t>插槽17_2</t>
+  </si>
+  <si>
+    <t>插槽17_3</t>
+  </si>
+  <si>
+    <t>插槽18_2</t>
+  </si>
+  <si>
+    <t>插槽18_3</t>
+  </si>
+  <si>
+    <t>插槽19_2</t>
+  </si>
+  <si>
+    <t>插槽19_3</t>
+  </si>
+  <si>
+    <t>插槽20_2</t>
+  </si>
+  <si>
+    <t>插槽20_3</t>
+  </si>
+  <si>
+    <t>插槽21_2</t>
+  </si>
+  <si>
+    <t>插槽21_3</t>
+  </si>
+  <si>
+    <t>插槽22_2</t>
+  </si>
+  <si>
+    <t>插槽22_3</t>
+  </si>
+  <si>
+    <t>插槽24_3</t>
+  </si>
+  <si>
+    <t>插槽25_2</t>
+  </si>
+  <si>
+    <t>插槽25_3</t>
+  </si>
+  <si>
+    <t>插槽26_2</t>
+  </si>
+  <si>
+    <t>插槽26_3</t>
+  </si>
+  <si>
+    <t>插槽27_2</t>
+  </si>
+  <si>
+    <t>插槽27_3</t>
+  </si>
+  <si>
+    <t>插槽28_2</t>
+  </si>
+  <si>
+    <t>插槽28_3</t>
+  </si>
+  <si>
+    <t>插槽29_1</t>
+  </si>
+  <si>
+    <t>插槽29_2</t>
+  </si>
+  <si>
+    <t>插槽29_3</t>
+  </si>
+  <si>
+    <t>插槽30_1</t>
+  </si>
+  <si>
+    <t>插槽30_2</t>
+  </si>
+  <si>
+    <t>插槽30_3</t>
+  </si>
+  <si>
+    <t>插槽31_1</t>
+  </si>
+  <si>
+    <t>插槽31_2</t>
+  </si>
+  <si>
+    <t>插槽31_3</t>
+  </si>
+  <si>
+    <t>插槽32_1</t>
+  </si>
+  <si>
+    <t>插槽32_2</t>
+  </si>
+  <si>
+    <t>插槽32_3</t>
+  </si>
+  <si>
+    <t>插槽33_1</t>
+  </si>
+  <si>
+    <t>插槽33_2</t>
+  </si>
+  <si>
+    <t>插槽33_3</t>
+  </si>
+  <si>
+    <t>插槽34_1</t>
+  </si>
+  <si>
+    <t>插槽34_2</t>
+  </si>
+  <si>
+    <t>插槽34_3</t>
+  </si>
+  <si>
+    <t>插槽35_1</t>
+  </si>
+  <si>
+    <t>插槽35_2</t>
+  </si>
+  <si>
+    <t>插槽35_3</t>
+  </si>
+  <si>
+    <t>插槽36_1</t>
+  </si>
+  <si>
+    <t>插槽36_2</t>
+  </si>
+  <si>
+    <t>插槽36_3</t>
+  </si>
+  <si>
+    <t>插槽37_1</t>
+  </si>
+  <si>
+    <t>插槽37_2</t>
+  </si>
+  <si>
+    <t>插槽37_3</t>
+  </si>
+  <si>
+    <t>插槽38_1</t>
+  </si>
+  <si>
+    <t>插槽38_2</t>
+  </si>
+  <si>
+    <t>插槽38_3</t>
+  </si>
+  <si>
+    <t>插槽39_1</t>
+  </si>
+  <si>
+    <t>插槽39_2</t>
+  </si>
+  <si>
+    <t>插槽39_3</t>
+  </si>
+  <si>
+    <t>插槽40_1</t>
+  </si>
+  <si>
+    <t>插槽40_2</t>
+  </si>
+  <si>
+    <t>插槽40_3</t>
+  </si>
+  <si>
+    <t>插槽41_1</t>
+  </si>
+  <si>
+    <t>插槽41_2</t>
+  </si>
+  <si>
+    <t>插槽41_3</t>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>李轩辕碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>插槽2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>灵金商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50#50#100#100#150#150#200#200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20#30#50#50#70#80#100#100#150#150#200#200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽24_4</t>
+  </si>
+  <si>
+    <t>插槽24_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1459,47 +2265,47 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1507,27 +2313,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1815,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2075,10 +2881,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2092,14 +2898,14 @@
       <c r="H13" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2174,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
@@ -2184,16 +2990,16 @@
         <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -2204,7 +3010,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
@@ -2227,18 +3033,18 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N7">
         <v>288</v>
       </c>
       <c r="P7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -2249,7 +3055,7 @@
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2260,7 +3066,7 @@
         <v>300</v>
       </c>
       <c r="P9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2273,7 +3079,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -2286,7 +3092,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N13">
         <v>50000</v>
@@ -2326,7 +3132,7 @@
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K18" t="s">
         <v>170</v>
@@ -2334,7 +3140,7 @@
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O19">
         <v>150</v>
@@ -2342,7 +3148,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O20">
         <v>150</v>
@@ -2358,7 +3164,7 @@
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L22" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -2371,7 +3177,7 @@
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O24">
         <v>65</v>
@@ -2379,7 +3185,7 @@
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O25">
         <v>165</v>
@@ -2387,7 +3193,7 @@
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O26">
         <v>250</v>
@@ -2402,7 +3208,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="K23 K40 J38:K38 K37 J39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -2412,11 +3218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2450,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2502,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2522,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -2546,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -2570,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -2594,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -2632,17 +3438,17 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2660,7 +3466,7 @@
     <col min="16" max="16" width="14.625" customWidth="1"/>
     <col min="17" max="17" width="20.75" customWidth="1"/>
     <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="44.25" customWidth="1"/>
+    <col min="19" max="19" width="49.875" customWidth="1"/>
     <col min="20" max="20" width="9.625" customWidth="1"/>
     <col min="21" max="21" width="15.125" customWidth="1"/>
     <col min="22" max="22" width="19.625" customWidth="1"/>
@@ -2679,10 +3485,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -2750,16 +3556,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2774,10 +3580,10 @@
         <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -2833,16 +3639,16 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -2907,46 +3713,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>999</v>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -2976,55 +3782,55 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="O5" s="2">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>999</v>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="T5" s="3">
         <v>288</v>
@@ -3045,37 +3851,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>213</v>
+        <v>420</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -3084,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -3092,11 +3898,11 @@
       <c r="R6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>193</v>
+      <c r="S6" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="T6" s="3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -3116,37 +3922,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
@@ -3163,8 +3969,8 @@
       <c r="R7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>194</v>
+      <c r="S7" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="T7" s="2">
         <v>200</v>
@@ -3185,37 +3991,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -3233,7 +4039,7 @@
         <v>70</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="T8" s="2">
         <v>300</v>
@@ -3254,37 +4060,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I9" s="2">
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N9" s="2">
         <v>1</v>
@@ -3293,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -3323,37 +4129,37 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -3392,13 +4198,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -3407,22 +4213,22 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -3431,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S11" s="2">
         <v>50000</v>
@@ -3461,13 +4267,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -3476,22 +4282,22 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
@@ -3500,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S12" s="2">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="T12" s="2">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -3530,13 +4336,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -3545,22 +4351,22 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -3569,19 +4375,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S13" s="2">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="T13" s="2">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -3599,13 +4405,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -3614,22 +4420,22 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" s="2">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -3638,19 +4444,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S14" s="2">
-        <v>1750</v>
+        <v>35000</v>
       </c>
       <c r="T14" s="2">
-        <v>1750</v>
+        <v>35000</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -3668,13 +4474,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -3683,22 +4489,22 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I15" s="2">
         <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
@@ -3707,19 +4513,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S15" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="T15" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -3737,13 +4543,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -3752,22 +4558,22 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -3776,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3806,13 +4612,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -3821,22 +4627,22 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N17" s="2">
         <v>1</v>
@@ -3875,13 +4681,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -3890,22 +4696,22 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -3944,13 +4750,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -3959,22 +4765,22 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
@@ -4013,13 +4819,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F20" s="2">
         <v>2</v>
@@ -4028,22 +4834,22 @@
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
@@ -4052,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S20" s="2">
         <v>65</v>
@@ -4082,13 +4888,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F21" s="2">
         <v>2</v>
@@ -4097,22 +4903,22 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I21" s="2">
         <v>2</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
@@ -4121,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S21" s="2">
         <v>165</v>
@@ -4136,7 +4942,7 @@
         <v>165</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="V21" s="2">
         <v>40</v>
@@ -4155,13 +4961,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F22" s="2">
         <v>2</v>
@@ -4170,22 +4976,22 @@
         <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I22" s="2">
         <v>3</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
@@ -4194,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S22" s="2">
         <v>250</v>
@@ -4209,7 +5015,7 @@
         <v>250</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="V22" s="2">
         <v>120</v>
@@ -4228,13 +5034,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -4243,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -4267,13 +5073,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S23" s="2">
         <v>20</v>
@@ -4371,2250 +5177,2565 @@
       <c r="Y26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="6">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="6">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="6">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="6">
+        <v>30</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="6">
+        <v>30</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" s="6">
+        <v>30</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F28" s="6">
+        <v>30</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" s="6">
+        <v>30</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F30" s="6">
+        <v>30</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F31" s="6">
+        <v>30</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F32" s="6">
+        <v>30</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F33" s="6">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" s="6">
+        <v>30</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="6">
+        <v>45</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="6">
+        <v>45</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="6">
+        <v>30</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>1041</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="6">
+        <v>30</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>1042</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="6">
+        <v>30</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="6">
+        <v>30</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="6">
+        <v>30</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="6">
+        <v>30</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>1046</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="6">
+        <v>40</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="6">
+        <v>40</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="6">
+        <v>40</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="6">
+        <v>45</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>1050</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="6">
+        <v>45</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="6">
+        <v>45</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>1052</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="6">
         <v>20</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>1053</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="6">
+        <v>20</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>1054</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="6">
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>1055</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="6">
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="6">
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1057</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="6">
+        <v>20</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>1058</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="6">
+        <v>30</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>1059</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="6">
+        <v>30</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1060</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="6">
+        <v>30</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1061</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="6">
+        <v>45</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>1062</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="6">
+        <v>45</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="6">
+        <v>45</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1064</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="6">
+        <v>45</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="6">
+        <v>45</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>1066</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="6">
+        <v>45</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>1067</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="6">
+        <v>45</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1070</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="6">
+        <v>45</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>1071</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="6">
+        <v>45</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="6">
+        <v>45</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" s="6">
+        <v>5</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="6">
+        <v>5</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="6">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="6">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="6">
-        <v>30</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="6">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="6">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="6">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="6">
-        <v>30</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>1014</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="6">
-        <v>30</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>1015</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="6">
-        <v>30</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>1016</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="6">
-        <v>45</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="6">
-        <v>45</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="6">
-        <v>45</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>1019</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="6">
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" s="6">
         <v>5</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>1020</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" s="6">
         <v>5</v>
       </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>1021</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>1022</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="6">
-        <v>30</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>1023</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="6">
-        <v>30</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>1024</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="6">
-        <v>30</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>1025</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="6">
-        <v>30</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>1026</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="6">
-        <v>30</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>1027</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="6">
-        <v>30</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>1028</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="6">
-        <v>30</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>1029</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="6">
-        <v>30</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>1030</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="6">
-        <v>30</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>1031</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="6">
-        <v>45</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>1032</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="6">
-        <v>45</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>1033</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="6">
-        <v>45</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>1034</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" s="6">
-        <v>45</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>1035</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="6">
-        <v>45</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>1036</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="6">
-        <v>45</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>1037</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="6">
-        <v>45</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>1038</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="6">
-        <v>45</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>1039</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" s="6">
-        <v>45</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>1040</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="6">
-        <v>30</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>1041</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="6">
-        <v>30</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>1042</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="6">
-        <v>30</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>1043</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="6">
-        <v>30</v>
-      </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>1044</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="6">
-        <v>30</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>1045</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="6">
-        <v>30</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>1046</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="6">
-        <v>20</v>
-      </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>1047</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="6">
-        <v>20</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>1048</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="6">
-        <v>20</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>1049</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="6">
-        <v>45</v>
-      </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>1050</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="6">
-        <v>45</v>
-      </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>1051</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="6">
-        <v>45</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>1052</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="6">
-        <v>20</v>
-      </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>1053</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="6">
-        <v>20</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>1054</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="6">
-        <v>20</v>
-      </c>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>1055</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="6">
-        <v>20</v>
-      </c>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>1056</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="6">
-        <v>20</v>
-      </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>1057</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="6">
-        <v>20</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>1058</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="6">
-        <v>30</v>
-      </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>1059</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="6">
-        <v>30</v>
-      </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>1060</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="6">
-        <v>30</v>
-      </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>1061</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="6">
-        <v>45</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>1062</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="6">
-        <v>45</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>1063</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="6">
-        <v>45</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>1064</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="6">
-        <v>45</v>
-      </c>
-      <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>1065</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="6">
-        <v>45</v>
-      </c>
-      <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>1066</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="6">
-        <v>45</v>
-      </c>
-      <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>1067</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" s="6">
-        <v>45</v>
-      </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>1068</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" s="6">
-        <v>45</v>
-      </c>
-      <c r="F71" s="6">
-        <v>1</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>1069</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" s="6">
-        <v>45</v>
-      </c>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>1070</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="6">
-        <v>45</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>1071</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="6">
-        <v>45</v>
-      </c>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>1072</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" s="6">
-        <v>45</v>
-      </c>
-      <c r="F75" s="6">
-        <v>1</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="6">
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" s="6">
         <v>5</v>
       </c>
-      <c r="F76" s="6">
-        <v>0</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" s="6">
         <v>5</v>
       </c>
-      <c r="F77" s="6">
-        <v>0</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78" s="6">
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="6">
         <v>5</v>
       </c>
-      <c r="F78" s="6">
-        <v>0</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>2004</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C79" s="6">
-        <v>0</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E79" s="6">
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" s="6">
         <v>5</v>
       </c>
-      <c r="F79" s="6">
-        <v>0</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="6">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" s="6">
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" s="6">
         <v>5</v>
       </c>
-      <c r="F80" s="6">
-        <v>0</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" s="6">
+      <c r="G87" s="6">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88" s="6">
         <v>5</v>
       </c>
-      <c r="F81" s="6">
-        <v>0</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" s="6">
         <v>5</v>
       </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="G89" s="6">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="6">
         <v>5</v>
       </c>
-      <c r="F83" s="6">
-        <v>0</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="6">
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F91" s="6">
         <v>5</v>
       </c>
-      <c r="F84" s="6">
-        <v>0</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E85" s="6">
+      <c r="G91" s="6">
+        <v>0</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="6">
         <v>5</v>
       </c>
-      <c r="F85" s="6">
-        <v>0</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="6">
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" s="6">
         <v>5</v>
       </c>
-      <c r="F86" s="6">
-        <v>0</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C87" s="6">
-        <v>0</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E87" s="6">
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94" s="6">
         <v>5</v>
       </c>
-      <c r="F87" s="6">
-        <v>0</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="6">
-        <v>0</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E88" s="6">
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F95" s="6">
         <v>5</v>
       </c>
-      <c r="F88" s="6">
-        <v>0</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" s="6">
+      <c r="G95" s="6">
+        <v>0</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96" s="6">
         <v>5</v>
       </c>
-      <c r="F89" s="6">
-        <v>0</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="6">
-        <v>0</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E90" s="6">
+      <c r="G96" s="6">
+        <v>0</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97" s="6">
         <v>5</v>
       </c>
-      <c r="F90" s="6">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C91" s="6">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E91" s="6">
-        <v>5</v>
-      </c>
-      <c r="F91" s="6">
-        <v>0</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E92" s="6">
-        <v>5</v>
-      </c>
-      <c r="F92" s="6">
-        <v>0</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E93" s="6">
-        <v>5</v>
-      </c>
-      <c r="F93" s="6">
-        <v>0</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" s="6">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E94" s="6">
-        <v>5</v>
-      </c>
-      <c r="F94" s="6">
-        <v>0</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E95" s="6">
-        <v>5</v>
-      </c>
-      <c r="F95" s="6">
-        <v>0</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C96" s="6">
-        <v>0</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E96" s="6">
-        <v>5</v>
-      </c>
-      <c r="F96" s="6">
-        <v>0</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>278</v>
+      <c r="G97" s="6">
+        <v>0</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B97" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
-    <sortCondition ref="B76"/>
+  <autoFilter ref="C1:C98"/>
+  <sortState ref="A2:H77">
+    <sortCondition ref="C77"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7052,13 +8173,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7075,13 +8196,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7095,21 +8216,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7120,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -7132,12 +8253,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,25 +16,19 @@
     <sheet name="技能兑换页签" sheetId="33" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技能商店!$C$1:$C$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技能商店!$C$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="433">
   <si>
     <t>sheet名</t>
   </si>
@@ -290,9 +284,6 @@
     <t>关羽碎片</t>
   </si>
   <si>
-    <t>典韦碎片</t>
-  </si>
-  <si>
     <t>神器低级材料</t>
   </si>
   <si>
@@ -336,23 +327,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bool:e&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Cost[1].Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cost[1].Val</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -564,18 +543,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>SkillId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SkillId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_new.lua</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -592,9 +567,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>唐流雨碎片</t>
-  </si>
-  <si>
     <t>夏侯惇碎片</t>
   </si>
   <si>
@@ -604,24 +576,9 @@
     <t>食火蜥碎片</t>
   </si>
   <si>
-    <t>徐晃碎片</t>
-  </si>
-  <si>
     <t>张飞碎片</t>
   </si>
   <si>
-    <t>噬日碎片</t>
-  </si>
-  <si>
-    <t>飞廉碎片</t>
-  </si>
-  <si>
-    <t>高顺碎片</t>
-  </si>
-  <si>
-    <t>烈风螳螂碎片</t>
-  </si>
-  <si>
     <t>int:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -797,15 +754,6 @@
   <si>
     <t>子页签唯一ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级三才宝箱</t>
-  </si>
-  <si>
-    <t>中级三才宝箱</t>
-  </si>
-  <si>
-    <t>高级三才宝箱</t>
   </si>
   <si>
     <t>中级专属强化石</t>
@@ -945,9 +893,6 @@
     <t>芦花古楼-sum</t>
   </si>
   <si>
-    <t>塞伯罗斯碎片</t>
-  </si>
-  <si>
     <t>天使缇娜碎片</t>
   </si>
   <si>
@@ -963,15 +908,9 @@
     <t>插槽17</t>
   </si>
   <si>
-    <t>插槽18</t>
-  </si>
-  <si>
     <t>插槽19</t>
   </si>
   <si>
-    <t>插槽20</t>
-  </si>
-  <si>
     <t>插槽21</t>
   </si>
   <si>
@@ -1014,12 +953,6 @@
     <t>插槽36</t>
   </si>
   <si>
-    <t>插槽37</t>
-  </si>
-  <si>
-    <t>插槽38</t>
-  </si>
-  <si>
     <t>插槽39</t>
   </si>
   <si>
@@ -1079,15 +1012,9 @@
     <t>重创</t>
   </si>
   <si>
-    <t>断脉</t>
-  </si>
-  <si>
     <t>釜底抽薪</t>
   </si>
   <si>
-    <t>追魂</t>
-  </si>
-  <si>
     <t>强袭</t>
   </si>
   <si>
@@ -1136,12 +1063,6 @@
     <t>治愈·守护</t>
   </si>
   <si>
-    <t>治愈·勇烈</t>
-  </si>
-  <si>
-    <t>治愈·坚毅</t>
-  </si>
-  <si>
     <t>常青</t>
   </si>
   <si>
@@ -1274,30 +1195,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>#note</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>插槽17_1</t>
   </si>
   <si>
-    <t>插槽18_1</t>
-  </si>
-  <si>
     <t>插槽19_1</t>
   </si>
   <si>
-    <t>插槽20_1</t>
-  </si>
-  <si>
     <t>插槽21_1</t>
   </si>
   <si>
@@ -1322,178 +1225,40 @@
     <t>插槽17_3</t>
   </si>
   <si>
-    <t>插槽18_2</t>
-  </si>
-  <si>
-    <t>插槽18_3</t>
-  </si>
-  <si>
-    <t>插槽19_2</t>
-  </si>
-  <si>
-    <t>插槽19_3</t>
-  </si>
-  <si>
-    <t>插槽20_2</t>
-  </si>
-  <si>
-    <t>插槽20_3</t>
-  </si>
-  <si>
-    <t>插槽21_2</t>
-  </si>
-  <si>
-    <t>插槽21_3</t>
-  </si>
-  <si>
-    <t>插槽22_2</t>
-  </si>
-  <si>
-    <t>插槽22_3</t>
-  </si>
-  <si>
     <t>插槽24_3</t>
   </si>
   <si>
-    <t>插槽25_2</t>
-  </si>
-  <si>
-    <t>插槽25_3</t>
-  </si>
-  <si>
-    <t>插槽26_2</t>
-  </si>
-  <si>
-    <t>插槽26_3</t>
-  </si>
-  <si>
-    <t>插槽27_2</t>
-  </si>
-  <si>
-    <t>插槽27_3</t>
-  </si>
-  <si>
-    <t>插槽28_2</t>
-  </si>
-  <si>
-    <t>插槽28_3</t>
-  </si>
-  <si>
     <t>插槽29_1</t>
   </si>
   <si>
-    <t>插槽29_2</t>
-  </si>
-  <si>
-    <t>插槽29_3</t>
-  </si>
-  <si>
     <t>插槽30_1</t>
   </si>
   <si>
-    <t>插槽30_2</t>
-  </si>
-  <si>
-    <t>插槽30_3</t>
-  </si>
-  <si>
     <t>插槽31_1</t>
   </si>
   <si>
-    <t>插槽31_2</t>
-  </si>
-  <si>
-    <t>插槽31_3</t>
-  </si>
-  <si>
     <t>插槽32_1</t>
   </si>
   <si>
-    <t>插槽32_2</t>
-  </si>
-  <si>
-    <t>插槽32_3</t>
-  </si>
-  <si>
     <t>插槽33_1</t>
   </si>
   <si>
-    <t>插槽33_2</t>
-  </si>
-  <si>
-    <t>插槽33_3</t>
-  </si>
-  <si>
     <t>插槽34_1</t>
   </si>
   <si>
-    <t>插槽34_2</t>
-  </si>
-  <si>
-    <t>插槽34_3</t>
-  </si>
-  <si>
     <t>插槽35_1</t>
   </si>
   <si>
-    <t>插槽35_2</t>
-  </si>
-  <si>
-    <t>插槽35_3</t>
-  </si>
-  <si>
     <t>插槽36_1</t>
   </si>
   <si>
-    <t>插槽36_2</t>
-  </si>
-  <si>
-    <t>插槽36_3</t>
-  </si>
-  <si>
-    <t>插槽37_1</t>
-  </si>
-  <si>
-    <t>插槽37_2</t>
-  </si>
-  <si>
-    <t>插槽37_3</t>
-  </si>
-  <si>
-    <t>插槽38_1</t>
-  </si>
-  <si>
-    <t>插槽38_2</t>
-  </si>
-  <si>
-    <t>插槽38_3</t>
-  </si>
-  <si>
     <t>插槽39_1</t>
   </si>
   <si>
-    <t>插槽39_2</t>
-  </si>
-  <si>
-    <t>插槽39_3</t>
-  </si>
-  <si>
     <t>插槽40_1</t>
   </si>
   <si>
-    <t>插槽40_2</t>
-  </si>
-  <si>
-    <t>插槽40_3</t>
-  </si>
-  <si>
     <t>插槽41_1</t>
-  </si>
-  <si>
-    <t>插槽41_2</t>
-  </si>
-  <si>
-    <t>插槽41_3</t>
   </si>
   <si>
     <r>
@@ -2082,17 +1847,328 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>插槽24_4</t>
-  </si>
-  <si>
-    <t>插槽24_5</t>
+    <t>唐流雨碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬日碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽33_2</t>
+  </si>
+  <si>
+    <t>插槽33_3</t>
+  </si>
+  <si>
+    <t>玄铁</t>
+  </si>
+  <si>
+    <t>乌金</t>
+  </si>
+  <si>
+    <t>银母</t>
+  </si>
+  <si>
+    <t>铀金</t>
+  </si>
+  <si>
+    <t>惩戒_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒_2</t>
+  </si>
+  <si>
+    <t>惩戒_3</t>
+  </si>
+  <si>
+    <t>断罪_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断罪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>封脉_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>封脉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>封脉_2</t>
+  </si>
+  <si>
+    <t>封脉_3</t>
+  </si>
+  <si>
+    <t>插槽20_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽20_2</t>
+  </si>
+  <si>
+    <t>插槽20_3</t>
+  </si>
+  <si>
+    <t>插槽20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽18_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>追魂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断脉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮碎片</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖文碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮碎片x5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普碎片x5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖文碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖文碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮碎片x5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普碎片</t>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+  </si>
+  <si>
+    <t>北落师门碎片</t>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+  </si>
+  <si>
+    <t>红莲缇娜碎片</t>
+  </si>
+  <si>
+    <t>项昆仑碎片</t>
+  </si>
+  <si>
+    <t>黑尔坎普碎片x5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑碎片x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏铃碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏铃碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片x10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵装夏铃碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵装曹焱兵碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖文碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑尔坎普碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲缇娜碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2181,6 +2257,20 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2294,7 +2384,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2312,13 +2402,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -2667,17 +2760,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -2687,17 +2780,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -2707,17 +2800,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -2727,17 +2820,17 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -2747,17 +2840,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -2767,17 +2860,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -2787,14 +2880,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2805,17 +2898,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -2825,14 +2918,14 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2843,10 +2936,10 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -2863,14 +2956,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2881,10 +2974,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2906,27 +2999,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="10.875" customWidth="1"/>
     <col min="16" max="16" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -2940,10 +3033,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -2957,7 +3050,7 @@
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2980,26 +3073,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M4" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="N4" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="O4" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="P4" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3010,68 +3103,68 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="L6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="N6">
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="N7">
         <v>288</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N8">
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N9">
         <v>300</v>
       </c>
       <c r="P9" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -3079,7 +3172,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -3087,12 +3180,12 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="N13">
         <v>50000</v>
@@ -3100,7 +3193,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N14">
         <v>500</v>
@@ -3108,7 +3201,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N15">
         <v>1200</v>
@@ -3116,7 +3209,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="N16">
         <v>3500</v>
@@ -3124,7 +3217,7 @@
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="N17">
         <v>2500</v>
@@ -3132,15 +3225,15 @@
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="O19">
         <v>150</v>
@@ -3148,7 +3241,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="O20">
         <v>150</v>
@@ -3156,7 +3249,7 @@
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O21">
         <v>10</v>
@@ -3164,52 +3257,148 @@
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L22" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="O22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:15" x14ac:dyDescent="0.2">
-      <c r="K23" t="s">
-        <v>171</v>
+      <c r="L23" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="O24">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="O25">
-        <v>165</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>185</v>
+        <v>387</v>
       </c>
       <c r="O26">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>67</v>
+        <v>390</v>
       </c>
       <c r="O27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>174</v>
+      </c>
+      <c r="O31">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32">
         <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>391</v>
+      </c>
+      <c r="O33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>392</v>
+      </c>
+      <c r="O34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>393</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>402</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>404</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>405</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>403</v>
+      </c>
+      <c r="O39">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="K23 K40 J38:K38 K37 J39">
+  <conditionalFormatting sqref="K40 J37:J38 K28 J39:K39 K36">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3222,7 +3411,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3235,10 +3424,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -3247,7 +3436,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>60</v>
@@ -3256,24 +3445,24 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3282,12 +3471,12 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -3299,7 +3488,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
@@ -3308,7 +3497,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -3328,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -3352,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -3376,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -3400,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -3445,10 +3634,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3476,31 +3665,31 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>52</v>
@@ -3539,10 +3728,10 @@
         <v>62</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>48</v>
@@ -3556,34 +3745,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -3598,13 +3787,13 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
         <v>43</v>
@@ -3613,19 +3802,19 @@
         <v>11</v>
       </c>
       <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" t="s">
-        <v>75</v>
-      </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3633,22 +3822,22 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -3672,7 +3861,7 @@
         <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>37</v>
@@ -3713,13 +3902,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3728,22 +3917,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -3752,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S4" s="3">
         <v>100</v>
@@ -3770,8 +3959,8 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2" t="b">
-        <v>1</v>
+      <c r="Y4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3782,13 +3971,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -3797,22 +3986,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
@@ -3821,16 +4010,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="T5" s="3">
         <v>288</v>
@@ -3839,7 +4028,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2" t="b">
+      <c r="Y5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3851,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -3866,22 +4055,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -3896,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="T6" s="3">
         <v>200</v>
@@ -3910,7 +4099,7 @@
       <c r="X6" s="2">
         <v>1</v>
       </c>
-      <c r="Y6" s="2" t="b">
+      <c r="Y6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3922,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -3937,22 +4126,22 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
@@ -3967,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="T7" s="2">
         <v>200</v>
@@ -3979,7 +4168,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2" t="b">
+      <c r="Y7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3991,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -4006,22 +4195,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -4036,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="T8" s="2">
         <v>300</v>
@@ -4048,7 +4237,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2" t="b">
+      <c r="Y8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4060,13 +4249,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -4075,22 +4264,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I9" s="2">
         <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N9" s="2">
         <v>1</v>
@@ -4099,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S9" s="2">
         <v>10</v>
@@ -4117,7 +4306,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2" t="b">
+      <c r="Y9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4129,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -4144,22 +4333,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -4174,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S10" s="2">
         <v>10</v>
@@ -4186,7 +4375,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2" t="b">
+      <c r="Y10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4198,13 +4387,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -4213,22 +4402,22 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -4237,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="S11" s="2">
         <v>50000</v>
@@ -4255,7 +4444,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2" t="b">
+      <c r="Y11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4267,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -4282,22 +4471,22 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
@@ -4306,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="S12" s="2">
         <v>5000</v>
@@ -4324,7 +4513,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2" t="b">
+      <c r="Y12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4336,13 +4525,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -4351,22 +4540,22 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -4375,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="S13" s="2">
         <v>12000</v>
@@ -4393,7 +4582,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2" t="b">
+      <c r="Y13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4405,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -4420,22 +4609,22 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I14" s="2">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -4444,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="S14" s="2">
         <v>35000</v>
@@ -4462,7 +4651,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2" t="b">
+      <c r="Y14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4474,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -4489,22 +4678,22 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>197</v>
+      <c r="J15" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>196</v>
+      <c r="M15" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
@@ -4513,112 +4702,112 @@
         <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="S15" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="T15" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2" t="b">
+      <c r="Y15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2101</v>
+        <v>1206</v>
       </c>
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
       </c>
       <c r="O16" s="2">
-        <v>2</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>72</v>
+      <c r="R16" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="S16" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="T16" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2" t="b">
+      <c r="Y16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -4627,22 +4816,22 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I17" s="2">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>298</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>222</v>
+      <c r="M17" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="N17" s="2">
         <v>1</v>
@@ -4651,13 +4840,13 @@
         <v>2</v>
       </c>
       <c r="P17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S17" s="2">
         <v>50</v>
@@ -4669,25 +4858,25 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2" t="b">
+      <c r="Y17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -4696,67 +4885,67 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>198</v>
+        <v>275</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>191</v>
+      <c r="M18" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S18" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2" t="b">
+      <c r="Y18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -4765,37 +4954,37 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="2">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>219</v>
+      <c r="M19" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>2</v>
-      </c>
-      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
         <v>20</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S19" s="2">
         <v>10</v>
@@ -4807,374 +4996,1217 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2" t="b">
+      <c r="Y19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>2201</v>
+        <v>2104</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>194</v>
+      <c r="P20" s="2">
+        <v>20</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>195</v>
+      <c r="R20" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="S20" s="2">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="T20" s="2">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2" t="b">
+      <c r="Y20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>2202</v>
+        <v>2105</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="N21" s="2">
+        <v>10</v>
+      </c>
+      <c r="O21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="P21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>195</v>
+      <c r="R21" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="S21" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="T21" s="2">
-        <v>165</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="V21" s="2">
-        <v>40</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2" t="b">
+      <c r="Y21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>2203</v>
+        <v>2106</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="N22" s="2">
+        <v>10</v>
+      </c>
+      <c r="O22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="P22" s="2">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="Q22" s="2">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>195</v>
+      <c r="R22" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="S22" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="T22" s="2">
-        <v>250</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="V22" s="2">
-        <v>120</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2" t="b">
+      <c r="Y22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>2204</v>
+        <v>2107</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N23" s="2">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="P23" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I23" s="2">
-        <v>4</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" s="2">
-        <v>100</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>195</v>
+      <c r="R23" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="S23" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="T23" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2" t="b">
+      <c r="Y23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="A24" s="2">
+        <v>2108</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="N24" s="2">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" s="2">
+        <v>300</v>
+      </c>
+      <c r="T24" s="2">
+        <v>300</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="A25" s="2">
+        <v>2109</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="N25" s="2">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="2">
+        <v>300</v>
+      </c>
+      <c r="T25" s="2">
+        <v>300</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="A26" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S26" s="2">
+        <v>65</v>
+      </c>
+      <c r="T26" s="2">
+        <v>65</v>
+      </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S27" s="2">
+        <v>165</v>
+      </c>
+      <c r="T27" s="2">
+        <v>165</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V27" s="2">
+        <v>40</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>2203</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S28" s="2">
+        <v>250</v>
+      </c>
+      <c r="T28" s="2">
+        <v>250</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V28" s="2">
+        <v>120</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>2204</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="2">
+        <v>100</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S29" s="2">
+        <v>20</v>
+      </c>
+      <c r="T29" s="2">
+        <v>20</v>
+      </c>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S30" s="2">
+        <v>35</v>
+      </c>
+      <c r="T30" s="2">
+        <v>35</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" s="2">
+        <v>35</v>
+      </c>
+      <c r="T31" s="2">
+        <v>35</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N32" s="2">
+        <v>10</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2</v>
+      </c>
+      <c r="P32" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" s="2">
+        <v>100</v>
+      </c>
+      <c r="T32" s="2">
+        <v>100</v>
+      </c>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="2">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="N33" s="2">
+        <v>10</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S33" s="2">
+        <v>100</v>
+      </c>
+      <c r="T33" s="2">
+        <v>100</v>
+      </c>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N34" s="2">
+        <v>10</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S34" s="2">
+        <v>100</v>
+      </c>
+      <c r="T34" s="2">
+        <v>100</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>2210</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N35" s="2">
+        <v>10</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2</v>
+      </c>
+      <c r="P35" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S35" s="2">
+        <v>100</v>
+      </c>
+      <c r="T35" s="2">
+        <v>100</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>2211</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="2">
+        <v>11</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="N36" s="2">
+        <v>20</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5185,10 +6217,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5203,28 +6235,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5232,50 +6264,50 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5284,25 +6316,25 @@
         <v>1001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>266</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5310,16 +6342,16 @@
         <v>1002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>226</v>
+      <c r="E5" t="s">
+        <v>349</v>
       </c>
       <c r="F5" s="6">
         <v>20</v>
@@ -5328,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5336,16 +6368,16 @@
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>226</v>
+      <c r="E6" t="s">
+        <v>349</v>
       </c>
       <c r="F6" s="6">
         <v>20</v>
@@ -5354,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5362,16 +6394,16 @@
         <v>1004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>232</v>
+        <v>377</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="F7" s="6">
         <v>20</v>
@@ -5380,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5388,16 +6420,16 @@
         <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>232</v>
+        <v>378</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="F8" s="6">
         <v>20</v>
@@ -5406,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5414,16 +6446,16 @@
         <v>1006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>232</v>
+        <v>379</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="F9" s="6">
         <v>20</v>
@@ -5432,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5440,891 +6472,891 @@
         <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F10" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>233</v>
+        <v>381</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F11" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="F12" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="F13" s="6">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F14" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="9">
+        <v>1021</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>1022</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="10">
+        <v>40</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="10">
+        <v>40</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>1028</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="6">
-        <v>45</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="6">
-        <v>30</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="6">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="6">
-        <v>30</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>270</v>
+      <c r="F18" s="10">
+        <v>40</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="F19" s="6">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="F20" s="6">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>133</v>
+        <v>355</v>
       </c>
       <c r="F21" s="6">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="F22" s="6">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>1073</v>
+        <v>1033</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="F23" s="6">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="F24" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="F25" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="F26" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="F27" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>1024</v>
+        <v>1041</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="F28" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="F29" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>1026</v>
+        <v>1043</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="F30" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="6">
         <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>416</v>
+        <v>235</v>
       </c>
       <c r="F31" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G31" s="6">
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>1028</v>
+        <v>1045</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="F32" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>1029</v>
+        <v>1046</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="2">
+        <v>367</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="F33" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>276</v>
+      <c r="H33" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>1030</v>
+        <v>1047</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="2">
+        <v>369</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="F34" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G34" s="6">
         <v>1</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>276</v>
+      <c r="H34" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>1031</v>
+        <v>1048</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="2">
+        <v>370</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>229</v>
+        <v>351</v>
       </c>
       <c r="F35" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>277</v>
+      <c r="H35" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>1032</v>
+        <v>1049</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="F36" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>277</v>
+      <c r="H36" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="2">
+        <v>373</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="F37" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G37" s="6">
         <v>1</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>277</v>
+      <c r="H37" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38" s="2">
+        <v>375</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="F38" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G38" s="6">
         <v>1</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>278</v>
+      <c r="H38" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>1035</v>
+        <v>1052</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="2">
+        <v>376</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="F39" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G39" s="6">
         <v>1</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>278</v>
+      <c r="H39" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>1036</v>
+        <v>2001</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F40" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>1037</v>
+        <v>2002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F41" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>1038</v>
+        <v>2003</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F42" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>1039</v>
+        <v>2004</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F43" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>1040</v>
+        <v>2005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>243</v>
@@ -6333,24 +7365,24 @@
         <v>0</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F44" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>1041</v>
+        <v>2006</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>243</v>
@@ -6359,24 +7391,24 @@
         <v>0</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F45" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>1042</v>
+        <v>2007</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>243</v>
@@ -6385,1348 +7417,386 @@
         <v>0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="F46" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G46" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>1043</v>
+        <v>2008</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="F47" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>1044</v>
+        <v>2009</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="F48" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G48" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>1045</v>
+        <v>2010</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="F49" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G49" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>1046</v>
+        <v>2011</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="F50" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G50" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>1047</v>
+        <v>2012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="F51" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>1048</v>
+        <v>2013</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="F52" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G52" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>1049</v>
+        <v>2014</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="F53" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>1050</v>
+        <v>2015</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="F54" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G54" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1051</v>
+        <v>2016</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="F55" s="6">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G55" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>1052</v>
+        <v>2017</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="F56" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G56" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>1053</v>
+        <v>2018</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="F57" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>1054</v>
+        <v>2019</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="F58" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1055</v>
+        <v>2020</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="F59" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>1056</v>
+        <v>2021</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="F60" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>1057</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="6">
-        <v>20</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>1058</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="6">
-        <v>30</v>
-      </c>
-      <c r="G62" s="6">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>1059</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="6">
-        <v>30</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>1060</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="6">
-        <v>30</v>
-      </c>
-      <c r="G64" s="6">
-        <v>1</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>1061</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F65" s="6">
-        <v>45</v>
-      </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>1062</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F66" s="6">
-        <v>45</v>
-      </c>
-      <c r="G66" s="6">
-        <v>1</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>1063</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" s="6">
-        <v>45</v>
-      </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>1064</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="6">
-        <v>45</v>
-      </c>
-      <c r="G68" s="6">
-        <v>1</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>1065</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="6">
-        <v>45</v>
-      </c>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>1066</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="6">
-        <v>45</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>1067</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="6">
-        <v>45</v>
-      </c>
-      <c r="G71" s="6">
-        <v>1</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>1068</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="6">
-        <v>45</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>1069</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" s="6">
-        <v>45</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>1070</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F74" s="6">
-        <v>45</v>
-      </c>
-      <c r="G74" s="6">
-        <v>1</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>1071</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="6">
-        <v>45</v>
-      </c>
-      <c r="G75" s="6">
-        <v>1</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>1072</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" s="6">
-        <v>45</v>
-      </c>
-      <c r="G76" s="6">
-        <v>1</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" s="6">
-        <v>5</v>
-      </c>
-      <c r="G77" s="6">
-        <v>0</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" s="6">
-        <v>5</v>
-      </c>
-      <c r="G78" s="6">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F79" s="6">
-        <v>5</v>
-      </c>
-      <c r="G79" s="6">
-        <v>0</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F80" s="6">
-        <v>5</v>
-      </c>
-      <c r="G80" s="6">
-        <v>0</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" s="6">
-        <v>5</v>
-      </c>
-      <c r="G81" s="6">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" s="6">
-        <v>5</v>
-      </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F83" s="6">
-        <v>5</v>
-      </c>
-      <c r="G83" s="6">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" s="6">
-        <v>5</v>
-      </c>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F85" s="6">
-        <v>5</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" s="6">
-        <v>5</v>
-      </c>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F87" s="6">
-        <v>5</v>
-      </c>
-      <c r="G87" s="6">
-        <v>0</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F88" s="6">
-        <v>5</v>
-      </c>
-      <c r="G88" s="6">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F89" s="6">
-        <v>5</v>
-      </c>
-      <c r="G89" s="6">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F90" s="6">
-        <v>5</v>
-      </c>
-      <c r="G90" s="6">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F91" s="6">
-        <v>5</v>
-      </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F92" s="6">
-        <v>5</v>
-      </c>
-      <c r="G92" s="6">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F93" s="6">
-        <v>5</v>
-      </c>
-      <c r="G93" s="6">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F94" s="6">
-        <v>5</v>
-      </c>
-      <c r="G94" s="6">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F95" s="6">
-        <v>5</v>
-      </c>
-      <c r="G95" s="6">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F96" s="6">
-        <v>5</v>
-      </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F97" s="6">
-        <v>5</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>272</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C98"/>
-  <sortState ref="A2:H77">
-    <sortCondition ref="C77"/>
+  <autoFilter ref="C1:C60"/>
+  <sortState ref="A2:H39">
+    <sortCondition ref="C39"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7752,62 +7822,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7818,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
@@ -7836,13 +7906,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2">
         <v>1500</v>
@@ -7854,13 +7924,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2">
         <v>2000</v>
@@ -7872,13 +7942,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2">
         <v>2500</v>
@@ -7890,13 +7960,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2">
         <v>2950</v>
@@ -7908,13 +7978,13 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2">
         <v>3400</v>
@@ -7926,13 +7996,13 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2">
         <v>3850</v>
@@ -7944,13 +8014,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2">
         <v>4250</v>
@@ -7962,13 +8032,13 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2">
         <v>4650</v>
@@ -7980,13 +8050,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F13" s="2">
         <v>5000</v>
@@ -7998,13 +8068,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2">
         <v>5400</v>
@@ -8016,13 +8086,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F15" s="2">
         <v>5750</v>
@@ -8034,13 +8104,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2">
         <v>6100</v>
@@ -8052,13 +8122,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2">
         <v>6450</v>
@@ -8070,13 +8140,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2">
         <v>6800</v>
@@ -8088,13 +8158,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2">
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="2">
         <v>7150</v>
@@ -8106,13 +8176,13 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2">
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F20" s="2">
         <v>7450</v>
@@ -8124,13 +8194,13 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2">
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2">
         <v>7800</v>
@@ -8142,13 +8212,13 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2">
         <v>8100</v>
@@ -8160,13 +8230,13 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="2">
         <v>8450</v>
@@ -8196,13 +8266,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8216,21 +8286,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -8241,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -8253,7 +8323,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3"/>
     </row>

--- a/Excel/镇魂街/shop.商店.xlsx
+++ b/Excel/镇魂街/shop.商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="技能商店" sheetId="29" r:id="rId5"/>
     <sheet name="点金手" sheetId="30" r:id="rId6"/>
     <sheet name="技能兑换页签" sheetId="33" r:id="rId7"/>
+    <sheet name="分解表" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技能商店!$C$1:$C$60</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="494">
   <si>
     <t>sheet名</t>
   </si>
@@ -195,15 +196,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int:a&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>原价</t>
@@ -756,9 +750,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>中级专属强化石</t>
-  </si>
-  <si>
     <t>金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -770,9 +761,6 @@
   </si>
   <si>
     <t>芦花币</t>
-  </si>
-  <si>
-    <t>低级专属强化石</t>
   </si>
   <si>
     <t>星辰石</t>
@@ -1180,10 +1168,6 @@
   </si>
   <si>
     <t>积分商店</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级专属强化石</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2161,6 +2145,267 @@
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石3</t>
+  </si>
+  <si>
+    <t>太阳石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].Val</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].Id</t>
+  </si>
+  <si>
+    <t>Award[2].Val</t>
+  </si>
+  <si>
+    <t>Award[3].Id</t>
+  </si>
+  <si>
+    <t>Award[3].Val</t>
+  </si>
+  <si>
+    <t>奖励Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽专属武器碎片</t>
+  </si>
+  <si>
+    <t>许褚专属武器碎片</t>
+  </si>
+  <si>
+    <t>典韦专属武器碎片</t>
+  </si>
+  <si>
+    <t>李轩辕专属武器碎片</t>
+  </si>
+  <si>
+    <t>项羽专属武器碎片</t>
+  </si>
+  <si>
+    <t>天使缇娜专属武器碎片</t>
+  </si>
+  <si>
+    <t>夏侯渊专属武器碎片</t>
+  </si>
+  <si>
+    <t>徐晃专属武器碎片</t>
+  </si>
+  <si>
+    <t>张郃专属武器碎片</t>
+  </si>
+  <si>
+    <t>张飞专属武器碎片</t>
+  </si>
+  <si>
+    <t>夏侯惇专属武器碎片</t>
+  </si>
+  <si>
+    <t>石灵明专属武器碎片</t>
+  </si>
+  <si>
+    <t>西方龙专属武器碎片</t>
+  </si>
+  <si>
+    <t>飞廉专属武器碎片</t>
+  </si>
+  <si>
+    <t>高顺专属武器碎片</t>
+  </si>
+  <si>
+    <t>烈风螳螂专属武器碎片</t>
+  </si>
+  <si>
+    <t>朱仙专属武器碎片</t>
+  </si>
+  <si>
+    <t>雷震子专属武器碎片</t>
+  </si>
+  <si>
+    <t>吕布专属武器碎片</t>
+  </si>
+  <si>
+    <t>燕青专属武器碎片</t>
+  </si>
+  <si>
+    <t>秦琼专属武器碎片</t>
+  </si>
+  <si>
+    <t>专属武器币</t>
+  </si>
+  <si>
+    <t>专属武器币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Val</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[2].Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[2].Val</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励Id1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励Id2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>decompose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.lua</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decompose.txt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2318,7 +2563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2350,6 +2595,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2405,13 +2661,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -2715,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2760,17 +3016,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -2780,17 +3036,17 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="b">
@@ -2800,17 +3056,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -2820,17 +3076,17 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="b">
@@ -2840,17 +3096,17 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -2860,17 +3116,17 @@
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -2880,14 +3136,14 @@
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2898,17 +3154,17 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
@@ -2918,14 +3174,14 @@
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2936,10 +3192,10 @@
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -2956,14 +3212,14 @@
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2974,10 +3230,10 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2989,6 +3245,42 @@
         <v>1</v>
       </c>
       <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2999,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33:O39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3016,10 +3308,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -3033,16 +3325,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -3050,7 +3342,7 @@
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -3073,26 +3365,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -3103,68 +3395,76 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N6">
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N7">
         <v>288</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N8">
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N9">
         <v>300</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -3172,7 +3472,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -3180,12 +3480,12 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N13">
         <v>50000</v>
@@ -3193,7 +3493,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N14">
         <v>500</v>
@@ -3201,7 +3501,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N15">
         <v>1200</v>
@@ -3209,7 +3509,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N16">
         <v>3500</v>
@@ -3217,7 +3517,7 @@
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N17">
         <v>2500</v>
@@ -3225,15 +3525,15 @@
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O19">
         <v>150</v>
@@ -3241,7 +3541,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O20">
         <v>150</v>
@@ -3249,7 +3549,7 @@
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O21">
         <v>10</v>
@@ -3257,7 +3557,7 @@
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -3265,7 +3565,7 @@
     </row>
     <row r="23" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O23">
         <v>100</v>
@@ -3273,7 +3573,7 @@
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O24">
         <v>100</v>
@@ -3281,7 +3581,7 @@
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O25">
         <v>500</v>
@@ -3289,7 +3589,7 @@
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O26">
         <v>500</v>
@@ -3297,7 +3597,7 @@
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O27">
         <v>500</v>
@@ -3305,12 +3605,12 @@
     </row>
     <row r="28" spans="10:15" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O29">
         <v>65</v>
@@ -3318,7 +3618,7 @@
     </row>
     <row r="30" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O30">
         <v>165</v>
@@ -3326,7 +3626,7 @@
     </row>
     <row r="31" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O31">
         <v>250</v>
@@ -3334,66 +3634,71 @@
     </row>
     <row r="32" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L33" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O33">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L34" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O35">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L36" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L37" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O37">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L38" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O38">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:15" x14ac:dyDescent="0.2">
       <c r="L39" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O39">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3411,7 +3716,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3424,10 +3729,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -3436,47 +3741,47 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -3488,16 +3793,16 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -3508,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3517,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -3532,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -3541,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -3556,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3565,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -3580,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -3589,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -3597,14 +3902,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -3634,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3646,8 +3965,8 @@
     <col min="3" max="5" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="21.25" customWidth="1"/>
     <col min="14" max="14" width="11.125" customWidth="1"/>
@@ -3665,37 +3984,37 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>29</v>
@@ -3722,22 +4041,22 @@
         <v>42</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -3745,34 +4064,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -3787,34 +4106,34 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
       </c>
       <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>487</v>
+      </c>
+      <c r="T2" t="s">
+        <v>488</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
         <v>70</v>
       </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" t="s">
-        <v>72</v>
-      </c>
       <c r="X2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,22 +4141,22 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -3846,10 +4165,10 @@
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>28</v>
@@ -3861,7 +4180,7 @@
         <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>37</v>
@@ -3873,25 +4192,25 @@
         <v>40</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,13 +4221,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3917,22 +4236,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -3941,20 +4260,16 @@
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="3">
-        <v>100</v>
-      </c>
-      <c r="T4" s="3">
-        <v>100</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -3971,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -3986,22 +4301,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
@@ -4010,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T5" s="3">
         <v>288</v>
@@ -4040,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -4055,22 +4370,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -4085,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="T6" s="3">
         <v>200</v>
@@ -4111,13 +4426,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -4126,22 +4441,22 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
@@ -4156,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="T7" s="2">
         <v>200</v>
@@ -4180,13 +4495,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -4195,22 +4510,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -4225,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T8" s="2">
         <v>300</v>
@@ -4249,13 +4564,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -4264,37 +4579,37 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I9" s="2">
         <v>6</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S9" s="2">
         <v>10</v>
@@ -4310,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1107</v>
       </c>
@@ -4318,13 +4633,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -4333,43 +4648,43 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>205</v>
+        <v>436</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
       </c>
       <c r="O10" s="2">
-        <v>2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -4381,64 +4696,64 @@
     </row>
     <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1201</v>
+        <v>1108</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>180</v>
+      <c r="P11" s="2">
+        <v>100</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>178</v>
+      <c r="R11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="S11" s="2">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="T11" s="2">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -4448,21 +4763,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -4471,22 +4786,22 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
@@ -4495,19 +4810,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S12" s="2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="T12" s="2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -4519,19 +4834,19 @@
     </row>
     <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -4540,22 +4855,22 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -4564,19 +4879,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S13" s="2">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="T13" s="2">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -4588,19 +4903,19 @@
     </row>
     <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -4609,22 +4924,22 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -4633,19 +4948,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S14" s="2">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="T14" s="2">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -4657,19 +4972,19 @@
     </row>
     <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -4678,22 +4993,22 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
@@ -4702,19 +5017,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="S15" s="2">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="T15" s="2">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -4726,19 +5041,19 @@
     </row>
     <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
@@ -4747,22 +5062,22 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I16" s="2">
-        <v>6</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>182</v>
+      <c r="M16" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -4771,19 +5086,19 @@
         <v>0</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="S16" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="T16" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -4795,64 +5110,64 @@
     </row>
     <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2101</v>
+        <v>1206</v>
       </c>
       <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="S17" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="T17" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -4864,19 +5179,19 @@
     </row>
     <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -4885,22 +5200,22 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="2">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>208</v>
+      <c r="M18" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -4909,13 +5224,13 @@
         <v>2</v>
       </c>
       <c r="P18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S18" s="2">
         <v>50</v>
@@ -4933,19 +5248,19 @@
     </row>
     <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -4954,43 +5269,43 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>177</v>
+      <c r="M19" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S19" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T19" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -5002,19 +5317,19 @@
     </row>
     <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -5023,37 +5338,37 @@
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>203</v>
+        <v>430</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>205</v>
+        <v>432</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <v>2</v>
-      </c>
-      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>20</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S20" s="2">
         <v>10</v>
@@ -5071,19 +5386,19 @@
     </row>
     <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -5092,43 +5407,43 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>420</v>
+        <v>199</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>394</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>2</v>
       </c>
       <c r="P21" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S21" s="2">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T21" s="2">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -5140,19 +5455,19 @@
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -5161,22 +5476,22 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="N22" s="2">
         <v>10</v>
@@ -5191,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S22" s="2">
         <v>75</v>
@@ -5209,19 +5524,19 @@
     </row>
     <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -5230,25 +5545,25 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I23" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="N23" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O23" s="2">
         <v>2</v>
@@ -5260,13 +5575,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S23" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="T23" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -5278,19 +5593,19 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -5299,22 +5614,22 @@
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="N24" s="2">
         <v>20</v>
@@ -5329,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S24" s="2">
         <v>300</v>
@@ -5347,19 +5662,19 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -5368,22 +5683,22 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="N25" s="2">
         <v>20</v>
@@ -5398,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S25" s="2">
         <v>300</v>
@@ -5416,64 +5731,64 @@
     </row>
     <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>2201</v>
+        <v>2109</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N26" s="2">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="P26" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="Q26" s="2">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>181</v>
+      <c r="R26" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="S26" s="2">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="T26" s="2">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -5485,19 +5800,19 @@
     </row>
     <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
@@ -5506,22 +5821,22 @@
         <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
@@ -5530,26 +5845,22 @@
         <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S27" s="2">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="T27" s="2">
-        <v>165</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="V27" s="2">
-        <v>40</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2">
@@ -5558,19 +5869,19 @@
     </row>
     <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
@@ -5579,22 +5890,22 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
@@ -5603,25 +5914,25 @@
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S28" s="2">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="T28" s="2">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="V28" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -5631,19 +5942,19 @@
     </row>
     <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
@@ -5652,46 +5963,50 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="N29" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S29" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="T29" s="2">
-        <v>20</v>
-      </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="V29" s="2">
+        <v>120</v>
+      </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2">
@@ -5700,19 +6015,19 @@
     </row>
     <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -5721,43 +6036,43 @@
         <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>425</v>
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>385</v>
+        <v>64</v>
       </c>
       <c r="N30" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O30" s="2">
-        <v>2</v>
-      </c>
-      <c r="P30" s="2">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S30" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="T30" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -5769,19 +6084,19 @@
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
@@ -5790,22 +6105,22 @@
         <v>4</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I31" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="N31" s="2">
         <v>5</v>
@@ -5820,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S31" s="2">
         <v>35</v>
@@ -5838,19 +6153,19 @@
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -5859,25 +6174,25 @@
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O32" s="2">
         <v>2</v>
@@ -5889,13 +6204,13 @@
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S32" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="T32" s="2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -5907,19 +6222,19 @@
     </row>
     <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
@@ -5928,22 +6243,22 @@
         <v>4</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N33" s="2">
         <v>10</v>
@@ -5958,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S33" s="2">
         <v>100</v>
@@ -5976,19 +6291,19 @@
     </row>
     <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
@@ -5997,22 +6312,22 @@
         <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I34" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="N34" s="2">
         <v>10</v>
@@ -6027,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S34" s="2">
         <v>100</v>
@@ -6045,19 +6360,19 @@
     </row>
     <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
@@ -6066,22 +6381,22 @@
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N35" s="2">
         <v>10</v>
@@ -6096,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S35" s="2">
         <v>100</v>
@@ -6114,19 +6429,19 @@
     </row>
     <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
@@ -6135,25 +6450,25 @@
         <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I36" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N36" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O36" s="2">
         <v>2</v>
@@ -6165,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S36" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="T36" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -6182,31 +6497,1459 @@
       </c>
     </row>
     <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="A37" s="2">
+        <v>2211</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="2">
+        <v>11</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N37" s="2">
+        <v>20</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2</v>
+      </c>
+      <c r="P37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1000</v>
+      </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
+      <c r="Y37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>3101</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>K38&amp;"x1"</f>
+        <v>关羽专属武器碎片x1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S38" s="2">
+        <v>250</v>
+      </c>
+      <c r="T38" s="2">
+        <v>250</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>3102</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f t="shared" ref="J39:J58" si="0">K39&amp;"x1"</f>
+        <v>许褚专属武器碎片x1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S39" s="2">
+        <v>20</v>
+      </c>
+      <c r="T39" s="2">
+        <v>20</v>
+      </c>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>3103</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>典韦专属武器碎片x1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S40" s="2">
+        <v>50</v>
+      </c>
+      <c r="T40" s="2">
+        <v>50</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>3104</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="10">
+        <v>4</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>李轩辕专属武器碎片x1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S41" s="2">
+        <v>50</v>
+      </c>
+      <c r="T41" s="2">
+        <v>50</v>
+      </c>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>3105</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="2">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>项羽专属武器碎片x1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S42" s="2">
+        <v>250</v>
+      </c>
+      <c r="T42" s="2">
+        <v>250</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>3106</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="10">
+        <v>6</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>天使缇娜专属武器碎片x1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S43" s="2">
+        <v>50</v>
+      </c>
+      <c r="T43" s="2">
+        <v>50</v>
+      </c>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>3107</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>夏侯渊专属武器碎片x1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S44" s="2">
+        <v>100</v>
+      </c>
+      <c r="T44" s="2">
+        <v>100</v>
+      </c>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>3108</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="10">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>徐晃专属武器碎片x1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S45" s="2">
+        <v>50</v>
+      </c>
+      <c r="T45" s="2">
+        <v>50</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>3109</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>张郃专属武器碎片x1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S46" s="2">
+        <v>100</v>
+      </c>
+      <c r="T46" s="2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>3110</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="10">
+        <v>10</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>张飞专属武器碎片x1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S47" s="2">
+        <v>100</v>
+      </c>
+      <c r="T47" s="2">
+        <v>100</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>3111</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="2">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>夏侯惇专属武器碎片x1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S48" s="2">
+        <v>250</v>
+      </c>
+      <c r="T48" s="2">
+        <v>250</v>
+      </c>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>3112</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="10">
+        <v>12</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>石灵明专属武器碎片x1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S49" s="2">
+        <v>50</v>
+      </c>
+      <c r="T49" s="2">
+        <v>50</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>3113</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="2">
+        <v>13</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>西方龙专属武器碎片x1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S50" s="2">
+        <v>50</v>
+      </c>
+      <c r="T50" s="2">
+        <v>50</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>3114</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="10">
+        <v>14</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>飞廉专属武器碎片x1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S51" s="2">
+        <v>20</v>
+      </c>
+      <c r="T51" s="2">
+        <v>20</v>
+      </c>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>3115</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="2">
+        <v>15</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>高顺专属武器碎片x1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S52" s="2">
+        <v>50</v>
+      </c>
+      <c r="T52" s="2">
+        <v>50</v>
+      </c>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>3116</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="10">
+        <v>16</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>烈风螳螂专属武器碎片x1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S53" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" s="2">
+        <v>20</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+    </row>
+    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>3117</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" s="2">
+        <v>17</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>朱仙专属武器碎片x1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S54" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" s="2">
+        <v>20</v>
+      </c>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>3118</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="10">
+        <v>18</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>雷震子专属武器碎片x1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S55" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>3119</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" s="2">
+        <v>19</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>吕布专属武器碎片x1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S56" s="2">
+        <v>250</v>
+      </c>
+      <c r="T56" s="2">
+        <v>250</v>
+      </c>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>3120</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="10">
+        <v>20</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>燕青专属武器碎片x1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S57" s="2">
+        <v>50</v>
+      </c>
+      <c r="T57" s="2">
+        <v>50</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>3121</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I58" s="2">
+        <v>21</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>秦琼专属武器碎片x1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="S58" s="2">
+        <v>100</v>
+      </c>
+      <c r="T58" s="2">
+        <v>100</v>
+      </c>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6238,25 +7981,25 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6264,13 +8007,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -6282,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -6290,25 +8033,25 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6316,16 +8059,16 @@
         <v>1001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -6334,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6342,16 +8085,16 @@
         <v>1002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F5" s="6">
         <v>20</v>
@@ -6360,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6368,16 +8111,16 @@
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F6" s="6">
         <v>20</v>
@@ -6386,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6394,16 +8137,16 @@
         <v>1004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F7" s="6">
         <v>20</v>
@@ -6412,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6420,16 +8163,16 @@
         <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F8" s="6">
         <v>20</v>
@@ -6438,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6446,16 +8189,16 @@
         <v>1006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F9" s="6">
         <v>20</v>
@@ -6464,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6472,16 +8215,16 @@
         <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F10" s="6">
         <v>40</v>
@@ -6490,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6498,16 +8241,16 @@
         <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="6">
         <v>80</v>
@@ -6516,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6524,16 +8267,16 @@
         <v>1013</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="6">
         <v>40</v>
@@ -6542,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6550,16 +8293,16 @@
         <v>1016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F13" s="6">
         <v>80</v>
@@ -6568,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6576,16 +8319,16 @@
         <v>1019</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
@@ -6594,111 +8337,111 @@
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>1021</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>1022</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="9">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="9">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>1028</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F18" s="9">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>1021</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>1022</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F16" s="10">
-        <v>40</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>1025</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F17" s="10">
-        <v>40</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>1028</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F18" s="10">
-        <v>40</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6706,16 +8449,16 @@
         <v>1029</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F19" s="6">
         <v>80</v>
@@ -6724,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6732,16 +8475,16 @@
         <v>1030</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F20" s="6">
         <v>80</v>
@@ -6750,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6758,16 +8501,16 @@
         <v>1031</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F21" s="6">
         <v>80</v>
@@ -6776,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6784,16 +8527,16 @@
         <v>1032</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F22" s="6">
         <v>80</v>
@@ -6802,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6810,16 +8553,16 @@
         <v>1033</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F23" s="6">
         <v>40</v>
@@ -6828,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6836,16 +8579,16 @@
         <v>1034</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F24" s="6">
         <v>20</v>
@@ -6854,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6862,16 +8605,16 @@
         <v>1035</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F25" s="6">
         <v>20</v>
@@ -6880,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6888,16 +8631,16 @@
         <v>1036</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F26" s="6">
         <v>20</v>
@@ -6906,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6914,16 +8657,16 @@
         <v>1040</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="6">
         <v>80</v>
@@ -6932,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6940,16 +8683,16 @@
         <v>1041</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="6">
         <v>20</v>
@@ -6958,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6966,16 +8709,16 @@
         <v>1042</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F29" s="6">
         <v>40</v>
@@ -6984,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -6992,16 +8735,16 @@
         <v>1043</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F30" s="6">
         <v>40</v>
@@ -7010,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7018,16 +8761,16 @@
         <v>1044</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F31" s="6">
         <v>80</v>
@@ -7036,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7044,16 +8787,16 @@
         <v>1045</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" s="6">
         <v>80</v>
@@ -7062,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7070,16 +8813,16 @@
         <v>1046</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F33" s="6">
         <v>20</v>
@@ -7088,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7096,16 +8839,16 @@
         <v>1047</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F34" s="6">
         <v>20</v>
@@ -7114,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7122,16 +8865,16 @@
         <v>1048</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F35" s="6">
         <v>20</v>
@@ -7140,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7148,16 +8891,16 @@
         <v>1049</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F36" s="6">
         <v>40</v>
@@ -7166,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7174,16 +8917,16 @@
         <v>1050</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F37" s="6">
         <v>20</v>
@@ -7192,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7200,16 +8943,16 @@
         <v>1051</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F38" s="6">
         <v>20</v>
@@ -7218,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7226,16 +8969,16 @@
         <v>1052</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F39" s="6">
         <v>20</v>
@@ -7244,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7252,16 +8995,16 @@
         <v>2001</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F40" s="6">
         <v>5</v>
@@ -7270,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7278,16 +9021,16 @@
         <v>2002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F41" s="6">
         <v>5</v>
@@ -7296,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7304,16 +9047,16 @@
         <v>2003</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F42" s="6">
         <v>5</v>
@@ -7322,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7330,16 +9073,16 @@
         <v>2004</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F43" s="6">
         <v>5</v>
@@ -7348,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7356,16 +9099,16 @@
         <v>2005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F44" s="6">
         <v>5</v>
@@ -7374,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7382,16 +9125,16 @@
         <v>2006</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
@@ -7400,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7408,16 +9151,16 @@
         <v>2007</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F46" s="6">
         <v>5</v>
@@ -7426,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7434,16 +9177,16 @@
         <v>2008</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F47" s="6">
         <v>5</v>
@@ -7452,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7460,16 +9203,16 @@
         <v>2009</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F48" s="6">
         <v>5</v>
@@ -7478,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7486,16 +9229,16 @@
         <v>2010</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F49" s="6">
         <v>5</v>
@@ -7504,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7512,16 +9255,16 @@
         <v>2011</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F50" s="6">
         <v>5</v>
@@ -7530,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7538,16 +9281,16 @@
         <v>2012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F51" s="6">
         <v>5</v>
@@ -7556,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7564,16 +9307,16 @@
         <v>2013</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F52" s="6">
         <v>5</v>
@@ -7582,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7590,16 +9333,16 @@
         <v>2014</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F53" s="6">
         <v>5</v>
@@ -7608,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7616,16 +9359,16 @@
         <v>2015</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F54" s="6">
         <v>5</v>
@@ -7634,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7642,16 +9385,16 @@
         <v>2016</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F55" s="6">
         <v>5</v>
@@ -7660,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7668,16 +9411,16 @@
         <v>2017</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F56" s="6">
         <v>5</v>
@@ -7686,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7694,16 +9437,16 @@
         <v>2018</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F57" s="6">
         <v>5</v>
@@ -7712,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7720,16 +9463,16 @@
         <v>2019</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F58" s="6">
         <v>5</v>
@@ -7738,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7746,16 +9489,16 @@
         <v>2020</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F59" s="6">
         <v>5</v>
@@ -7764,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -7772,16 +9515,16 @@
         <v>2021</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F60" s="6">
         <v>5</v>
@@ -7790,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7809,7 +9552,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H3" sqref="H3:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7822,62 +9565,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7888,16 +9631,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7906,16 +9649,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7924,16 +9667,16 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7942,16 +9685,16 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2">
-        <v>2500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7960,16 +9703,16 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2">
-        <v>2950</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7978,16 +9721,16 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="2">
-        <v>3400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -7996,16 +9739,16 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2">
-        <v>3850</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8014,16 +9757,16 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2">
-        <v>4250</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8032,16 +9775,16 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2">
-        <v>4650</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8050,16 +9793,16 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2">
-        <v>5000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8068,16 +9811,16 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="2">
-        <v>5400</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8086,16 +9829,16 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="2">
-        <v>5750</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8104,16 +9847,16 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2">
-        <v>6100</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8122,16 +9865,16 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2">
-        <v>6450</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8140,16 +9883,16 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="2">
-        <v>6800</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8158,16 +9901,16 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2">
-        <v>7150</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8176,16 +9919,16 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2">
-        <v>7450</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8194,16 +9937,16 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2">
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2">
-        <v>7800</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8212,16 +9955,16 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="2">
-        <v>8100</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8230,16 +9973,16 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2">
-        <v>8450</v>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
@@ -8266,13 +10009,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8286,21 +10029,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -8311,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -8323,9 +10066,704 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="11" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1502001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4" s="2">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1502002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1502003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1502005</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1502006</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="2">
+        <v>125</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1502007</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1502008</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1502009</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1502010</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1502011</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1502012</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" s="2">
+        <v>125</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1502014</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1502016</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G16" s="2">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1502017</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="2">
+        <v>500</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1502020</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G18" s="2">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1502021</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E19" s="2">
+        <v>500</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1502024</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="2">
+        <v>500</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1502026</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E21" s="2">
+        <v>500</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1502028</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G22" s="2">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1502030</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G23" s="2">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1502031</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
